--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\elecdiy\0_current_designs\dhrystone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8EFF03-E514-4ED0-8B0F-C35E434E6E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B1EAA-9F09-4BF2-BFB9-83167492AD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="-108" windowWidth="29844" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>MCU</t>
   </si>
@@ -111,17 +111,33 @@
   </si>
   <si>
     <t>cosmic c 4.4.12</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtensa-lx106-elf-gcc 8.4.0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,7 +145,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,7 +153,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -146,7 +162,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,7 +171,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -164,7 +180,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,7 +188,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,7 +196,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,7 +204,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,7 +212,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,7 +221,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -214,7 +230,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,7 +247,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,7 +255,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,7 +264,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,7 +273,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,14 +281,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1075,17 +1091,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="2" bestFit="1" customWidth="1"/>
@@ -1094,7 +1110,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,15 +1150,15 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F30" si="0">1000/E2/1.757</f>
+        <f>1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G30" si="1">F2/D2</f>
+        <f>F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1159,15 +1175,15 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E3/1.757</f>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>F3/D3</f>
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,15 +1200,15 @@
         <v>1.76</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E4/1.757</f>
         <v>323.38179748538312</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>F4/D4</f>
         <v>1.1549349910192255</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,15 +1225,15 @@
         <v>1.8</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E5/1.757</f>
         <v>316.19553531904131</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>F5/D5</f>
         <v>1.1292697689965761</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,15 +1250,15 @@
         <v>2.59</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E6/1.757</f>
         <v>219.74979288582023</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>F6/D6</f>
         <v>1.3080344814632157</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,15 +1275,15 @@
         <v>2.93</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E7/1.757</f>
         <v>194.24981691954756</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>F7/D7</f>
         <v>1.1562489102354021</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,15 +1300,15 @@
         <v>4.57</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E8/1.757</f>
         <v>124.54091106658082</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>F8/D8</f>
         <v>1.1531565839498223</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,15 +1325,15 @@
         <v>4.84</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E9/1.757</f>
         <v>117.5933809037757</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>F9/D9</f>
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,117 +1350,117 @@
         <v>5.21</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f>1000/E10/1.757</f>
         <v>109.24221949602196</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>F10/D10</f>
         <v>1.3005026130478805</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="F11" s="2">
+        <f>1000/E11/1.757</f>
+        <v>89.208771720105702</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F11/D11</f>
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>65.344657126782351</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2">
-        <v>9.19</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>61.931660889474905</v>
+        <f>1000/E12/1.757</f>
+        <v>65.344657126782351</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f>F12/D12</f>
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
-        <v>14.9</v>
+        <v>9.19</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>38.198118360689556</v>
+        <f>1000/E13/1.757</f>
+        <v>61.931660889474905</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>F13/D13</f>
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>31.050298067336303</v>
+        <v>12.2</v>
+      </c>
+      <c r="F14" s="2">
+        <f>1000/E14/1.757</f>
+        <v>46.651800292973313</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f>F14/D14</f>
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -1453,73 +1469,73 @@
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
-        <v>27</v>
+        <v>14.9</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>21.079702354602755</v>
+        <f>1000/E15/1.757</f>
+        <v>38.198118360689556</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f>F15/D15</f>
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2">
-        <v>27.23</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>20.901651251350508</v>
+        <f>1000/E16/1.757</f>
+        <v>31.050298067336303</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3063532032094067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <f>F16/D16</f>
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
-        <v>27.52</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>20.681394025227995</v>
+        <f>1000/E17/1.757</f>
+        <v>21.079702354602755</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <f>F17/D17</f>
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1528,48 +1544,48 @@
         <v>25</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>59</v>
+        <v>27.23</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>9.64664345041143</v>
+        <f>1000/E18/1.757</f>
+        <v>20.901651251350508</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f>F18/D18</f>
+        <v>1.3063532032094067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>61.5</v>
+        <v>27.52</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>9.2545034727524289</v>
+        <f>1000/E19/1.757</f>
+        <v>20.681394025227995</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f>F19/D19</f>
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1581,148 +1597,148 @@
         <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>61.55</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>9.2469855982822793</v>
+        <f>1000/E20/1.757</f>
+        <v>9.64664345041143</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <f>F20/D20</f>
+        <v>1.2058304313014288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2">
-        <v>71.900000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>7.9158826644544416</v>
+        <f>1000/E21/1.757</f>
+        <v>9.2545034727524289</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <f>F21/D21</f>
+        <v>1.1568129340940536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>61.55</v>
+      </c>
+      <c r="F22" s="3">
+        <f>1000/E22/1.757</f>
+        <v>9.2469855982822793</v>
+      </c>
+      <c r="G22" s="2">
+        <f>F22/D22</f>
+        <v>1.1558731997852849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>74</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>7.691242751003708</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
-        <v>80</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>7.1143995446784292</v>
+        <f>1000/E23/1.757</f>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <f>F23/D23</f>
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
       </c>
       <c r="E24" s="2">
-        <v>107.1</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>5.314210677630947</v>
+        <f>1000/E24/1.757</f>
+        <v>7.691242751003708</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <f>F24/D24</f>
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" s="3">
+        <f>1000/E25/1.757</f>
+        <v>7.1143995446784292</v>
+      </c>
+      <c r="G25" s="2">
+        <f>F25/D25</f>
+        <v>0.88929994308480365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3092533915510671</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>29</v>
@@ -1731,23 +1747,23 @@
         <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>5.265050541852677</v>
+        <f>1000/E26/1.757</f>
+        <v>5.314210677630947</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <f>F26/D26</f>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>29</v>
@@ -1756,70 +1772,70 @@
         <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>121</v>
+        <v>107.2</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>4.7037352361510276</v>
+        <f>1000/E27/1.757</f>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <f>F27/D27</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>254</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2407557621034426</v>
+        <v>108.1</v>
+      </c>
+      <c r="F28" s="3">
+        <f>1000/E28/1.757</f>
+        <v>5.265050541852677</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <f>F28/D28</f>
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>883</v>
+        <v>121</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.64456621016339111</v>
+        <f>1000/E29/1.757</f>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <f>F29/D29</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -1828,23 +1844,73 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2">
+        <v>254</v>
+      </c>
+      <c r="F30" s="2">
+        <f>1000/E30/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30/D30</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1">
         <v>16</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
+        <v>883</v>
+      </c>
+      <c r="F31" s="3">
+        <f>1000/E31/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31/D31</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
         <v>884</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
+      <c r="F32" s="3">
+        <f>1000/E32/1.757</f>
         <v>0.64383706286682618</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="1"/>
+      <c r="G32" s="2">
+        <f>F32/D32</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H31">
-    <sortCondition descending="1" ref="F2:F31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
+    <sortCondition descending="1" ref="F2:F33"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B1EAA-9F09-4BF2-BFB9-83167492AD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F049EC-F7DC-444D-9121-4491C7F04D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$1:$H$39</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>MCU</t>
   </si>
@@ -126,6 +129,18 @@
   </si>
   <si>
     <t>O3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD32E103</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1091,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1285,232 +1300,232 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2">
-        <v>4.57</v>
+        <v>3.77</v>
       </c>
       <c r="F8" s="3">
         <f>1000/E8/1.757</f>
-        <v>124.54091106658082</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G8" s="2">
         <f>F8/D8</f>
-        <v>1.1531565839498223</v>
+        <v>1.2580724216937982</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2">
-        <v>4.84</v>
+        <v>4.57</v>
       </c>
       <c r="F9" s="3">
         <f>1000/E9/1.757</f>
-        <v>117.5933809037757</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>0.69996060061771248</v>
+        <v>1.1531565839498223</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2">
-        <v>5.21</v>
+        <v>4.84</v>
       </c>
       <c r="F10" s="3">
         <f>1000/E10/1.757</f>
-        <v>109.24221949602196</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F11" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="F11" s="3">
         <f>1000/E11/1.757</f>
-        <v>89.208771720105702</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F12" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="F12" s="2">
         <f>1000/E12/1.757</f>
-        <v>65.344657126782351</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>0.90756468231642151</v>
+        <v>1.1151096465013213</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2">
-        <v>9.19</v>
+        <v>8.11</v>
       </c>
       <c r="F13" s="3">
         <f>1000/E13/1.757</f>
-        <v>61.931660889474905</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F14" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F14" s="3">
         <f>1000/E14/1.757</f>
-        <v>46.651800292973313</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>0.58314750366216639</v>
+        <v>0.90756468231642151</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2">
-        <v>14.9</v>
+        <v>9.19</v>
       </c>
       <c r="F15" s="3">
         <f>1000/E15/1.757</f>
-        <v>38.198118360689556</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F16" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="F16" s="2">
         <f>1000/E16/1.757</f>
-        <v>31.050298067336303</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>0.43125413982411531</v>
+        <v>0.58314750366216639</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1519,73 +1534,73 @@
         <v>25</v>
       </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
-        <v>27</v>
+        <v>14.9</v>
       </c>
       <c r="F17" s="3">
         <f>1000/E17/1.757</f>
-        <v>21.079702354602755</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>1.3174813971626722</v>
+        <v>0.7957941325143657</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2">
-        <v>27.23</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F18" s="3">
         <f>1000/E18/1.757</f>
-        <v>20.901651251350508</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>1.3063532032094067</v>
+        <v>0.43125413982411531</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>27.52</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3">
         <f>1000/E19/1.757</f>
-        <v>20.681394025227995</v>
+        <v>21.079702354602755</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>0.43086237552558321</v>
+        <v>1.3174813971626722</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1594,51 +1609,51 @@
         <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>59</v>
+        <v>27.23</v>
       </c>
       <c r="F20" s="3">
         <f>1000/E20/1.757</f>
-        <v>9.64664345041143</v>
+        <v>20.901651251350508</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>1.2058304313014288</v>
+        <v>1.3063532032094067</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2">
-        <v>61.5</v>
+        <v>27.52</v>
       </c>
       <c r="F21" s="3">
         <f>1000/E21/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.1568129340940536</v>
+        <v>0.43086237552558321</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>25</v>
@@ -1647,70 +1662,70 @@
         <v>8</v>
       </c>
       <c r="E22" s="2">
-        <v>61.55</v>
+        <v>55.1</v>
       </c>
       <c r="F22" s="3">
         <f>1000/E22/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>10.329436725485923</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.1558731997852849</v>
+        <v>1.2911795906857404</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
-        <v>71.900000000000006</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
         <f>1000/E23/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>9.64664345041143</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>0.4947426665284026</v>
+        <v>1.2058304313014288</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
-        <v>74</v>
+        <v>61.5</v>
       </c>
       <c r="F24" s="3">
         <f>1000/E24/1.757</f>
-        <v>7.691242751003708</v>
+        <v>9.2545034727524289</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>0.48070267193773175</v>
+        <v>1.1568129340940536</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1722,195 +1737,296 @@
         <v>8</v>
       </c>
       <c r="E25" s="2">
-        <v>80</v>
+        <v>61.55</v>
       </c>
       <c r="F25" s="3">
         <f>1000/E25/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>9.2469855982822793</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>0.88929994308480365</v>
+        <v>1.1558731997852849</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1">
         <v>16</v>
       </c>
       <c r="E26" s="2">
-        <v>107.1</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F26" s="3">
         <f>1000/E26/1.757</f>
-        <v>5.314210677630947</v>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>0.33213816735193419</v>
+        <v>0.4947426665284026</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>16</v>
       </c>
       <c r="E27" s="2">
-        <v>107.2</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3">
         <f>1000/E27/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>0.3318283369719417</v>
+        <v>0.48070267193773175</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
-        <v>108.1</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3">
         <f>1000/E28/1.757</f>
-        <v>5.265050541852677</v>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>0.32906565886579231</v>
+        <v>0.88929994308480365</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F29" s="3">
         <f>1000/E29/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>5.9286662872320246</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.74108328590400308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2">
-        <v>254</v>
-      </c>
-      <c r="F30" s="2">
+        <v>107.1</v>
+      </c>
+      <c r="F30" s="3">
         <f>1000/E30/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.314210677630947</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>9.3364823420976781E-2</v>
+        <v>0.33213816735193419</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>883</v>
+        <v>107.2</v>
       </c>
       <c r="F31" s="3">
         <f>1000/E31/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>4.0285388135211944E-2</v>
+        <v>0.3318283369719417</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>884</v>
+        <v>108.1</v>
       </c>
       <c r="F32" s="3">
         <f>1000/E32/1.757</f>
-        <v>0.64383706286682618</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2">
+        <v>121</v>
+      </c>
+      <c r="F33" s="3">
+        <f>1000/E33/1.757</f>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G33" s="2">
+        <f>F33/D33</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2">
+        <v>254</v>
+      </c>
+      <c r="F34" s="2">
+        <f>1000/E34/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G34" s="2">
+        <f>F34/D34</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>883</v>
+      </c>
+      <c r="F35" s="3">
+        <f>1000/E35/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G35" s="2">
+        <f>F35/D35</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>884</v>
+      </c>
+      <c r="F36" s="3">
+        <f>1000/E36/1.757</f>
+        <v>0.64383706286682618</v>
+      </c>
+      <c r="G36" s="2">
+        <f>F36/D36</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
-    <sortCondition descending="1" ref="F2:F33"/>
+  <autoFilter ref="A1:H39" xr:uid="{621C4AF1-4861-43BF-8BF4-FCB17F273E29}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
+    <sortCondition descending="1" ref="F2:F39"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F049EC-F7DC-444D-9121-4491C7F04D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67CC03A-FE42-49C9-9C39-3B9C12998795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
   <si>
     <t>MCU</t>
   </si>
@@ -132,27 +132,32 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GD32E103</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>O3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Os</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD32E103CBT6</t>
+  </si>
+  <si>
+    <t>gcc 10.2.1</t>
+  </si>
+  <si>
+    <t>BCM2835(RPi Zero)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,7 +165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +173,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -177,7 +182,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -186,7 +191,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,7 +200,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +216,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +224,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +232,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +241,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +250,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,7 +258,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,7 +284,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -296,14 +301,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1106,26 +1111,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1198,59 +1203,59 @@
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="F4" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F4" s="2">
         <f>1000/E4/1.757</f>
-        <v>323.38179748538312</v>
+        <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
         <f>F4/D4</f>
-        <v>1.1549349910192255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.1624314725466349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="E5" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F5" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F5" s="2">
         <f>1000/E5/1.757</f>
-        <v>316.19553531904131</v>
+        <v>833.31180611167554</v>
       </c>
       <c r="G5" s="2">
         <f>F5/D5</f>
-        <v>1.1292697689965761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.0416397576395944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1259,23 +1264,23 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="E6" s="2">
-        <v>2.59</v>
+        <v>1.76</v>
       </c>
       <c r="F6" s="3">
         <f>1000/E6/1.757</f>
-        <v>219.74979288582023</v>
+        <v>323.38179748538312</v>
       </c>
       <c r="G6" s="2">
         <f>F6/D6</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1549349910192255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1284,48 +1289,48 @@
         <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="E7" s="2">
-        <v>2.93</v>
+        <v>1.8</v>
       </c>
       <c r="F7" s="3">
         <f>1000/E7/1.757</f>
-        <v>194.24981691954756</v>
+        <v>316.19553531904131</v>
       </c>
       <c r="G7" s="2">
         <f>F7/D7</f>
-        <v>1.1562489102354021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1292697689965761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2">
-        <v>3.77</v>
+        <v>2.59</v>
       </c>
       <c r="F8" s="3">
         <f>1000/E8/1.757</f>
-        <v>150.96869060325579</v>
+        <v>219.74979288582023</v>
       </c>
       <c r="G8" s="2">
         <f>F8/D8</f>
-        <v>1.2580724216937982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.3080344814632157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1334,48 +1339,48 @@
         <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2">
-        <v>4.57</v>
+        <v>2.93</v>
       </c>
       <c r="F9" s="3">
         <f>1000/E9/1.757</f>
-        <v>124.54091106658082</v>
+        <v>194.24981691954756</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>1.1531565839498223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1562489102354021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
-        <v>4.84</v>
+        <v>3.77</v>
       </c>
       <c r="F10" s="3">
         <f>1000/E10/1.757</f>
-        <v>117.5933809037757</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>0.69996060061771248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2580724216937982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1384,198 +1389,198 @@
         <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2">
-        <v>5.21</v>
+        <v>4.57</v>
       </c>
       <c r="F11" s="3">
         <f>1000/E11/1.757</f>
-        <v>109.24221949602196</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.1531565839498223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F12" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="F12" s="3">
         <f>1000/E12/1.757</f>
-        <v>89.208771720105702</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
-        <v>8.11</v>
+        <v>5.21</v>
       </c>
       <c r="F13" s="3">
         <f>1000/E13/1.757</f>
-        <v>70.179033732956157</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>0.58482528110796794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F14" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="F14" s="2">
         <f>1000/E14/1.757</f>
-        <v>65.344657126782351</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2">
-        <v>9.19</v>
+        <v>8.11</v>
       </c>
       <c r="F15" s="3">
         <f>1000/E15/1.757</f>
-        <v>61.931660889474905</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F16" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F16" s="3">
         <f>1000/E16/1.757</f>
-        <v>46.651800292973313</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2">
-        <v>14.9</v>
+        <v>9.19</v>
       </c>
       <c r="F17" s="3">
         <f>1000/E17/1.757</f>
-        <v>38.198118360689556</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F18" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="F18" s="2">
         <f>1000/E18/1.757</f>
-        <v>31.050298067336303</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -1584,126 +1589,126 @@
         <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>27</v>
+        <v>14.9</v>
       </c>
       <c r="F19" s="3">
         <f>1000/E19/1.757</f>
-        <v>21.079702354602755</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2">
-        <v>27.23</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F20" s="3">
         <f>1000/E20/1.757</f>
-        <v>20.901651251350508</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>1.3063532032094067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>27.52</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3">
         <f>1000/E21/1.757</f>
-        <v>20.681394025227995</v>
+        <v>21.079702354602755</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>55.1</v>
+        <v>27.23</v>
       </c>
       <c r="F22" s="3">
         <f>1000/E22/1.757</f>
-        <v>10.329436725485923</v>
+        <v>20.901651251350508</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.3063532032094067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2">
-        <v>59</v>
+        <v>27.52</v>
       </c>
       <c r="F23" s="3">
         <f>1000/E23/1.757</f>
-        <v>9.64664345041143</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -1712,20 +1717,20 @@
         <v>8</v>
       </c>
       <c r="E24" s="2">
-        <v>61.5</v>
+        <v>55.1</v>
       </c>
       <c r="F24" s="3">
         <f>1000/E24/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>10.329436725485923</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2911795906857404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1737,173 +1742,173 @@
         <v>8</v>
       </c>
       <c r="E25" s="2">
-        <v>61.55</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3">
         <f>1000/E25/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>9.64664345041143</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2058304313014288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
-        <v>71.900000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="F26" s="3">
         <f>1000/E26/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>9.2545034727524289</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1568129340940536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
-        <v>74</v>
+        <v>61.55</v>
       </c>
       <c r="F27" s="3">
         <f>1000/E27/1.757</f>
-        <v>7.691242751003708</v>
+        <v>9.2469855982822793</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1558731997852849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>80</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F28" s="3">
         <f>1000/E28/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <f>1000/E29/1.757</f>
-        <v>5.9286662872320246</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2">
-        <v>107.1</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3">
         <f>1000/E30/1.757</f>
-        <v>5.314210677630947</v>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.88929994308480365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
-        <v>107.2</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3">
         <f>1000/E31/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>5.9286662872320246</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.74108328590400308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>29</v>
@@ -1912,23 +1917,23 @@
         <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="F32" s="3">
         <f>1000/E32/1.757</f>
-        <v>5.265050541852677</v>
+        <v>5.314210677630947</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -1937,70 +1942,70 @@
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <v>121</v>
+        <v>107.2</v>
       </c>
       <c r="F33" s="3">
         <f>1000/E33/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
-        <v>254</v>
-      </c>
-      <c r="F34" s="2">
+        <v>108.1</v>
+      </c>
+      <c r="F34" s="3">
         <f>1000/E34/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>16</v>
       </c>
       <c r="E35" s="2">
-        <v>883</v>
+        <v>121</v>
       </c>
       <c r="F35" s="3">
         <f>1000/E35/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -2009,24 +2014,74 @@
         <v>28</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E36" s="2">
-        <v>884</v>
-      </c>
-      <c r="F36" s="3">
+        <v>254</v>
+      </c>
+      <c r="F36" s="2">
         <f>1000/E36/1.757</f>
-        <v>0.64383706286682618</v>
+        <v>2.2407557621034426</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2">
+        <v>883</v>
+      </c>
+      <c r="F37" s="3">
+        <f>1000/E37/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G37" s="2">
+        <f>F37/D37</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>884</v>
+      </c>
+      <c r="F38" s="3">
+        <f>1000/E38/1.757</f>
+        <v>0.64383706286682618</v>
+      </c>
+      <c r="G38" s="2">
+        <f>F38/D38</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H39" xr:uid="{621C4AF1-4861-43BF-8BF4-FCB17F273E29}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
-    <sortCondition descending="1" ref="F2:F39"/>
+  <sortState ref="A2:H38">
+    <sortCondition descending="1" ref="F2:F38"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67CC03A-FE42-49C9-9C39-3B9C12998795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>MCU</t>
   </si>
@@ -147,17 +146,33 @@
   </si>
   <si>
     <t>BCM2835(RPi Zero)</t>
+  </si>
+  <si>
+    <t>STM32L051C8T6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32L051C8T6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,7 +188,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -182,7 +197,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,7 +206,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,7 +215,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -208,7 +223,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,7 +231,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,7 +239,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,7 +247,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,7 +256,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +265,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,7 +273,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +282,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,7 +290,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +299,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +308,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,14 +316,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1110,14 +1125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1130,7 +1145,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1218,7 @@
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1228,7 +1243,7 @@
         <v>2.1624314725466349</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>1.0416397576395944</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>1.1549349910192255</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1318,7 @@
         <v>1.1292697689965761</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1343,7 @@
         <v>1.3080344814632157</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>1.1562489102354021</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1378,7 +1393,7 @@
         <v>1.2580724216937982</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>1.1531565839498223</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1468,7 @@
         <v>1.3005026130478805</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>1.1151096465013213</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>0.58482528110796794</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1528,7 +1543,7 @@
         <v>0.90756468231642151</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1568,7 @@
         <v>0.73728167725565363</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>0.58314750366216639</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1618,7 @@
         <v>0.7957941325143657</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1628,34 +1643,34 @@
         <v>0.43125413982411531</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="F21" s="2">
         <f>1000/E21/1.757</f>
-        <v>21.079702354602755</v>
+        <v>22.496125042461436</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.70300390757691988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -1667,123 +1682,123 @@
         <v>16</v>
       </c>
       <c r="E22" s="2">
-        <v>27.23</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3">
         <f>1000/E22/1.757</f>
-        <v>20.901651251350508</v>
+        <v>21.079702354602755</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.3063532032094067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
-        <v>27.52</v>
+        <v>27.23</v>
       </c>
       <c r="F23" s="3">
         <f>1000/E23/1.757</f>
-        <v>20.681394025227995</v>
+        <v>20.901651251350508</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.3063532032094067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
-        <v>55.1</v>
+        <v>27.52</v>
       </c>
       <c r="F24" s="3">
         <f>1000/E24/1.757</f>
-        <v>10.329436725485923</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>59</v>
-      </c>
-      <c r="F25" s="3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F25" s="2">
         <f>1000/E25/1.757</f>
-        <v>9.64664345041143</v>
+        <v>15.466085966692239</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.96663037291826492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="F26" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="F26" s="2">
         <f>1000/E26/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>13.266945537861874</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.41459204805818356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
@@ -1792,70 +1807,70 @@
         <v>8</v>
       </c>
       <c r="E27" s="2">
-        <v>61.55</v>
+        <v>55.1</v>
       </c>
       <c r="F27" s="3">
         <f>1000/E27/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>10.329436725485923</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1.2911795906857404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
-        <v>71.900000000000006</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3">
         <f>1000/E28/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>9.64664345041143</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>1.2058304313014288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
-        <v>74</v>
+        <v>61.5</v>
       </c>
       <c r="F29" s="3">
         <f>1000/E29/1.757</f>
-        <v>7.691242751003708</v>
+        <v>9.2545034727524289</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1.1568129340940536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1867,221 +1882,321 @@
         <v>8</v>
       </c>
       <c r="E30" s="2">
-        <v>80</v>
+        <v>61.55</v>
       </c>
       <c r="F30" s="3">
         <f>1000/E30/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>9.2469855982822793</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1.1558731997852849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>96</v>
-      </c>
-      <c r="F31" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="F31" s="2">
         <f>1000/E31/1.757</f>
-        <v>5.9286662872320246</v>
+        <v>9.1650879802620668</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.57281799876637918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>107.1</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F32" s="3">
         <f>1000/E32/1.757</f>
-        <v>5.314210677630947</v>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1">
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <v>107.2</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3">
         <f>1000/E33/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2">
-        <v>108.1</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3">
         <f>1000/E34/1.757</f>
-        <v>5.265050541852677</v>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.88929994308480365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F35" s="3">
         <f>1000/E35/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>5.9286662872320246</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.74108328590400308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2">
-        <v>254</v>
-      </c>
-      <c r="F36" s="2">
+        <v>107.1</v>
+      </c>
+      <c r="F36" s="3">
         <f>1000/E36/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.314210677630947</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1">
         <v>16</v>
       </c>
       <c r="E37" s="2">
-        <v>883</v>
+        <v>107.2</v>
       </c>
       <c r="F37" s="3">
         <f>1000/E37/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1">
         <v>16</v>
       </c>
       <c r="E38" s="2">
-        <v>884</v>
+        <v>108.1</v>
       </c>
       <c r="F38" s="3">
         <f>1000/E38/1.757</f>
-        <v>0.64383706286682618</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2">
+        <v>121</v>
+      </c>
+      <c r="F39" s="3">
+        <f>1000/E39/1.757</f>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G39" s="2">
+        <f>F39/D39</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2">
+        <v>254</v>
+      </c>
+      <c r="F40" s="2">
+        <f>1000/E40/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G40" s="2">
+        <f>F40/D40</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>883</v>
+      </c>
+      <c r="F41" s="3">
+        <f>1000/E41/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G41" s="2">
+        <f>F41/D41</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2">
+        <v>884</v>
+      </c>
+      <c r="F42" s="3">
+        <f>1000/E42/1.757</f>
+        <v>0.64383706286682618</v>
+      </c>
+      <c r="G42" s="2">
+        <f>F42/D42</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H39" xr:uid="{621C4AF1-4861-43BF-8BF4-FCB17F273E29}"/>
-  <sortState ref="A2:H38">
-    <sortCondition descending="1" ref="F2:F38"/>
+  <autoFilter ref="A1:H39"/>
+  <sortState ref="A2:G43">
+    <sortCondition descending="1" ref="F2:F43"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
+    <workbookView windowWidth="22008" windowHeight="10535"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$H$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>MCU</t>
   </si>
@@ -30,6 +25,9 @@
     <t>Opt</t>
   </si>
   <si>
+    <t>Compiler</t>
+  </si>
+  <si>
     <t>Freq/MHz</t>
   </si>
   <si>
@@ -42,163 +40,156 @@
     <t>DMIPS/MHz</t>
   </si>
   <si>
+    <t>AMD R5-3600X</t>
+  </si>
+  <si>
     <t>O3</t>
   </si>
   <si>
+    <t>gcc 5.1.0</t>
+  </si>
+  <si>
     <t>Os</t>
   </si>
   <si>
+    <t>BCM2835(RPi Zero)</t>
+  </si>
+  <si>
+    <t>gcc 10.2.1</t>
+  </si>
+  <si>
+    <t>GD32E503CET6(oc)</t>
+  </si>
+  <si>
+    <t>arm-none-eabi-gcc 10.2.1</t>
+  </si>
+  <si>
+    <t>GD32VF103CBT6</t>
+  </si>
+  <si>
+    <t>riscv-none-embed-gcc 7.2.0</t>
+  </si>
+  <si>
+    <t>GD32EPRTVDT6(oc)</t>
+  </si>
+  <si>
+    <t>GD32FFPRTGU6(oc)</t>
+  </si>
+  <si>
+    <t>arm-none-eabi-gcc 4.9.3</t>
+  </si>
+  <si>
+    <t>GD32F350CBT6(oc)</t>
+  </si>
+  <si>
+    <t>GD32E503CET6</t>
+  </si>
+  <si>
+    <t>STM32F407VET6</t>
+  </si>
+  <si>
     <t>GD32FFPRTGU6</t>
   </si>
   <si>
+    <t>GD32E103CBT6</t>
+  </si>
+  <si>
     <t>GD32F350CBT6</t>
   </si>
   <si>
-    <t>STM32F407VET6</t>
-  </si>
-  <si>
     <t>STM32F401RET6</t>
   </si>
   <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>xtensa-lx106-elf-gcc 8.4.0</t>
+  </si>
+  <si>
     <t>STM32F103VET6</t>
   </si>
   <si>
+    <t>GD32E230C8T6</t>
+  </si>
+  <si>
     <t>STM32F070CBT6</t>
   </si>
   <si>
+    <t>STM32L051C8T6</t>
+  </si>
+  <si>
     <t>ATMEGA328P</t>
   </si>
   <si>
+    <t>avr-gcc 7.3.0</t>
+  </si>
+  <si>
     <t>STM8L151G6U6</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
+    <t>cosmic c 4.4.12</t>
+  </si>
+  <si>
     <t>STM8S003F3U6</t>
   </si>
   <si>
     <t>compact</t>
   </si>
   <si>
-    <t>AMD R5-3600X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>STC8A8K64S4A</t>
+  </si>
+  <si>
+    <t>opt-code-speed</t>
+  </si>
+  <si>
+    <t>sdcc 3.8.0</t>
   </si>
   <si>
     <t>NRF24LE1</t>
   </si>
   <si>
     <t>opt-code-size</t>
-  </si>
-  <si>
-    <t>opt-code-speed</t>
-  </si>
-  <si>
-    <t>STC8A8K64S4A</t>
-  </si>
-  <si>
-    <t>Compiler</t>
-  </si>
-  <si>
-    <t>arm-none-eabi-gcc 4.9.3</t>
-  </si>
-  <si>
-    <t>gcc 5.1.0</t>
-  </si>
-  <si>
-    <t>avr-gcc 7.3.0</t>
-  </si>
-  <si>
-    <t>sdcc 3.8.0</t>
-  </si>
-  <si>
-    <t>cosmic c 4.4.12</t>
-  </si>
-  <si>
-    <t>ESP8266</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Os</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xtensa-lx106-elf-gcc 8.4.0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Os</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GD32E103CBT6</t>
-  </si>
-  <si>
-    <t>gcc 10.2.1</t>
-  </si>
-  <si>
-    <t>BCM2835(RPi Zero)</t>
-  </si>
-  <si>
-    <t>STM32L051C8T6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Os</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32L051C8T6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Liberation Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +198,51 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -216,82 +251,36 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,40 +289,31 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Liberation Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -344,175 +324,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,33 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +529,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +560,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +596,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,132 +615,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,66 +778,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -872,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -905,26 +922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -957,23 +957,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1115,37 +1098,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.55555555555556" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,55 +1131,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>4350</v>
       </c>
       <c r="E2" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>0.0234</v>
       </c>
       <c r="F2" s="3">
         <f>1000/E2/1.757</f>
-        <v>24322.733486080102</v>
+        <v>24322.7334860801</v>
       </c>
       <c r="G2" s="2">
         <f>F2/D2</f>
-        <v>5.5914329853057705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.59143298530577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>4350</v>
@@ -1211,995 +1189,1223 @@
       </c>
       <c r="F3" s="3">
         <f>1000/E3/1.757</f>
-        <v>11383.039271485488</v>
+        <v>11383.0392714855</v>
       </c>
       <c r="G3" s="2">
         <f>F3/D3</f>
-        <v>2.6167906371231004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.6167906371231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>800</v>
       </c>
       <c r="E4" s="2">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="F4" s="2">
         <f>1000/E4/1.757</f>
-        <v>1729.9451780373081</v>
+        <v>1729.94517803731</v>
       </c>
       <c r="G4" s="2">
         <f>F4/D4</f>
-        <v>2.1624314725466349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.16243147254663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>800</v>
       </c>
       <c r="E5" s="2">
-        <v>0.68300000000000005</v>
+        <v>0.683</v>
       </c>
       <c r="F5" s="2">
         <f>1000/E5/1.757</f>
-        <v>833.31180611167554</v>
+        <v>833.311806111676</v>
       </c>
       <c r="G5" s="2">
         <f>F5/D5</f>
-        <v>1.0416397576395944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.04163975763959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="F6" s="3">
         <f>1000/E6/1.757</f>
-        <v>323.38179748538312</v>
+        <v>406.537116838767</v>
       </c>
       <c r="G6" s="2">
         <f>F6/D6</f>
-        <v>1.1549349910192255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.4946217530837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="F7" s="3">
         <f>1000/E7/1.757</f>
-        <v>316.19553531904131</v>
+        <v>381.981183606896</v>
       </c>
       <c r="G7" s="2">
         <f>F7/D7</f>
-        <v>1.1292697689965761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.98948533128591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2">
-        <v>2.59</v>
+        <v>1.59</v>
       </c>
       <c r="F8" s="3">
         <f>1000/E8/1.757</f>
-        <v>219.74979288582023</v>
+        <v>357.957209795141</v>
       </c>
       <c r="G8" s="2">
         <f>F8/D8</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.49148837414642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="E9" s="2">
-        <v>2.93</v>
+        <v>1.76</v>
       </c>
       <c r="F9" s="3">
         <f>1000/E9/1.757</f>
-        <v>194.24981691954756</v>
+        <v>323.381797485383</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>1.1562489102354021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.15493499101923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="E10" s="2">
-        <v>3.77</v>
+        <v>1.8</v>
       </c>
       <c r="F10" s="3">
         <f>1000/E10/1.757</f>
-        <v>150.96869060325579</v>
+        <v>316.195535319041</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>1.2580724216937982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.12926976899658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2">
-        <v>4.57</v>
+        <v>2.15</v>
       </c>
       <c r="F11" s="3">
         <f>1000/E11/1.757</f>
-        <v>124.54091106658082</v>
+        <v>264.721843522918</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.1531565839498223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.50410138365295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>168</v>
       </c>
       <c r="E12" s="2">
-        <v>4.84</v>
+        <v>2.59</v>
       </c>
       <c r="F12" s="3">
         <f>1000/E12/1.757</f>
-        <v>117.5933809037757</v>
+        <v>219.74979288582</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>0.69996060061771248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.30803448146322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2">
-        <v>5.21</v>
+        <v>2.66</v>
       </c>
       <c r="F13" s="3">
         <f>1000/E13/1.757</f>
-        <v>109.24221949602196</v>
+        <v>213.966903599351</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.98117503332733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F14" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="F14" s="3">
         <f>1000/E14/1.757</f>
-        <v>89.208771720105702</v>
+        <v>194.249816919548</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1562489102354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>120</v>
       </c>
       <c r="E15" s="2">
-        <v>8.11</v>
+        <v>3.77</v>
       </c>
       <c r="F15" s="3">
         <f>1000/E15/1.757</f>
-        <v>70.179033732956157</v>
+        <v>150.968690603256</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>0.58482528110796794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2580724216938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2">
-        <v>8.7100000000000009</v>
+        <v>4.19</v>
       </c>
       <c r="F16" s="3">
         <f>1000/E16/1.757</f>
-        <v>65.344657126782351</v>
+        <v>135.835790829182</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7717942660749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2">
-        <v>9.19</v>
+        <v>4.57</v>
       </c>
       <c r="F17" s="3">
         <f>1000/E17/1.757</f>
-        <v>61.931660889474905</v>
+        <v>124.540911066581</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.15315658394982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E18" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F18" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="F18" s="3">
         <f>1000/E18/1.757</f>
-        <v>46.651800292973313</v>
+        <v>117.593380903776</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.699960600617712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2">
-        <v>14.9</v>
+        <v>5.21</v>
       </c>
       <c r="F19" s="3">
         <f>1000/E19/1.757</f>
-        <v>38.198118360689556</v>
+        <v>109.242219496022</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.30050261304788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2">
-        <v>18.329999999999998</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <f>1000/E20/1.757</f>
-        <v>31.050298067336303</v>
+        <v>94.8586605957124</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.878320931441781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2">
-        <v>25.3</v>
+        <v>6.38</v>
       </c>
       <c r="F21" s="2">
         <f>1000/E21/1.757</f>
-        <v>22.496125042461436</v>
+        <v>89.2087717201057</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>0.70300390757691988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.11510964650132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2">
-        <v>27</v>
+        <v>8.11</v>
       </c>
       <c r="F22" s="3">
         <f>1000/E22/1.757</f>
-        <v>21.079702354602755</v>
+        <v>70.1790337329562</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.584825281107968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2">
-        <v>27.23</v>
+        <v>8.71</v>
       </c>
       <c r="F23" s="3">
         <f>1000/E23/1.757</f>
-        <v>20.901651251350508</v>
+        <v>65.3446571267824</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.3063532032094067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.907564682316422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2">
-        <v>27.52</v>
+        <v>9.19</v>
       </c>
       <c r="F24" s="3">
         <f>1000/E24/1.757</f>
-        <v>20.681394025227995</v>
+        <v>61.9316608894749</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.737281677255654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F25" s="2">
+        <v>10.44</v>
+      </c>
+      <c r="F25" s="3">
         <f>1000/E25/1.757</f>
-        <v>15.466085966692239</v>
+        <v>54.5164716067313</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>0.96663037291826492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.757173216760156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2">
-        <v>42.9</v>
+        <v>12.2</v>
       </c>
       <c r="F26" s="2">
         <f>1000/E26/1.757</f>
-        <v>13.266945537861874</v>
+        <v>46.6518002929733</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>0.41459204805818356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.583147503662166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2">
-        <v>55.1</v>
+        <v>14.9</v>
       </c>
       <c r="F27" s="3">
         <f>1000/E27/1.757</f>
-        <v>10.329436725485923</v>
+        <v>38.1981183606896</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.795794132514366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2">
-        <v>59</v>
+        <v>18.33</v>
       </c>
       <c r="F28" s="3">
         <f>1000/E28/1.757</f>
-        <v>9.64664345041143</v>
+        <v>31.0502980673363</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.431254139824115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2">
-        <v>61.5</v>
+        <v>19.02</v>
       </c>
       <c r="F29" s="3">
         <f>1000/E29/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>29.9238676958083</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.415609273552893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2">
-        <v>61.55</v>
-      </c>
-      <c r="F30" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="F30" s="2">
         <f>1000/E30/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>22.4961250424614</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.70300390757692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <v>16</v>
       </c>
       <c r="E31" s="2">
-        <v>62.1</v>
-      </c>
-      <c r="F31" s="2">
+        <v>27</v>
+      </c>
+      <c r="F31" s="3">
         <f>1000/E31/1.757</f>
-        <v>9.1650879802620668</v>
+        <v>21.0797023546028</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>0.57281799876637918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.31748139716267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
       </c>
       <c r="E32" s="2">
-        <v>71.900000000000006</v>
+        <v>27.23</v>
       </c>
       <c r="F32" s="3">
         <f>1000/E32/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>20.9016512513505</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.30635320320941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2">
-        <v>74</v>
+        <v>27.52</v>
       </c>
       <c r="F33" s="3">
         <f>1000/E33/1.757</f>
-        <v>7.691242751003708</v>
+        <v>20.681394025228</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.430862375525583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
-        <v>80</v>
-      </c>
-      <c r="F34" s="3">
+        <v>36.8</v>
+      </c>
+      <c r="F34" s="2">
         <f>1000/E34/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>15.4660859666922</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.966630372918265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2">
-        <v>96</v>
-      </c>
-      <c r="F35" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="F35" s="2">
         <f>1000/E35/1.757</f>
-        <v>5.9286662872320246</v>
+        <v>13.2669455378619</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.414592048058184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2">
-        <v>107.1</v>
+        <v>55.1</v>
       </c>
       <c r="F36" s="3">
         <f>1000/E36/1.757</f>
-        <v>5.314210677630947</v>
+        <v>10.3294367254859</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.29117959068574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2">
-        <v>107.2</v>
+        <v>59</v>
       </c>
       <c r="F37" s="3">
         <f>1000/E37/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>9.64664345041143</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.20583043130143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2">
-        <v>108.1</v>
+        <v>61.5</v>
       </c>
       <c r="F38" s="3">
         <f>1000/E38/1.757</f>
-        <v>5.265050541852677</v>
+        <v>9.25450347275243</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.15681293409405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2">
-        <v>121</v>
+        <v>61.55</v>
       </c>
       <c r="F39" s="3">
         <f>1000/E39/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>9.24698559828228</v>
       </c>
       <c r="G39" s="2">
         <f>F39/D39</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.15587319978528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2">
-        <v>254</v>
+        <v>62.1</v>
       </c>
       <c r="F40" s="2">
         <f>1000/E40/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>9.16508798026207</v>
       </c>
       <c r="G40" s="2">
         <f>F40/D40</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.572817998766379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1">
         <v>16</v>
       </c>
       <c r="E41" s="2">
-        <v>883</v>
+        <v>71.9</v>
       </c>
       <c r="F41" s="3">
         <f>1000/E41/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>7.91588266445444</v>
       </c>
       <c r="G41" s="2">
         <f>F41/D41</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.494742666528403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1">
         <v>16</v>
       </c>
       <c r="E42" s="2">
-        <v>884</v>
+        <v>74</v>
       </c>
       <c r="F42" s="3">
         <f>1000/E42/1.757</f>
-        <v>0.64383706286682618</v>
+        <v>7.69124275100371</v>
       </c>
       <c r="G42" s="2">
         <f>F42/D42</f>
-        <v>4.0239816429176636E-2</v>
-      </c>
-    </row>
+        <v>0.480702671937732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>80</v>
+      </c>
+      <c r="F43" s="3">
+        <f>1000/E43/1.757</f>
+        <v>7.11439954467843</v>
+      </c>
+      <c r="G43" s="2">
+        <f>F43/D43</f>
+        <v>0.889299943084804</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>96</v>
+      </c>
+      <c r="F44" s="3">
+        <f>1000/E44/1.757</f>
+        <v>5.92866628723202</v>
+      </c>
+      <c r="G44" s="2">
+        <f>F44/D44</f>
+        <v>0.741083285904003</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <v>107.1</v>
+      </c>
+      <c r="F45" s="3">
+        <f>1000/E45/1.757</f>
+        <v>5.31421067763095</v>
+      </c>
+      <c r="G45" s="2">
+        <f>F45/D45</f>
+        <v>0.332138167351934</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="F46" s="3">
+        <f>1000/E46/1.757</f>
+        <v>5.30925339155107</v>
+      </c>
+      <c r="G46" s="2">
+        <f>F46/D46</f>
+        <v>0.331828336971942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>108.1</v>
+      </c>
+      <c r="F47" s="3">
+        <f>1000/E47/1.757</f>
+        <v>5.26505054185268</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47/D47</f>
+        <v>0.329065658865792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2">
+        <v>121</v>
+      </c>
+      <c r="F48" s="3">
+        <f>1000/E48/1.757</f>
+        <v>4.70373523615103</v>
+      </c>
+      <c r="G48" s="2">
+        <f>F48/D48</f>
+        <v>0.293983452259439</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2">
+        <v>254</v>
+      </c>
+      <c r="F49" s="2">
+        <f>1000/E49/1.757</f>
+        <v>2.24075576210344</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F49/D49</f>
+        <v>0.0933648234209768</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2">
+        <v>883</v>
+      </c>
+      <c r="F50" s="3">
+        <f>1000/E50/1.757</f>
+        <v>0.644566210163391</v>
+      </c>
+      <c r="G50" s="2">
+        <f>F50/D50</f>
+        <v>0.0402853881352119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>884</v>
+      </c>
+      <c r="F51" s="3">
+        <f>1000/E51/1.757</f>
+        <v>0.643837062866826</v>
+      </c>
+      <c r="G51" s="2">
+        <f>F51/D51</f>
+        <v>0.0402398164291766</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:H39"/>
-  <sortState ref="A2:G43">
-    <sortCondition descending="1" ref="F2:F43"/>
+  <autoFilter ref="A1:H42">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:G55">
+    <sortCondition ref="F2:F55" descending="1"/>
   </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87CB60-DBD7-4A35-B2ED-D56D4443505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5C7A8-50A2-46C9-8E8F-2CA058783194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
   <si>
     <t>MCU</t>
   </si>
@@ -174,6 +177,12 @@
   <si>
     <t>GD32W515PIQ6</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD32F470VIT6</t>
+  </si>
+  <si>
+    <t>GD32F470VIT6(oc)</t>
   </si>
 </sst>
 </file>
@@ -181,14 +190,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +209,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -237,12 +246,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,14 +529,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="1" bestFit="1" customWidth="1"/>
@@ -539,7 +548,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,15 +582,15 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="E2" s="3">
-        <f>1000/D2/1.757</f>
+        <f t="shared" ref="E2:E33" si="0">1000/D2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="F2" s="2">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F33" si="1">E2/C2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -595,15 +604,15 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="3">
-        <f>1000/D3/1.757</f>
+        <f t="shared" si="0"/>
         <v>11383.039271485488</v>
       </c>
       <c r="F3" s="2">
-        <f>E3/C3</f>
+        <f t="shared" si="1"/>
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -617,15 +626,15 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="E4" s="4">
-        <f>1000/D4/1.757</f>
+        <f t="shared" si="0"/>
         <v>1729.9451780373081</v>
       </c>
       <c r="F4" s="2">
-        <f>E4/C4</f>
+        <f t="shared" si="1"/>
         <v>2.1624314725466349</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,15 +648,15 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="E5" s="4">
-        <f>1000/D5/1.757</f>
+        <f t="shared" si="0"/>
         <v>833.31180611167554</v>
       </c>
       <c r="F5" s="2">
-        <f>E5/C5</f>
+        <f t="shared" si="1"/>
         <v>1.0416397576395944</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -661,15 +670,15 @@
         <v>1.08</v>
       </c>
       <c r="E6" s="4">
-        <f>1000/D6/1.757</f>
+        <f t="shared" si="0"/>
         <v>526.99255886506887</v>
       </c>
       <c r="F6" s="2">
-        <f>E6/C6</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,15 +692,15 @@
         <v>1.4</v>
       </c>
       <c r="E7" s="3">
-        <f>1000/D7/1.757</f>
+        <f t="shared" si="0"/>
         <v>406.53711683876742</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/C7</f>
+        <f t="shared" si="1"/>
         <v>1.4946217530837038</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -705,15 +714,15 @@
         <v>1.49</v>
       </c>
       <c r="E8" s="3">
-        <f>1000/D8/1.757</f>
+        <f t="shared" si="0"/>
         <v>381.98118360689551</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/C8</f>
+        <f t="shared" si="1"/>
         <v>1.9894853312859142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -727,15 +736,15 @@
         <v>1.59</v>
       </c>
       <c r="E9" s="3">
-        <f>1000/D9/1.757</f>
+        <f t="shared" si="0"/>
         <v>357.95720979514107</v>
       </c>
       <c r="F9" s="2">
-        <f>E9/C9</f>
+        <f t="shared" si="1"/>
         <v>1.4914883741464211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,15 +758,15 @@
         <v>1.76</v>
       </c>
       <c r="E10" s="3">
-        <f>1000/D10/1.757</f>
+        <f t="shared" si="0"/>
         <v>323.38179748538312</v>
       </c>
       <c r="F10" s="2">
-        <f>E10/C10</f>
+        <f t="shared" si="1"/>
         <v>1.1549349910192255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -771,15 +780,15 @@
         <v>1.8</v>
       </c>
       <c r="E11" s="3">
-        <f>1000/D11/1.757</f>
+        <f t="shared" si="0"/>
         <v>316.19553531904131</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/C11</f>
+        <f t="shared" si="1"/>
         <v>1.1292697689965761</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -793,15 +802,15 @@
         <v>2.15</v>
       </c>
       <c r="E12" s="3">
-        <f>1000/D12/1.757</f>
+        <f t="shared" si="0"/>
         <v>264.72184352291833</v>
       </c>
       <c r="F12" s="2">
-        <f>E12/C12</f>
+        <f t="shared" si="1"/>
         <v>1.5041013836529451</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -815,15 +824,15 @@
         <v>2.16</v>
       </c>
       <c r="E13" s="4">
-        <f>1000/D13/1.757</f>
+        <f t="shared" si="0"/>
         <v>263.49627943253444</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/C13</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -837,15 +846,15 @@
         <v>2.59</v>
       </c>
       <c r="E14" s="3">
-        <f>1000/D14/1.757</f>
+        <f t="shared" si="0"/>
         <v>219.74979288582023</v>
       </c>
       <c r="F14" s="2">
-        <f>E14/C14</f>
+        <f t="shared" si="1"/>
         <v>1.3080344814632157</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -859,15 +868,15 @@
         <v>2.66</v>
       </c>
       <c r="E15" s="3">
-        <f>1000/D15/1.757</f>
+        <f t="shared" si="0"/>
         <v>213.96690359935124</v>
       </c>
       <c r="F15" s="2">
-        <f>E15/C15</f>
+        <f t="shared" si="1"/>
         <v>1.9811750333273264</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -881,15 +890,15 @@
         <v>2.82</v>
       </c>
       <c r="E16" s="3">
-        <f>1000/D16/1.757</f>
+        <f t="shared" si="0"/>
         <v>201.82693743768596</v>
       </c>
       <c r="F16" s="2">
-        <f>E16/C16</f>
+        <f t="shared" si="1"/>
         <v>1.0511819658212811</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -903,15 +912,15 @@
         <v>2.93</v>
       </c>
       <c r="E17" s="3">
-        <f>1000/D17/1.757</f>
+        <f t="shared" si="0"/>
         <v>194.24981691954756</v>
       </c>
       <c r="F17" s="2">
-        <f>E17/C17</f>
+        <f t="shared" si="1"/>
         <v>1.1562489102354021</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -925,15 +934,15 @@
         <v>3.77</v>
       </c>
       <c r="E18" s="3">
-        <f>1000/D18/1.757</f>
+        <f t="shared" si="0"/>
         <v>150.96869060325579</v>
       </c>
       <c r="F18" s="2">
-        <f>E18/C18</f>
+        <f t="shared" si="1"/>
         <v>1.2580724216937982</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -947,15 +956,15 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="E19" s="3">
-        <f>1000/D19/1.757</f>
+        <f t="shared" si="0"/>
         <v>135.83579082918243</v>
       </c>
       <c r="F19" s="2">
-        <f>E19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.7717942660749002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -969,15 +978,15 @@
         <v>4.43</v>
       </c>
       <c r="E20" s="3">
-        <f>1000/D20/1.757</f>
+        <f t="shared" si="0"/>
         <v>128.4767412131545</v>
       </c>
       <c r="F20" s="2">
-        <f>E20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.66914969381851297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -991,15 +1000,15 @@
         <v>4.57</v>
       </c>
       <c r="E21" s="3">
-        <f>1000/D21/1.757</f>
+        <f t="shared" si="0"/>
         <v>124.54091106658082</v>
       </c>
       <c r="F21" s="2">
-        <f>E21/C21</f>
+        <f t="shared" si="1"/>
         <v>1.1531565839498223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,15 +1022,15 @@
         <v>4.84</v>
       </c>
       <c r="E22" s="3">
-        <f>1000/D22/1.757</f>
+        <f t="shared" si="0"/>
         <v>117.5933809037757</v>
       </c>
       <c r="F22" s="2">
-        <f>E22/C22</f>
+        <f t="shared" si="1"/>
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1035,15 +1044,15 @@
         <v>5.21</v>
       </c>
       <c r="E23" s="3">
-        <f>1000/D23/1.757</f>
+        <f t="shared" si="0"/>
         <v>109.24221949602196</v>
       </c>
       <c r="F23" s="2">
-        <f>E23/C23</f>
+        <f t="shared" si="1"/>
         <v>1.3005026130478805</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,15 +1066,15 @@
         <v>6</v>
       </c>
       <c r="E24" s="3">
-        <f>1000/D24/1.757</f>
+        <f t="shared" si="0"/>
         <v>94.858660595712394</v>
       </c>
       <c r="F24" s="2">
-        <f>E24/C24</f>
+        <f t="shared" si="1"/>
         <v>0.87832093144178147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1079,15 +1088,15 @@
         <v>6.38</v>
       </c>
       <c r="E25" s="4">
-        <f>1000/D25/1.757</f>
+        <f t="shared" si="0"/>
         <v>89.208771720105702</v>
       </c>
       <c r="F25" s="2">
-        <f>E25/C25</f>
+        <f t="shared" si="1"/>
         <v>1.1151096465013213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1101,15 +1110,15 @@
         <v>7.54</v>
       </c>
       <c r="E26" s="3">
-        <f>1000/D26/1.757</f>
+        <f t="shared" si="0"/>
         <v>75.484345301627897</v>
       </c>
       <c r="F26" s="2">
-        <f>E26/C26</f>
+        <f t="shared" si="1"/>
         <v>1.0483936847448319</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1123,15 +1132,15 @@
         <v>8.11</v>
       </c>
       <c r="E27" s="3">
-        <f>1000/D27/1.757</f>
+        <f t="shared" si="0"/>
         <v>70.179033732956157</v>
       </c>
       <c r="F27" s="2">
-        <f>E27/C27</f>
+        <f t="shared" si="1"/>
         <v>0.58482528110796794</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1145,15 +1154,15 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="E28" s="3">
-        <f>1000/D28/1.757</f>
+        <f t="shared" si="0"/>
         <v>65.344657126782351</v>
       </c>
       <c r="F28" s="2">
-        <f>E28/C28</f>
+        <f t="shared" si="1"/>
         <v>0.90756468231642151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1167,15 +1176,15 @@
         <v>9.19</v>
       </c>
       <c r="E29" s="3">
-        <f>1000/D29/1.757</f>
+        <f t="shared" si="0"/>
         <v>61.931660889474905</v>
       </c>
       <c r="F29" s="2">
-        <f>E29/C29</f>
+        <f t="shared" si="1"/>
         <v>0.73728167725565363</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1189,15 +1198,15 @@
         <v>10.44</v>
       </c>
       <c r="E30" s="3">
-        <f>1000/D30/1.757</f>
+        <f t="shared" si="0"/>
         <v>54.516471606731265</v>
       </c>
       <c r="F30" s="2">
-        <f>E30/C30</f>
+        <f t="shared" si="1"/>
         <v>0.75717321676015648</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1211,15 +1220,15 @@
         <v>11.83</v>
       </c>
       <c r="E31" s="3">
-        <f>1000/D31/1.757</f>
+        <f t="shared" si="0"/>
         <v>48.110901401037566</v>
       </c>
       <c r="F31" s="2">
-        <f>E31/C31</f>
+        <f t="shared" si="1"/>
         <v>0.66820696390329948</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1233,15 +1242,15 @@
         <v>12.2</v>
       </c>
       <c r="E32" s="4">
-        <f>1000/D32/1.757</f>
+        <f t="shared" si="0"/>
         <v>46.651800292973313</v>
       </c>
       <c r="F32" s="2">
-        <f>E32/C32</f>
+        <f t="shared" si="1"/>
         <v>0.58314750366216639</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,15 +1264,15 @@
         <v>14.9</v>
       </c>
       <c r="E33" s="3">
-        <f>1000/D33/1.757</f>
+        <f t="shared" si="0"/>
         <v>38.198118360689556</v>
       </c>
       <c r="F33" s="2">
-        <f>E33/C33</f>
+        <f t="shared" si="1"/>
         <v>0.7957941325143657</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1277,15 +1286,15 @@
         <v>18.329999999999998</v>
       </c>
       <c r="E34" s="3">
-        <f>1000/D34/1.757</f>
+        <f t="shared" ref="E34:E65" si="2">1000/D34/1.757</f>
         <v>31.050298067336303</v>
       </c>
       <c r="F34" s="2">
-        <f>E34/C34</f>
+        <f t="shared" ref="F34:F65" si="3">E34/C34</f>
         <v>0.43125413982411531</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1299,15 +1308,15 @@
         <v>19.02</v>
       </c>
       <c r="E35" s="3">
-        <f>1000/D35/1.757</f>
+        <f t="shared" si="2"/>
         <v>29.923867695808326</v>
       </c>
       <c r="F35" s="2">
-        <f>E35/C35</f>
+        <f t="shared" si="3"/>
         <v>0.4156092735528934</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1321,15 +1330,15 @@
         <v>25.3</v>
       </c>
       <c r="E36" s="4">
-        <f>1000/D36/1.757</f>
+        <f t="shared" si="2"/>
         <v>22.496125042461436</v>
       </c>
       <c r="F36" s="2">
-        <f>E36/C36</f>
+        <f t="shared" si="3"/>
         <v>0.70300390757691988</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,15 +1352,15 @@
         <v>27</v>
       </c>
       <c r="E37" s="3">
-        <f>1000/D37/1.757</f>
+        <f t="shared" si="2"/>
         <v>21.079702354602755</v>
       </c>
       <c r="F37" s="2">
-        <f>E37/C37</f>
+        <f t="shared" si="3"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1365,15 +1374,15 @@
         <v>27.21</v>
       </c>
       <c r="E38" s="4">
-        <f>1000/D38/1.757</f>
+        <f t="shared" si="2"/>
         <v>20.917014464324673</v>
       </c>
       <c r="F38" s="2">
-        <f>E38/C38</f>
+        <f t="shared" si="3"/>
         <v>1.3073134040202921</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,15 +1396,15 @@
         <v>27.23</v>
       </c>
       <c r="E39" s="3">
-        <f>1000/D39/1.757</f>
+        <f t="shared" si="2"/>
         <v>20.901651251350508</v>
       </c>
       <c r="F39" s="2">
-        <f>E39/C39</f>
+        <f t="shared" si="3"/>
         <v>1.3063532032094067</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,15 +1418,15 @@
         <v>27.52</v>
       </c>
       <c r="E40" s="3">
-        <f>1000/D40/1.757</f>
+        <f t="shared" si="2"/>
         <v>20.681394025227995</v>
       </c>
       <c r="F40" s="2">
-        <f>E40/C40</f>
+        <f t="shared" si="3"/>
         <v>0.43086237552558321</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1431,15 +1440,15 @@
         <v>36.799999999999997</v>
       </c>
       <c r="E41" s="4">
-        <f>1000/D41/1.757</f>
+        <f t="shared" si="2"/>
         <v>15.466085966692239</v>
       </c>
       <c r="F41" s="2">
-        <f>E41/C41</f>
+        <f t="shared" si="3"/>
         <v>0.96663037291826492</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1453,15 +1462,15 @@
         <v>42.9</v>
       </c>
       <c r="E42" s="4">
-        <f>1000/D42/1.757</f>
+        <f t="shared" si="2"/>
         <v>13.266945537861874</v>
       </c>
       <c r="F42" s="2">
-        <f>E42/C42</f>
+        <f t="shared" si="3"/>
         <v>0.41459204805818356</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1475,15 +1484,15 @@
         <v>55.1</v>
       </c>
       <c r="E43" s="3">
-        <f>1000/D43/1.757</f>
+        <f t="shared" si="2"/>
         <v>10.329436725485923</v>
       </c>
       <c r="F43" s="2">
-        <f>E43/C43</f>
+        <f t="shared" si="3"/>
         <v>1.2911795906857404</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1497,15 +1506,15 @@
         <v>59</v>
       </c>
       <c r="E44" s="5">
-        <f>1000/D44/1.757</f>
+        <f t="shared" si="2"/>
         <v>9.64664345041143</v>
       </c>
       <c r="F44" s="2">
-        <f>E44/C44</f>
+        <f t="shared" si="3"/>
         <v>1.2058304313014288</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,15 +1528,15 @@
         <v>61.5</v>
       </c>
       <c r="E45" s="5">
-        <f>1000/D45/1.757</f>
+        <f t="shared" si="2"/>
         <v>9.2545034727524289</v>
       </c>
       <c r="F45" s="2">
-        <f>E45/C45</f>
+        <f t="shared" si="3"/>
         <v>1.1568129340940536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -1541,15 +1550,15 @@
         <v>61.55</v>
       </c>
       <c r="E46" s="5">
-        <f>1000/D46/1.757</f>
+        <f t="shared" si="2"/>
         <v>9.2469855982822793</v>
       </c>
       <c r="F46" s="2">
-        <f>E46/C46</f>
+        <f t="shared" si="3"/>
         <v>1.1558731997852849</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1563,15 +1572,15 @@
         <v>62.1</v>
       </c>
       <c r="E47" s="6">
-        <f>1000/D47/1.757</f>
+        <f t="shared" si="2"/>
         <v>9.1650879802620668</v>
       </c>
       <c r="F47" s="2">
-        <f>E47/C47</f>
+        <f t="shared" si="3"/>
         <v>0.57281799876637918</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,15 +1594,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="E48" s="5">
-        <f>1000/D48/1.757</f>
+        <f t="shared" si="2"/>
         <v>7.9158826644544416</v>
       </c>
       <c r="F48" s="2">
-        <f>E48/C48</f>
+        <f t="shared" si="3"/>
         <v>0.4947426665284026</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -1607,15 +1616,15 @@
         <v>74</v>
       </c>
       <c r="E49" s="5">
-        <f>1000/D49/1.757</f>
+        <f t="shared" si="2"/>
         <v>7.691242751003708</v>
       </c>
       <c r="F49" s="2">
-        <f>E49/C49</f>
+        <f t="shared" si="3"/>
         <v>0.48070267193773175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -1629,15 +1638,15 @@
         <v>80</v>
       </c>
       <c r="E50" s="5">
-        <f>1000/D50/1.757</f>
+        <f t="shared" si="2"/>
         <v>7.1143995446784292</v>
       </c>
       <c r="F50" s="2">
-        <f>E50/C50</f>
+        <f t="shared" si="3"/>
         <v>0.88929994308480365</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -1651,15 +1660,15 @@
         <v>96</v>
       </c>
       <c r="E51" s="5">
-        <f>1000/D51/1.757</f>
+        <f t="shared" si="2"/>
         <v>5.9286662872320246</v>
       </c>
       <c r="F51" s="2">
-        <f>E51/C51</f>
+        <f t="shared" si="3"/>
         <v>0.74108328590400308</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -1673,15 +1682,15 @@
         <v>107.1</v>
       </c>
       <c r="E52" s="5">
-        <f>1000/D52/1.757</f>
+        <f t="shared" si="2"/>
         <v>5.314210677630947</v>
       </c>
       <c r="F52" s="2">
-        <f>E52/C52</f>
+        <f t="shared" si="3"/>
         <v>0.33213816735193419</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -1695,15 +1704,15 @@
         <v>107.2</v>
       </c>
       <c r="E53" s="5">
-        <f>1000/D53/1.757</f>
+        <f t="shared" si="2"/>
         <v>5.3092533915510671</v>
       </c>
       <c r="F53" s="2">
-        <f>E53/C53</f>
+        <f t="shared" si="3"/>
         <v>0.3318283369719417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -1717,15 +1726,15 @@
         <v>108.1</v>
       </c>
       <c r="E54" s="5">
-        <f>1000/D54/1.757</f>
+        <f t="shared" si="2"/>
         <v>5.265050541852677</v>
       </c>
       <c r="F54" s="2">
-        <f>E54/C54</f>
+        <f t="shared" si="3"/>
         <v>0.32906565886579231</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,15 +1748,15 @@
         <v>121</v>
       </c>
       <c r="E55" s="5">
-        <f>1000/D55/1.757</f>
+        <f t="shared" si="2"/>
         <v>4.7037352361510276</v>
       </c>
       <c r="F55" s="2">
-        <f>E55/C55</f>
+        <f t="shared" si="3"/>
         <v>0.29398345225943923</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
@@ -1761,15 +1770,15 @@
         <v>254</v>
       </c>
       <c r="E56" s="6">
-        <f>1000/D56/1.757</f>
+        <f t="shared" si="2"/>
         <v>2.2407557621034426</v>
       </c>
       <c r="F56" s="2">
-        <f>E56/C56</f>
+        <f t="shared" si="3"/>
         <v>9.3364823420976781E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -1783,15 +1792,15 @@
         <v>883</v>
       </c>
       <c r="E57" s="5">
-        <f>1000/D57/1.757</f>
+        <f t="shared" si="2"/>
         <v>0.64456621016339111</v>
       </c>
       <c r="F57" s="2">
-        <f>E57/C57</f>
+        <f t="shared" si="3"/>
         <v>4.0285388135211944E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>33</v>
       </c>
@@ -1805,15 +1814,15 @@
         <v>884</v>
       </c>
       <c r="E58" s="5">
-        <f>1000/D58/1.757</f>
+        <f t="shared" si="2"/>
         <v>0.64383706286682618</v>
       </c>
       <c r="F58" s="2">
-        <f>E58/C58</f>
+        <f t="shared" si="3"/>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>1.4451349877469892</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>0.826222982281268</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>1.4457223216172383</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>43</v>
       </c>
@@ -1899,6 +1908,72 @@
       <c r="F63" s="2">
         <f>E63/C63</f>
         <v>1.4436687387740321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>240</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <f>1000/D65/1.757</f>
+        <v>313.7552169648701</v>
+      </c>
+      <c r="F65" s="2">
+        <f>E65/C65</f>
+        <v>1.3073134040202921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>240</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="E66" s="3">
+        <f>1000/D66/1.757</f>
+        <v>184.78959856307608</v>
+      </c>
+      <c r="F66" s="2">
+        <f>E66/C66</f>
+        <v>0.76995666067948365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1">
+        <v>360</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="E67" s="3">
+        <f>1000/D67/1.757</f>
+        <v>470.37352361510278</v>
+      </c>
+      <c r="F67" s="2">
+        <f>E67/C67</f>
+        <v>1.3065931211530633</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A777E-1D51-49D1-BAC2-7CA7D5716343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ABF195-03F7-4A9D-800C-04E59799AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="842" yWindow="-109" windowWidth="22452" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
   <si>
     <t>MCU</t>
   </si>
@@ -255,21 +255,44 @@
   </si>
   <si>
     <t>STM32F070CBT6(no pll)</t>
+  </si>
+  <si>
+    <t>XL2409</t>
+  </si>
+  <si>
+    <t>Cortex-M0+</t>
+  </si>
+  <si>
+    <t>STM32L431CCT6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32L431CCT6(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32H750VBT6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_ "/>
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,8 +304,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,17 +341,21 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -604,27 +631,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.53515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -672,7 +699,7 @@
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,7 +724,7 @@
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -722,159 +749,159 @@
         <v>2.1624314725466349</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="E5" s="2">
-        <v>0.68300000000000005</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="4">
         <f>1000/E5/1.757</f>
-        <v>833.31180611167554</v>
+        <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
         <f>F5/D5</f>
-        <v>1.0416397576395944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>2.9422661475096898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E6" s="2">
-        <v>1.08</v>
+        <v>0.61</v>
       </c>
       <c r="F6" s="4">
         <f>1000/E6/1.757</f>
-        <v>526.99255886506887</v>
+        <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
         <f>F6/D6</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.9438250122072211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="E7" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="F7" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F7" s="8">
         <f>1000/E7/1.757</f>
-        <v>470.37352361510278</v>
+        <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
         <f>F7/D7</f>
-        <v>1.3065931211530633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.0416397576395944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E8" s="2">
-        <v>1.232</v>
-      </c>
-      <c r="F8" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="F8" s="8">
         <f>1000/E8/1.757</f>
-        <v>461.97399640769027</v>
+        <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
         <f>F8/D8</f>
-        <v>1.4436687387740321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="E9" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="F9" s="9">
         <f>1000/E9/1.757</f>
-        <v>406.53711683876742</v>
+        <v>470.37352361510278</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>1.4946217530837038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.3065931211530633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E10" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="F10" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="F10" s="9">
         <f>1000/E10/1.757</f>
-        <v>381.98118360689551</v>
+        <v>461.97399640769027</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>1.9894853312859142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.4436687387740321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -883,73 +910,73 @@
         <v>50</v>
       </c>
       <c r="D11" s="1">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E11" s="2">
-        <v>1.59</v>
-      </c>
-      <c r="F11" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="9">
         <f>1000/E11/1.757</f>
-        <v>357.95720979514107</v>
+        <v>406.53711683876742</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.4914883741464211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1.4946217530837038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2">
-        <v>1.76</v>
-      </c>
-      <c r="F12" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="F12" s="9">
         <f>1000/E12/1.757</f>
-        <v>323.38179748538312</v>
+        <v>381.98118360689551</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>1.1549349910192255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1.9894853312859142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E13" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F13" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="F13" s="9">
         <f>1000/E13/1.757</f>
-        <v>316.19553531904131</v>
+        <v>357.95720979514107</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>1.1292697689965761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.4914883741464211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -958,73 +985,73 @@
         <v>49</v>
       </c>
       <c r="D14" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="F14" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="F14" s="9">
         <f>1000/E14/1.757</f>
-        <v>313.7552169648701</v>
+        <v>323.38179748538312</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.1549349910192255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="F15" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="9">
         <f>1000/E15/1.757</f>
-        <v>264.72184352291833</v>
+        <v>316.19553531904131</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>1.5041013836529451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.1292697689965761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E16" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="F16" s="4">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="F16" s="9">
         <f>1000/E16/1.757</f>
-        <v>263.49627943253444</v>
+        <v>313.7552169648701</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1.3073134040202921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1033,148 +1060,148 @@
         <v>50</v>
       </c>
       <c r="D17" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2">
-        <v>2.1880000000000002</v>
-      </c>
-      <c r="F17" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="F17" s="9">
         <f>1000/E17/1.757</f>
-        <v>260.12429779445807</v>
+        <v>264.72184352291833</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>1.4451349877469892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1.5041013836529451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="1">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E18" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="F18" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="F18" s="8">
         <f>1000/E18/1.757</f>
-        <v>219.74979288582023</v>
+        <v>263.49627943253444</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="F19" s="3">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="F19" s="9">
         <f>1000/E19/1.757</f>
-        <v>213.96690359935124</v>
+        <v>260.12429779445807</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>1.9811750333273264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1.4451349877469892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
-        <v>192</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.82</v>
-      </c>
-      <c r="F20" s="3">
+        <v>168</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="F20" s="9">
         <f>1000/E20/1.757</f>
-        <v>201.82693743768596</v>
+        <v>219.74979288582023</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>1.0511819658212811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>1.3080344814632157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="F21" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="F21" s="9">
         <f>1000/E21/1.757</f>
-        <v>194.24981691954756</v>
+        <v>213.96690359935124</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.1562489102354021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.9811750333273264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1">
-        <v>240</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="F22" s="3">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="F22" s="9">
         <f>1000/E22/1.757</f>
-        <v>184.78959856307608</v>
+        <v>201.82693743768596</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>0.76995666067948365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1.0511819658212811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1183,351 +1210,351 @@
         <v>49</v>
       </c>
       <c r="D23" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="F23" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="F23" s="9">
         <f>1000/E23/1.757</f>
-        <v>150.96869060325579</v>
+        <v>194.24981691954756</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.2580724216937982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.1562489102354021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E24" s="2">
-        <v>3.827</v>
-      </c>
-      <c r="F24" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="F24" s="9">
         <f>1000/E24/1.757</f>
-        <v>148.72013681062825</v>
+        <v>184.78959856307608</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>0.826222982281268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.76995666067948365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="F25" s="3">
+        <v>3.77</v>
+      </c>
+      <c r="F25" s="9">
         <f>1000/E25/1.757</f>
-        <v>135.83579082918243</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>0.7717942660749002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1.2580724216937982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
-        <v>192</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.43</v>
-      </c>
-      <c r="F26" s="3">
+        <v>180</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.827</v>
+      </c>
+      <c r="F26" s="9">
         <f>1000/E26/1.757</f>
-        <v>128.4767412131545</v>
+        <v>148.72013681062825</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>0.66914969381851297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.826222982281268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F27" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F27" s="9">
         <f>1000/E27/1.757</f>
-        <v>124.54091106658082</v>
+        <v>135.83579082918243</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>1.1531565839498223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.7717942660749002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="F28" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F28" s="8">
         <f>1000/E28/1.757</f>
-        <v>117.5933809037757</v>
+        <v>129.35271899415326</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>0.69996060061771248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.95112293378053869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="F29" s="3">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F29" s="9">
         <f>1000/E29/1.757</f>
-        <v>109.24221949602196</v>
+        <v>128.4767412131545</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.66914969381851297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1">
         <v>108</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F30" s="9">
         <f>1000/E30/1.757</f>
-        <v>94.858660595712394</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>0.87832093144178147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1.1531565839498223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E31" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F31" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="F31" s="9">
         <f>1000/E31/1.757</f>
-        <v>89.208771720105702</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
-        <v>72</v>
-      </c>
-      <c r="E32" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F32" s="3">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="F32" s="9">
         <f>1000/E32/1.757</f>
-        <v>75.484345301627897</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>1.0483936847448319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2">
-        <v>8.11</v>
-      </c>
-      <c r="F33" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="F33" s="8">
         <f>1000/E33/1.757</f>
-        <v>70.179033732956157</v>
+        <v>106.98345179967562</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.58482528110796794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F34" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="F34" s="8">
         <f>1000/E34/1.757</f>
-        <v>65.344657126782351</v>
+        <v>102.18168107258067</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.75133589023956382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="F35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="9">
         <f>1000/E35/1.757</f>
-        <v>61.931660889474905</v>
+        <v>94.858660595712394</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.87832093144178147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2">
-        <v>10.44</v>
-      </c>
-      <c r="F36" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="F36" s="8">
         <f>1000/E36/1.757</f>
-        <v>54.516471606731265</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>52</v>
@@ -1536,273 +1563,273 @@
         <v>72</v>
       </c>
       <c r="E37" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F37" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="F37" s="9">
         <f>1000/E37/1.757</f>
-        <v>48.110901401037566</v>
+        <v>75.484345301627897</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>0.66820696390329948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1.0483936847448319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F38" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="F38" s="9">
         <f>1000/E38/1.757</f>
-        <v>46.651800292973313</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F39" s="3">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F39" s="9">
         <f>1000/E39/1.757</f>
-        <v>38.198118360689556</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G39" s="2">
         <f>F39/D39</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F40" s="3">
+        <v>9.19</v>
+      </c>
+      <c r="F40" s="9">
         <f>1000/E40/1.757</f>
-        <v>31.050298067336303</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G40" s="2">
         <f>F40/D40</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F41" s="3">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F41" s="8">
         <f>1000/E41/1.757</f>
-        <v>29.923867695808326</v>
+        <v>61.331030557572667</v>
       </c>
       <c r="G41" s="2">
         <f>F41/D41</f>
-        <v>0.4156092735528934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.76663788196965832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F42" s="4">
+        <v>10.44</v>
+      </c>
+      <c r="F42" s="9">
         <f>1000/E42/1.757</f>
-        <v>22.496125042461436</v>
+        <v>54.516471606731265</v>
       </c>
       <c r="G42" s="2">
         <f>F42/D42</f>
-        <v>0.70300390757691988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.75717321676015648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2">
-        <v>27</v>
-      </c>
-      <c r="F43" s="3">
+        <v>72</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="F43" s="9">
         <f>1000/E43/1.757</f>
-        <v>21.079702354602755</v>
+        <v>48.110901401037566</v>
       </c>
       <c r="G43" s="2">
         <f>F43/D43</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2">
-        <v>27.21</v>
-      </c>
-      <c r="F44" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="F44" s="8">
         <f>1000/E44/1.757</f>
-        <v>20.917014464324673</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G44" s="2">
         <f>F44/D44</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2">
-        <v>27.23</v>
-      </c>
-      <c r="F45" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="F45" s="9">
         <f>1000/E45/1.757</f>
-        <v>20.901651251350508</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G45" s="2">
         <f>F45/D45</f>
-        <v>1.3063532032094067</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2">
-        <v>27.52</v>
-      </c>
-      <c r="F46" s="3">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F46" s="9">
         <f>1000/E46/1.757</f>
-        <v>20.681394025227995</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G46" s="2">
         <f>F46/D46</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F47" s="4">
+        <v>19.02</v>
+      </c>
+      <c r="F47" s="9">
         <f>1000/E47/1.757</f>
-        <v>15.466085966692239</v>
+        <v>29.923867695808326</v>
       </c>
       <c r="G47" s="2">
         <f>F47/D47</f>
-        <v>0.96663037291826492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.4156092735528934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -1811,20 +1838,20 @@
         <v>32</v>
       </c>
       <c r="E48" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F48" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="F48" s="8">
         <f>1000/E48/1.757</f>
-        <v>13.266945537861874</v>
+        <v>22.496125042461436</v>
       </c>
       <c r="G48" s="2">
         <f>F48/D48</f>
-        <v>0.41459204805818356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.70300390757691988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
@@ -1833,48 +1860,48 @@
         <v>49</v>
       </c>
       <c r="D49" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2">
-        <v>55.1</v>
-      </c>
-      <c r="F49" s="3">
+        <v>27</v>
+      </c>
+      <c r="F49" s="9">
         <f>1000/E49/1.757</f>
-        <v>10.329436725485923</v>
+        <v>21.079702354602755</v>
       </c>
       <c r="G49" s="2">
         <f>F49/D49</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E50" s="2">
-        <v>59</v>
-      </c>
-      <c r="F50" s="5">
+        <v>27.21</v>
+      </c>
+      <c r="F50" s="8">
         <f>1000/E50/1.757</f>
-        <v>9.64664345041143</v>
+        <v>20.917014464324673</v>
       </c>
       <c r="G50" s="2">
         <f>F50/D50</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>1.3073134040202921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -1883,473 +1910,673 @@
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="F51" s="5">
+        <v>27.23</v>
+      </c>
+      <c r="F51" s="8">
         <f>1000/E51/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>20.901651251350508</v>
       </c>
       <c r="G51" s="2">
         <f>F51/D51</f>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1.3063532032094067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E52" s="2">
-        <v>61.55</v>
-      </c>
-      <c r="F52" s="5">
+        <v>27.52</v>
+      </c>
+      <c r="F52" s="8">
         <f>1000/E52/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G52" s="2">
         <f>F52/D52</f>
-        <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E53" s="2">
-        <v>62.1</v>
-      </c>
-      <c r="F53" s="6">
+        <v>33</v>
+      </c>
+      <c r="F53" s="8">
         <f>1000/E53/1.757</f>
-        <v>9.1650879802620668</v>
+        <v>17.247029199220435</v>
       </c>
       <c r="G53" s="2">
         <f>F53/D53</f>
-        <v>0.57281799876637918</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.7186262166341848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1">
         <v>16</v>
       </c>
       <c r="E54" s="2">
-        <v>67</v>
-      </c>
-      <c r="F54" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F54" s="8">
         <f>1000/E54/1.757</f>
-        <v>8.4948054264817063</v>
+        <v>15.466085966692239</v>
       </c>
       <c r="G54" s="2">
         <f>F54/D54</f>
-        <v>0.53092533915510665</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.96663037291826492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E55" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F55" s="5">
+        <v>42.9</v>
+      </c>
+      <c r="F55" s="8">
         <f>1000/E55/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>13.266945537861874</v>
       </c>
       <c r="G55" s="2">
         <f>F55/D55</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.41459204805818356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F56" s="3">
+        <v>53.4</v>
+      </c>
+      <c r="F56" s="8">
         <f>1000/E56/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>10.65827647142836</v>
       </c>
       <c r="G56" s="2">
         <f>F56/D56</f>
-        <v>0.12888404972243533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.44409485297618168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1">
         <v>8</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="1">
-        <v>16</v>
-      </c>
       <c r="E57" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" s="5">
+        <v>55.1</v>
+      </c>
+      <c r="F57" s="8">
         <f>1000/E57/1.757</f>
-        <v>7.691242751003708</v>
+        <v>10.329436725485923</v>
       </c>
       <c r="G57" s="2">
         <f>F57/D57</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.2911795906857404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2">
-        <v>78</v>
-      </c>
-      <c r="F58" s="3">
+        <v>59</v>
+      </c>
+      <c r="F58" s="5">
         <f>1000/E58/1.757</f>
-        <v>7.2968200458240311</v>
+        <v>9.64664345041143</v>
       </c>
       <c r="G58" s="2">
         <f>F58/D58</f>
-        <v>0.36484100229120153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>1.2058304313014288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D59" s="1">
         <v>8</v>
       </c>
       <c r="E59" s="2">
-        <v>80</v>
+        <v>61.5</v>
       </c>
       <c r="F59" s="5">
         <f>1000/E59/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>9.2545034727524289</v>
       </c>
       <c r="G59" s="2">
         <f>F59/D59</f>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1.1568129340940536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="1">
         <v>8</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="1">
-        <v>60</v>
-      </c>
       <c r="E60" s="2">
-        <v>85.5</v>
-      </c>
-      <c r="F60" s="3">
+        <v>61.55</v>
+      </c>
+      <c r="F60" s="5">
         <f>1000/E60/1.757</f>
-        <v>6.6567481119798169</v>
+        <v>9.2469855982822793</v>
       </c>
       <c r="G60" s="2">
         <f>F60/D60</f>
-        <v>0.11094580186633028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1.1558731997852849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1">
         <v>16</v>
       </c>
       <c r="E61" s="2">
-        <v>93.5</v>
-      </c>
-      <c r="F61" s="5">
+        <v>62.1</v>
+      </c>
+      <c r="F61" s="6">
         <f>1000/E61/1.757</f>
-        <v>6.0871867761954475</v>
+        <v>9.1650879802620668</v>
       </c>
       <c r="G61" s="2">
         <f>F61/D61</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.57281799876637918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2">
-        <v>96</v>
-      </c>
-      <c r="F62" s="5">
+        <v>67</v>
+      </c>
+      <c r="F62" s="6">
         <f>1000/E62/1.757</f>
-        <v>5.9286662872320246</v>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G62" s="2">
         <f>F62/D62</f>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.53092533915510665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1">
         <v>16</v>
       </c>
       <c r="E63" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F63" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F63" s="6">
         <f>1000/E63/1.757</f>
-        <v>5.314210677630947</v>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G63" s="2">
         <f>F63/D63</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D64" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E64" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F64" s="5">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F64" s="6">
         <f>1000/E64/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>7.7330429833461194</v>
       </c>
       <c r="G64" s="2">
         <f>F64/D64</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.12888404972243533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1">
         <v>16</v>
       </c>
       <c r="E65" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F65" s="5">
+        <v>74</v>
+      </c>
+      <c r="F65" s="6">
         <f>1000/E65/1.757</f>
-        <v>5.265050541852677</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G65" s="2">
         <f>F65/D65</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E66" s="2">
-        <v>121</v>
-      </c>
-      <c r="F66" s="5">
+        <v>78</v>
+      </c>
+      <c r="F66" s="6">
         <f>1000/E66/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>7.2968200458240311</v>
       </c>
       <c r="G66" s="2">
         <f>F66/D66</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.36484100229120153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="7">
-        <v>8051</v>
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D67" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="F67" s="6">
         <f>1000/E67/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G67" s="2">
         <f>F67/D67</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.88929994308480365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="7">
-        <v>8051</v>
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2">
-        <v>883</v>
-      </c>
-      <c r="F68" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="F68" s="6">
         <f>1000/E68/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>6.6567481119798169</v>
       </c>
       <c r="G68" s="2">
         <f>F68/D68</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="7">
-        <v>8051</v>
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D69" s="1">
         <v>16</v>
       </c>
       <c r="E69" s="2">
-        <v>884</v>
-      </c>
-      <c r="F69" s="5">
+        <v>93.5</v>
+      </c>
+      <c r="F69" s="6">
         <f>1000/E69/1.757</f>
-        <v>0.64383706286682618</v>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G69" s="2">
         <f>F69/D69</f>
+        <v>0.38044917351221547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>96</v>
+      </c>
+      <c r="F70" s="5">
+        <f>1000/E70/1.757</f>
+        <v>5.9286662872320246</v>
+      </c>
+      <c r="G70" s="2">
+        <f>F70/D70</f>
+        <v>0.74108328590400308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="1">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>107.1</v>
+      </c>
+      <c r="F71" s="5">
+        <f>1000/E71/1.757</f>
+        <v>5.314210677630947</v>
+      </c>
+      <c r="G71" s="2">
+        <f>F71/D71</f>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="F72" s="5">
+        <f>1000/E72/1.757</f>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G72" s="2">
+        <f>F72/D72</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="1">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>108.1</v>
+      </c>
+      <c r="F73" s="5">
+        <f>1000/E73/1.757</f>
+        <v>5.265050541852677</v>
+      </c>
+      <c r="G73" s="2">
+        <f>F73/D73</f>
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="1">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2">
+        <v>121</v>
+      </c>
+      <c r="F74" s="5">
+        <f>1000/E74/1.757</f>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G74" s="2">
+        <f>F74/D74</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="7">
+        <v>8051</v>
+      </c>
+      <c r="D75" s="1">
+        <v>24</v>
+      </c>
+      <c r="E75" s="2">
+        <v>254</v>
+      </c>
+      <c r="F75" s="6">
+        <f>1000/E75/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G75" s="2">
+        <f>F75/D75</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="7">
+        <v>8051</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2">
+        <v>883</v>
+      </c>
+      <c r="F76" s="5">
+        <f>1000/E76/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G76" s="2">
+        <f>F76/D76</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="7">
+        <v>8051</v>
+      </c>
+      <c r="D77" s="1">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>884</v>
+      </c>
+      <c r="F77" s="5">
+        <f>1000/E77/1.757</f>
+        <v>0.64383706286682618</v>
+      </c>
+      <c r="G77" s="2">
+        <f>F77/D77</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G69">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ABF195-03F7-4A9D-800C-04E59799AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E40D4F-A463-4C6F-90FC-F0E7DA2D3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="842" yWindow="-109" windowWidth="22452" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="-109" windowWidth="22434" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
   <si>
     <t>MCU</t>
   </si>
@@ -276,6 +276,22 @@
   </si>
   <si>
     <t>Cortex-M7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD32E230C8T6(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -331,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,17 +361,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -631,22 +646,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.53515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.84375" style="1"/>
   </cols>
@@ -690,12 +705,12 @@
       <c r="E2" s="2">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="F2" s="3">
-        <f>1000/E2/1.757</f>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f>F2/D2</f>
+        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
@@ -715,12 +730,12 @@
       <c r="E3" s="2">
         <v>0.05</v>
       </c>
-      <c r="F3" s="3">
-        <f>1000/E3/1.757</f>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/D3</f>
+        <f t="shared" si="1"/>
         <v>2.6167906371231004</v>
       </c>
     </row>
@@ -740,12 +755,12 @@
       <c r="E4" s="2">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F4" s="4">
-        <f>1000/E4/1.757</f>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/D4</f>
+        <f t="shared" si="1"/>
         <v>2.1624314725466349</v>
       </c>
     </row>
@@ -765,12 +780,12 @@
       <c r="E5" s="2">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F5" s="4">
-        <f>1000/E5/1.757</f>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/D5</f>
+        <f t="shared" si="1"/>
         <v>2.9422661475096898</v>
       </c>
     </row>
@@ -790,12 +805,12 @@
       <c r="E6" s="2">
         <v>0.61</v>
       </c>
-      <c r="F6" s="4">
-        <f>1000/E6/1.757</f>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/D6</f>
+        <f t="shared" si="1"/>
         <v>1.9438250122072211</v>
       </c>
     </row>
@@ -815,12 +830,12 @@
       <c r="E7" s="2">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F7" s="8">
-        <f>1000/E7/1.757</f>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/D7</f>
+        <f t="shared" si="1"/>
         <v>1.0416397576395944</v>
       </c>
     </row>
@@ -840,12 +855,12 @@
       <c r="E8" s="2">
         <v>1.08</v>
       </c>
-      <c r="F8" s="8">
-        <f>1000/E8/1.757</f>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -865,12 +880,12 @@
       <c r="E9" s="2">
         <v>1.21</v>
       </c>
-      <c r="F9" s="9">
-        <f>1000/E9/1.757</f>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
         <v>470.37352361510278</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/D9</f>
+        <f t="shared" si="1"/>
         <v>1.3065931211530633</v>
       </c>
     </row>
@@ -890,12 +905,12 @@
       <c r="E10" s="2">
         <v>1.232</v>
       </c>
-      <c r="F10" s="9">
-        <f>1000/E10/1.757</f>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
         <v>461.97399640769027</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/D10</f>
+        <f t="shared" si="1"/>
         <v>1.4436687387740321</v>
       </c>
     </row>
@@ -915,12 +930,12 @@
       <c r="E11" s="2">
         <v>1.4</v>
       </c>
-      <c r="F11" s="9">
-        <f>1000/E11/1.757</f>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
         <v>406.53711683876742</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/D11</f>
+        <f t="shared" si="1"/>
         <v>1.4946217530837038</v>
       </c>
     </row>
@@ -940,12 +955,12 @@
       <c r="E12" s="2">
         <v>1.49</v>
       </c>
-      <c r="F12" s="9">
-        <f>1000/E12/1.757</f>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
         <v>381.98118360689551</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/D12</f>
+        <f t="shared" si="1"/>
         <v>1.9894853312859142</v>
       </c>
     </row>
@@ -965,12 +980,12 @@
       <c r="E13" s="2">
         <v>1.59</v>
       </c>
-      <c r="F13" s="9">
-        <f>1000/E13/1.757</f>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
         <v>357.95720979514107</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/D13</f>
+        <f t="shared" si="1"/>
         <v>1.4914883741464211</v>
       </c>
     </row>
@@ -990,12 +1005,12 @@
       <c r="E14" s="2">
         <v>1.76</v>
       </c>
-      <c r="F14" s="9">
-        <f>1000/E14/1.757</f>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
         <v>323.38179748538312</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/D14</f>
+        <f t="shared" si="1"/>
         <v>1.1549349910192255</v>
       </c>
     </row>
@@ -1015,12 +1030,12 @@
       <c r="E15" s="2">
         <v>1.8</v>
       </c>
-      <c r="F15" s="9">
-        <f>1000/E15/1.757</f>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
         <v>316.19553531904131</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/D15</f>
+        <f t="shared" si="1"/>
         <v>1.1292697689965761</v>
       </c>
     </row>
@@ -1040,12 +1055,12 @@
       <c r="E16" s="2">
         <v>1.8140000000000001</v>
       </c>
-      <c r="F16" s="9">
-        <f>1000/E16/1.757</f>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
         <v>313.7552169648701</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/D16</f>
+        <f t="shared" si="1"/>
         <v>1.3073134040202921</v>
       </c>
     </row>
@@ -1065,12 +1080,12 @@
       <c r="E17" s="2">
         <v>2.15</v>
       </c>
-      <c r="F17" s="9">
-        <f>1000/E17/1.757</f>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
         <v>264.72184352291833</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.5041013836529451</v>
       </c>
     </row>
@@ -1090,12 +1105,12 @@
       <c r="E18" s="2">
         <v>2.16</v>
       </c>
-      <c r="F18" s="8">
-        <f>1000/E18/1.757</f>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
         <v>263.49627943253444</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/D18</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -1115,12 +1130,12 @@
       <c r="E19" s="2">
         <v>2.1880000000000002</v>
       </c>
-      <c r="F19" s="9">
-        <f>1000/E19/1.757</f>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
         <v>260.12429779445807</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/D19</f>
+        <f t="shared" si="1"/>
         <v>1.4451349877469892</v>
       </c>
     </row>
@@ -1140,12 +1155,12 @@
       <c r="E20" s="2">
         <v>2.59</v>
       </c>
-      <c r="F20" s="9">
-        <f>1000/E20/1.757</f>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
         <v>219.74979288582023</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.3080344814632157</v>
       </c>
     </row>
@@ -1165,12 +1180,12 @@
       <c r="E21" s="2">
         <v>2.66</v>
       </c>
-      <c r="F21" s="9">
-        <f>1000/E21/1.757</f>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
         <v>213.96690359935124</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/D21</f>
+        <f t="shared" si="1"/>
         <v>1.9811750333273264</v>
       </c>
     </row>
@@ -1190,12 +1205,12 @@
       <c r="E22" s="1">
         <v>2.82</v>
       </c>
-      <c r="F22" s="9">
-        <f>1000/E22/1.757</f>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
         <v>201.82693743768596</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/D22</f>
+        <f t="shared" si="1"/>
         <v>1.0511819658212811</v>
       </c>
     </row>
@@ -1215,12 +1230,12 @@
       <c r="E23" s="2">
         <v>2.93</v>
       </c>
-      <c r="F23" s="9">
-        <f>1000/E23/1.757</f>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
         <v>194.24981691954756</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/D23</f>
+        <f t="shared" si="1"/>
         <v>1.1562489102354021</v>
       </c>
     </row>
@@ -1240,12 +1255,12 @@
       <c r="E24" s="2">
         <v>3.08</v>
       </c>
-      <c r="F24" s="9">
-        <f>1000/E24/1.757</f>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
         <v>184.78959856307608</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/D24</f>
+        <f t="shared" si="1"/>
         <v>0.76995666067948365</v>
       </c>
     </row>
@@ -1265,12 +1280,12 @@
       <c r="E25" s="2">
         <v>3.77</v>
       </c>
-      <c r="F25" s="9">
-        <f>1000/E25/1.757</f>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
         <v>150.96869060325579</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/D25</f>
+        <f t="shared" si="1"/>
         <v>1.2580724216937982</v>
       </c>
     </row>
@@ -1290,12 +1305,12 @@
       <c r="E26" s="2">
         <v>3.827</v>
       </c>
-      <c r="F26" s="9">
-        <f>1000/E26/1.757</f>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
         <v>148.72013681062825</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/D26</f>
+        <f t="shared" si="1"/>
         <v>0.826222982281268</v>
       </c>
     </row>
@@ -1315,12 +1330,12 @@
       <c r="E27" s="2">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F27" s="9">
-        <f>1000/E27/1.757</f>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
         <v>135.83579082918243</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/D27</f>
+        <f t="shared" si="1"/>
         <v>0.7717942660749002</v>
       </c>
     </row>
@@ -1340,12 +1355,12 @@
       <c r="E28" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F28" s="8">
-        <f>1000/E28/1.757</f>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
         <v>129.35271899415326</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/D28</f>
+        <f t="shared" si="1"/>
         <v>0.95112293378053869</v>
       </c>
     </row>
@@ -1365,12 +1380,12 @@
       <c r="E29" s="1">
         <v>4.43</v>
       </c>
-      <c r="F29" s="9">
-        <f>1000/E29/1.757</f>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
         <v>128.4767412131545</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/D29</f>
+        <f t="shared" si="1"/>
         <v>0.66914969381851297</v>
       </c>
     </row>
@@ -1390,12 +1405,12 @@
       <c r="E30" s="2">
         <v>4.57</v>
       </c>
-      <c r="F30" s="9">
-        <f>1000/E30/1.757</f>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
         <v>124.54091106658082</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/D30</f>
+        <f t="shared" si="1"/>
         <v>1.1531565839498223</v>
       </c>
     </row>
@@ -1415,493 +1430,493 @@
       <c r="E31" s="2">
         <v>4.84</v>
       </c>
-      <c r="F31" s="9">
-        <f>1000/E31/1.757</f>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
         <v>117.5933809037757</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/D31</f>
+        <f t="shared" si="1"/>
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1">
+        <v>144</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>112.70335912361868</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78266221613624087</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1">
-        <v>84</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="F32" s="9">
-        <f>1000/E32/1.757</f>
-        <v>109.24221949602196</v>
-      </c>
-      <c r="G32" s="2">
-        <f>F32/D32</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F33" s="8">
-        <f>1000/E33/1.757</f>
-        <v>106.98345179967562</v>
+        <v>5.21</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>109.24221949602196</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/D33</f>
-        <v>1.3372931474959453</v>
+        <f t="shared" si="1"/>
+        <v>1.3005026130478805</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="1">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
+        <v>106.98345179967562</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1">
         <v>136</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>5.57</v>
       </c>
-      <c r="F34" s="8">
-        <f>1000/E34/1.757</f>
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
         <v>102.18168107258067</v>
       </c>
-      <c r="G34" s="2">
-        <f>F34/D34</f>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
         <v>0.75133589023956382</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>108</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
-        <f>1000/E35/1.757</f>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
         <v>94.858660595712394</v>
       </c>
-      <c r="G35" s="2">
-        <f>F35/D35</f>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
         <v>0.87832093144178147</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>80</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>6.38</v>
       </c>
-      <c r="F36" s="8">
-        <f>1000/E36/1.757</f>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
         <v>89.208771720105702</v>
       </c>
-      <c r="G36" s="2">
-        <f>F36/D36</f>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
         <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1">
-        <v>72</v>
-      </c>
-      <c r="E37" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F37" s="9">
-        <f>1000/E37/1.757</f>
-        <v>75.484345301627897</v>
-      </c>
-      <c r="G37" s="2">
-        <f>F37/D37</f>
-        <v>1.0483936847448319</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
-        <v>120</v>
-      </c>
-      <c r="E38" s="2">
-        <v>8.11</v>
-      </c>
-      <c r="F38" s="9">
-        <f>1000/E38/1.757</f>
-        <v>70.179033732956157</v>
+        <v>72</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>75.484345301627897</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/D38</f>
-        <v>0.58482528110796794</v>
+        <f t="shared" si="3"/>
+        <v>1.0483936847448319</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F39" s="9">
-        <f>1000/E39/1.757</f>
-        <v>65.344657126782351</v>
+        <v>8.11</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="2"/>
+        <v>70.179033732956157</v>
       </c>
       <c r="G39" s="2">
-        <f>F39/D39</f>
-        <v>0.90756468231642151</v>
+        <f t="shared" si="3"/>
+        <v>0.58482528110796794</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="2"/>
+        <v>65.344657126782351</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="1">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="F40" s="9">
-        <f>1000/E40/1.757</f>
-        <v>61.931660889474905</v>
-      </c>
-      <c r="G40" s="2">
-        <f>F40/D40</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="1">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
+        <v>61.931660889474905</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1">
         <v>80</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F41" s="8">
-        <f>1000/E41/1.757</f>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
         <v>61.331030557572667</v>
       </c>
-      <c r="G41" s="2">
-        <f>F41/D41</f>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
         <v>0.76663788196965832</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>60.483736830422359</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.42002595021126637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D44" s="1">
         <v>72</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E44" s="2">
         <v>10.44</v>
       </c>
-      <c r="F42" s="9">
-        <f>1000/E42/1.757</f>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
         <v>54.516471606731265</v>
       </c>
-      <c r="G42" s="2">
-        <f>F42/D42</f>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
         <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="1">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F43" s="9">
-        <f>1000/E43/1.757</f>
-        <v>48.110901401037566</v>
-      </c>
-      <c r="G43" s="2">
-        <f>F43/D43</f>
-        <v>0.66820696390329948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="1">
-        <v>80</v>
-      </c>
-      <c r="E44" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F44" s="8">
-        <f>1000/E44/1.757</f>
-        <v>46.651800292973313</v>
-      </c>
-      <c r="G44" s="2">
-        <f>F44/D44</f>
-        <v>0.58314750366216639</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F45" s="9">
-        <f>1000/E45/1.757</f>
-        <v>38.198118360689556</v>
+        <v>72</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="2"/>
+        <v>48.110901401037566</v>
       </c>
       <c r="G45" s="2">
-        <f>F45/D45</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F46" s="9">
-        <f>1000/E46/1.757</f>
-        <v>31.050298067336303</v>
+        <v>12.2</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>46.651800292973313</v>
       </c>
       <c r="G46" s="2">
-        <f>F46/D46</f>
-        <v>0.43125413982411531</v>
+        <f t="shared" si="3"/>
+        <v>0.58314750366216639</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
+        <v>38.198118360689556</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1">
         <v>72</v>
       </c>
-      <c r="E47" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F47" s="9">
-        <f>1000/E47/1.757</f>
-        <v>29.923867695808326</v>
-      </c>
-      <c r="G47" s="2">
-        <f>F47/D47</f>
-        <v>0.4156092735528934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="1">
-        <v>32</v>
-      </c>
       <c r="E48" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F48" s="8">
-        <f>1000/E48/1.757</f>
-        <v>22.496125042461436</v>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>31.050298067336303</v>
       </c>
       <c r="G48" s="2">
-        <f>F48/D48</f>
-        <v>0.70300390757691988</v>
+        <f t="shared" si="3"/>
+        <v>0.43125413982411531</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2">
-        <v>27</v>
-      </c>
-      <c r="F49" s="9">
-        <f>1000/E49/1.757</f>
-        <v>21.079702354602755</v>
+        <v>19.02</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
+        <v>29.923867695808326</v>
       </c>
       <c r="G49" s="2">
-        <f>F49/D49</f>
-        <v>1.3174813971626722</v>
+        <f t="shared" si="3"/>
+        <v>0.4156092735528934</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E50" s="2">
-        <v>27.21</v>
-      </c>
-      <c r="F50" s="8">
-        <f>1000/E50/1.757</f>
-        <v>20.917014464324673</v>
+        <v>25.3</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
+        <v>22.496125042461436</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/D50</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0.70300390757691988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -1913,195 +1928,195 @@
         <v>16</v>
       </c>
       <c r="E51" s="2">
-        <v>27.23</v>
-      </c>
-      <c r="F51" s="8">
-        <f>1000/E51/1.757</f>
-        <v>20.901651251350508</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
+        <v>21.079702354602755</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/D51</f>
-        <v>1.3063532032094067</v>
+        <f t="shared" si="3"/>
+        <v>1.3174813971626722</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E52" s="2">
-        <v>27.52</v>
-      </c>
-      <c r="F52" s="8">
-        <f>1000/E52/1.757</f>
-        <v>20.681394025227995</v>
+        <v>27.21</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="2"/>
+        <v>20.917014464324673</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/D52</f>
-        <v>0.43086237552558321</v>
+        <f t="shared" si="3"/>
+        <v>1.3073134040202921</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E53" s="2">
-        <v>33</v>
-      </c>
-      <c r="F53" s="8">
-        <f>1000/E53/1.757</f>
-        <v>17.247029199220435</v>
+        <v>27.23</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
+        <v>20.901651251350508</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/D53</f>
-        <v>0.7186262166341848</v>
+        <f t="shared" si="3"/>
+        <v>1.3063532032094067</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F54" s="8">
-        <f>1000/E54/1.757</f>
-        <v>15.466085966692239</v>
+        <v>27.52</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="2"/>
+        <v>20.681394025227995</v>
       </c>
       <c r="G54" s="2">
-        <f>F54/D54</f>
-        <v>0.96663037291826492</v>
+        <f t="shared" si="3"/>
+        <v>0.43086237552558321</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E55" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F55" s="8">
-        <f>1000/E55/1.757</f>
-        <v>13.266945537861874</v>
+        <v>33</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
+        <v>17.247029199220435</v>
       </c>
       <c r="G55" s="2">
-        <f>F55/D55</f>
-        <v>0.41459204805818356</v>
+        <f t="shared" si="3"/>
+        <v>0.7186262166341848</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2">
-        <v>53.4</v>
-      </c>
-      <c r="F56" s="8">
-        <f>1000/E56/1.757</f>
-        <v>10.65827647142836</v>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="2"/>
+        <v>15.466085966692239</v>
       </c>
       <c r="G56" s="2">
-        <f>F56/D56</f>
-        <v>0.44409485297618168</v>
+        <f t="shared" si="3"/>
+        <v>0.96663037291826492</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="2"/>
+        <v>13.266945537861874</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41459204805818356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="1">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="2"/>
+        <v>10.65827647142836</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44409485297618168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="1">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2">
-        <v>55.1</v>
-      </c>
-      <c r="F57" s="8">
-        <f>1000/E57/1.757</f>
-        <v>10.329436725485923</v>
-      </c>
-      <c r="G57" s="2">
-        <f>F57/D57</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="1">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2">
-        <v>59</v>
-      </c>
-      <c r="F58" s="5">
-        <f>1000/E58/1.757</f>
-        <v>9.64664345041143</v>
-      </c>
-      <c r="G58" s="2">
-        <f>F58/D58</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
@@ -2113,140 +2128,140 @@
         <v>8</v>
       </c>
       <c r="E59" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="F59" s="5">
-        <f>1000/E59/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>55.1</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="2"/>
+        <v>10.329436725485923</v>
       </c>
       <c r="G59" s="2">
-        <f>F59/D59</f>
-        <v>1.1568129340940536</v>
+        <f t="shared" si="3"/>
+        <v>1.2911795906857404</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
       </c>
       <c r="E60" s="2">
+        <v>59</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="2"/>
+        <v>9.64664345041143</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2058304313014288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>9.2545034727524289</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1568129340940536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2">
         <v>61.55</v>
       </c>
-      <c r="F60" s="5">
-        <f>1000/E60/1.757</f>
+      <c r="F62" s="3">
+        <f t="shared" si="2"/>
         <v>9.2469855982822793</v>
       </c>
-      <c r="G60" s="2">
-        <f>F60/D60</f>
+      <c r="G62" s="2">
+        <f t="shared" si="3"/>
         <v>1.1558731997852849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="1">
-        <v>16</v>
-      </c>
-      <c r="E61" s="2">
-        <v>62.1</v>
-      </c>
-      <c r="F61" s="6">
-        <f>1000/E61/1.757</f>
-        <v>9.1650879802620668</v>
-      </c>
-      <c r="G61" s="2">
-        <f>F61/D61</f>
-        <v>0.57281799876637918</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="1">
-        <v>16</v>
-      </c>
-      <c r="E62" s="2">
-        <v>67</v>
-      </c>
-      <c r="F62" s="6">
-        <f>1000/E62/1.757</f>
-        <v>8.4948054264817063</v>
-      </c>
-      <c r="G62" s="2">
-        <f>F62/D62</f>
-        <v>0.53092533915510665</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1">
         <v>16</v>
       </c>
       <c r="E63" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F63" s="6">
-        <f>1000/E63/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>62.1</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1650879802620668</v>
       </c>
       <c r="G63" s="2">
-        <f>F63/D63</f>
-        <v>0.4947426665284026</v>
+        <f t="shared" si="3"/>
+        <v>0.57281799876637918</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F64" s="6">
-        <f>1000/E64/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>67</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G64" s="2">
-        <f>F64/D64</f>
-        <v>0.12888404972243533</v>
+        <f t="shared" si="3"/>
+        <v>0.53092533915510665</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2254,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>56</v>
@@ -2263,15 +2278,15 @@
         <v>16</v>
       </c>
       <c r="E65" s="2">
-        <v>74</v>
-      </c>
-      <c r="F65" s="6">
-        <f>1000/E65/1.757</f>
-        <v>7.691242751003708</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="2"/>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G65" s="2">
-        <f>F65/D65</f>
-        <v>0.48070267193773175</v>
+        <f t="shared" si="3"/>
+        <v>0.4947426665284026</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2285,43 +2300,43 @@
         <v>51</v>
       </c>
       <c r="D66" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2">
-        <v>78</v>
-      </c>
-      <c r="F66" s="6">
-        <f>1000/E66/1.757</f>
-        <v>7.2968200458240311</v>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
+        <v>7.7330429833461194</v>
       </c>
       <c r="G66" s="2">
-        <f>F66/D66</f>
-        <v>0.36484100229120153</v>
+        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
+        <v>0.12888404972243533</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2">
-        <v>80</v>
-      </c>
-      <c r="F67" s="6">
-        <f>1000/E67/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>74</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="4"/>
+        <v>7.691242751003708</v>
       </c>
       <c r="G67" s="2">
-        <f>F67/D67</f>
-        <v>0.88929994308480365</v>
+        <f t="shared" si="5"/>
+        <v>0.48070267193773175</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2329,132 +2344,132 @@
         <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2">
-        <v>85.5</v>
-      </c>
-      <c r="F68" s="6">
-        <f>1000/E68/1.757</f>
-        <v>6.6567481119798169</v>
+        <v>78</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="4"/>
+        <v>7.2968200458240311</v>
       </c>
       <c r="G68" s="2">
-        <f>F68/D68</f>
-        <v>0.11094580186633028</v>
+        <f t="shared" si="5"/>
+        <v>0.36484100229120153</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1">
         <v>8</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="1">
-        <v>16</v>
-      </c>
       <c r="E69" s="2">
-        <v>93.5</v>
-      </c>
-      <c r="F69" s="6">
-        <f>1000/E69/1.757</f>
-        <v>6.0871867761954475</v>
+        <v>80</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G69" s="2">
-        <f>F69/D69</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>0.88929994308480365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D70" s="1">
+        <v>60</v>
+      </c>
+      <c r="E70" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="4"/>
+        <v>6.6567481119798169</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="2">
-        <v>96</v>
-      </c>
-      <c r="F70" s="5">
-        <f>1000/E70/1.757</f>
-        <v>5.9286662872320246</v>
-      </c>
-      <c r="G70" s="2">
-        <f>F70/D70</f>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D71" s="1">
         <v>16</v>
       </c>
       <c r="E71" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F71" s="5">
-        <f>1000/E71/1.757</f>
-        <v>5.314210677630947</v>
+        <v>93.5</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="4"/>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G71" s="2">
-        <f>F71/D71</f>
-        <v>0.33213816735193419</v>
+        <f t="shared" si="5"/>
+        <v>0.38044917351221547</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F72" s="5">
-        <f>1000/E72/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>96</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>5.9286662872320246</v>
       </c>
       <c r="G72" s="2">
-        <f>F72/D72</f>
-        <v>0.3318283369719417</v>
+        <f t="shared" si="5"/>
+        <v>0.74108328590400308</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>57</v>
@@ -2463,23 +2478,23 @@
         <v>16</v>
       </c>
       <c r="E73" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F73" s="5">
-        <f>1000/E73/1.757</f>
-        <v>5.265050541852677</v>
+        <v>107.1</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="4"/>
+        <v>5.314210677630947</v>
       </c>
       <c r="G73" s="2">
-        <f>F73/D73</f>
-        <v>0.32906565886579231</v>
+        <f t="shared" si="5"/>
+        <v>0.33213816735193419</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>57</v>
@@ -2488,95 +2503,145 @@
         <v>16</v>
       </c>
       <c r="E74" s="2">
-        <v>121</v>
-      </c>
-      <c r="F74" s="5">
-        <f>1000/E74/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>107.2</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="4"/>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G74" s="2">
-        <f>F74/D74</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="7">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D75" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2">
-        <v>254</v>
-      </c>
-      <c r="F75" s="6">
-        <f>1000/E75/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>108.1</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="4"/>
+        <v>5.265050541852677</v>
       </c>
       <c r="G75" s="2">
-        <f>F75/D75</f>
-        <v>9.3364823420976781E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.32906565886579231</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="7">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D76" s="1">
         <v>16</v>
       </c>
       <c r="E76" s="2">
-        <v>883</v>
-      </c>
-      <c r="F76" s="5">
-        <f>1000/E76/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>121</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G76" s="2">
-        <f>F76/D76</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>8051</v>
       </c>
       <c r="D77" s="1">
+        <v>24</v>
+      </c>
+      <c r="E77" s="2">
+        <v>254</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="5"/>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D78" s="1">
         <v>16</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="2">
+        <v>883</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="5"/>
+        <v>4.0285388135211944E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D79" s="1">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2">
         <v>884</v>
       </c>
-      <c r="F77" s="5">
-        <f>1000/E77/1.757</f>
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
         <v>0.64383706286682618</v>
       </c>
-      <c r="G77" s="2">
-        <f>F77/D77</f>
+      <c r="G79" s="2">
+        <f t="shared" si="5"/>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H79">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E40D4F-A463-4C6F-90FC-F0E7DA2D3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB661BC-ADE3-4AE6-9325-DFCC1B8AD2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="-109" windowWidth="22434" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
   <si>
     <t>MCU</t>
   </si>
@@ -293,6 +293,9 @@
   <si>
     <t>Os</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH592</t>
   </si>
 </sst>
 </file>
@@ -646,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -706,11 +709,11 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
+        <f>1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
+        <f>F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
@@ -731,11 +734,11 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E3/1.757</f>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>F3/D3</f>
         <v>2.6167906371231004</v>
       </c>
     </row>
@@ -756,11 +759,11 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E4/1.757</f>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>F4/D4</f>
         <v>2.1624314725466349</v>
       </c>
     </row>
@@ -781,11 +784,11 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E5/1.757</f>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>F5/D5</f>
         <v>2.9422661475096898</v>
       </c>
     </row>
@@ -806,11 +809,11 @@
         <v>0.61</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E6/1.757</f>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>F6/D6</f>
         <v>1.9438250122072211</v>
       </c>
     </row>
@@ -831,11 +834,11 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E7/1.757</f>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>F7/D7</f>
         <v>1.0416397576395944</v>
       </c>
     </row>
@@ -856,11 +859,11 @@
         <v>1.08</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E8/1.757</f>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>F8/D8</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -881,11 +884,11 @@
         <v>1.21</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E9/1.757</f>
         <v>470.37352361510278</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>F9/D9</f>
         <v>1.3065931211530633</v>
       </c>
     </row>
@@ -906,11 +909,11 @@
         <v>1.232</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E10/1.757</f>
         <v>461.97399640769027</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>F10/D10</f>
         <v>1.4436687387740321</v>
       </c>
     </row>
@@ -931,11 +934,11 @@
         <v>1.4</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E11/1.757</f>
         <v>406.53711683876742</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f>F11/D11</f>
         <v>1.4946217530837038</v>
       </c>
     </row>
@@ -956,11 +959,11 @@
         <v>1.49</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E12/1.757</f>
         <v>381.98118360689551</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f>F12/D12</f>
         <v>1.9894853312859142</v>
       </c>
     </row>
@@ -981,11 +984,11 @@
         <v>1.59</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E13/1.757</f>
         <v>357.95720979514107</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>F13/D13</f>
         <v>1.4914883741464211</v>
       </c>
     </row>
@@ -1006,11 +1009,11 @@
         <v>1.76</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E14/1.757</f>
         <v>323.38179748538312</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f>F14/D14</f>
         <v>1.1549349910192255</v>
       </c>
     </row>
@@ -1031,11 +1034,11 @@
         <v>1.8</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E15/1.757</f>
         <v>316.19553531904131</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f>F15/D15</f>
         <v>1.1292697689965761</v>
       </c>
     </row>
@@ -1056,11 +1059,11 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E16/1.757</f>
         <v>313.7552169648701</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f>F16/D16</f>
         <v>1.3073134040202921</v>
       </c>
     </row>
@@ -1081,11 +1084,11 @@
         <v>2.15</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E17/1.757</f>
         <v>264.72184352291833</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f>F17/D17</f>
         <v>1.5041013836529451</v>
       </c>
     </row>
@@ -1106,11 +1109,11 @@
         <v>2.16</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E18/1.757</f>
         <v>263.49627943253444</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f>F18/D18</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -1131,11 +1134,11 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E19/1.757</f>
         <v>260.12429779445807</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f>F19/D19</f>
         <v>1.4451349877469892</v>
       </c>
     </row>
@@ -1156,11 +1159,11 @@
         <v>2.59</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E20/1.757</f>
         <v>219.74979288582023</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f>F20/D20</f>
         <v>1.3080344814632157</v>
       </c>
     </row>
@@ -1181,11 +1184,11 @@
         <v>2.66</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E21/1.757</f>
         <v>213.96690359935124</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f>F21/D21</f>
         <v>1.9811750333273264</v>
       </c>
     </row>
@@ -1206,11 +1209,11 @@
         <v>2.82</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E22/1.757</f>
         <v>201.82693743768596</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f>F22/D22</f>
         <v>1.0511819658212811</v>
       </c>
     </row>
@@ -1231,11 +1234,11 @@
         <v>2.93</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E23/1.757</f>
         <v>194.24981691954756</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f>F23/D23</f>
         <v>1.1562489102354021</v>
       </c>
     </row>
@@ -1256,11 +1259,11 @@
         <v>3.08</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E24/1.757</f>
         <v>184.78959856307608</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f>F24/D24</f>
         <v>0.76995666067948365</v>
       </c>
     </row>
@@ -1281,11 +1284,11 @@
         <v>3.77</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E25/1.757</f>
         <v>150.96869060325579</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f>F25/D25</f>
         <v>1.2580724216937982</v>
       </c>
     </row>
@@ -1306,11 +1309,11 @@
         <v>3.827</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E26/1.757</f>
         <v>148.72013681062825</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f>F26/D26</f>
         <v>0.826222982281268</v>
       </c>
     </row>
@@ -1331,11 +1334,11 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E27/1.757</f>
         <v>135.83579082918243</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f>F27/D27</f>
         <v>0.7717942660749002</v>
       </c>
     </row>
@@ -1356,11 +1359,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E28/1.757</f>
         <v>129.35271899415326</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f>F28/D28</f>
         <v>0.95112293378053869</v>
       </c>
     </row>
@@ -1381,11 +1384,11 @@
         <v>4.43</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E29/1.757</f>
         <v>128.4767412131545</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
+        <f>F29/D29</f>
         <v>0.66914969381851297</v>
       </c>
     </row>
@@ -1406,11 +1409,11 @@
         <v>4.57</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E30/1.757</f>
         <v>124.54091106658082</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f>F30/D30</f>
         <v>1.1531565839498223</v>
       </c>
     </row>
@@ -1431,11 +1434,11 @@
         <v>4.84</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E31/1.757</f>
         <v>117.5933809037757</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f>F31/D31</f>
         <v>0.69996060061771248</v>
       </c>
     </row>
@@ -1456,11 +1459,11 @@
         <v>5.05</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E32/1.757</f>
         <v>112.70335912361868</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f>F32/D32</f>
         <v>0.78266221613624087</v>
       </c>
     </row>
@@ -1481,11 +1484,11 @@
         <v>5.21</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E33/1.757</f>
         <v>109.24221949602196</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f>F33/D33</f>
         <v>1.3005026130478805</v>
       </c>
     </row>
@@ -1506,11 +1509,11 @@
         <v>5.32</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
+        <f>1000/E34/1.757</f>
         <v>106.98345179967562</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
+        <f>F34/D34</f>
         <v>1.3372931474959453</v>
       </c>
     </row>
@@ -1531,11 +1534,11 @@
         <v>5.57</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E35/1.757</f>
         <v>102.18168107258067</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
+        <f>F35/D35</f>
         <v>0.75133589023956382</v>
       </c>
     </row>
@@ -1556,11 +1559,11 @@
         <v>6</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E36/1.757</f>
         <v>94.858660595712394</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
+        <f>F36/D36</f>
         <v>0.87832093144178147</v>
       </c>
     </row>
@@ -1581,11 +1584,11 @@
         <v>6.38</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E37/1.757</f>
         <v>89.208771720105702</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
+        <f>F37/D37</f>
         <v>1.1151096465013213</v>
       </c>
     </row>
@@ -1606,11 +1609,11 @@
         <v>7.54</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E38/1.757</f>
         <v>75.484345301627897</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
+        <f>F38/D38</f>
         <v>1.0483936847448319</v>
       </c>
     </row>
@@ -1631,11 +1634,11 @@
         <v>8.11</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E39/1.757</f>
         <v>70.179033732956157</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f>F39/D39</f>
         <v>0.58482528110796794</v>
       </c>
     </row>
@@ -1656,11 +1659,11 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E40/1.757</f>
         <v>65.344657126782351</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="3"/>
+        <f>F40/D40</f>
         <v>0.90756468231642151</v>
       </c>
     </row>
@@ -1681,11 +1684,11 @@
         <v>9.19</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E41/1.757</f>
         <v>61.931660889474905</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="3"/>
+        <f>F41/D41</f>
         <v>0.73728167725565363</v>
       </c>
     </row>
@@ -1706,11 +1709,11 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E42/1.757</f>
         <v>61.331030557572667</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="3"/>
+        <f>F42/D42</f>
         <v>0.76663788196965832</v>
       </c>
     </row>
@@ -1731,11 +1734,11 @@
         <v>9.41</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="2"/>
+        <f>1000/E43/1.757</f>
         <v>60.483736830422359</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="3"/>
+        <f>F43/D43</f>
         <v>0.42002595021126637</v>
       </c>
     </row>
@@ -1756,11 +1759,11 @@
         <v>10.44</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E44/1.757</f>
         <v>54.516471606731265</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="3"/>
+        <f>F44/D44</f>
         <v>0.75717321676015648</v>
       </c>
     </row>
@@ -1781,11 +1784,11 @@
         <v>11.83</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E45/1.757</f>
         <v>48.110901401037566</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
+        <f>F45/D45</f>
         <v>0.66820696390329948</v>
       </c>
     </row>
@@ -1806,11 +1809,11 @@
         <v>12.2</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E46/1.757</f>
         <v>46.651800292973313</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f>F46/D46</f>
         <v>0.58314750366216639</v>
       </c>
     </row>
@@ -1831,11 +1834,11 @@
         <v>14.9</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E47/1.757</f>
         <v>38.198118360689556</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="3"/>
+        <f>F47/D47</f>
         <v>0.7957941325143657</v>
       </c>
     </row>
@@ -1856,11 +1859,11 @@
         <v>18.329999999999998</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E48/1.757</f>
         <v>31.050298067336303</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="3"/>
+        <f>F48/D48</f>
         <v>0.43125413982411531</v>
       </c>
     </row>
@@ -1881,11 +1884,11 @@
         <v>19.02</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E49/1.757</f>
         <v>29.923867695808326</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="3"/>
+        <f>F49/D49</f>
         <v>0.4156092735528934</v>
       </c>
     </row>
@@ -1906,11 +1909,11 @@
         <v>25.3</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E50/1.757</f>
         <v>22.496125042461436</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="3"/>
+        <f>F50/D50</f>
         <v>0.70300390757691988</v>
       </c>
     </row>
@@ -1931,11 +1934,11 @@
         <v>27</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E51/1.757</f>
         <v>21.079702354602755</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="3"/>
+        <f>F51/D51</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -1956,11 +1959,11 @@
         <v>27.21</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E52/1.757</f>
         <v>20.917014464324673</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="3"/>
+        <f>F52/D52</f>
         <v>1.3073134040202921</v>
       </c>
     </row>
@@ -1981,11 +1984,11 @@
         <v>27.23</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E53/1.757</f>
         <v>20.901651251350508</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="3"/>
+        <f>F53/D53</f>
         <v>1.3063532032094067</v>
       </c>
     </row>
@@ -2006,11 +2009,11 @@
         <v>27.52</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E54/1.757</f>
         <v>20.681394025227995</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="3"/>
+        <f>F54/D54</f>
         <v>0.43086237552558321</v>
       </c>
     </row>
@@ -2031,11 +2034,11 @@
         <v>33</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E55/1.757</f>
         <v>17.247029199220435</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="3"/>
+        <f>F55/D55</f>
         <v>0.7186262166341848</v>
       </c>
     </row>
@@ -2056,11 +2059,11 @@
         <v>36.799999999999997</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E56/1.757</f>
         <v>15.466085966692239</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="3"/>
+        <f>F56/D56</f>
         <v>0.96663037291826492</v>
       </c>
     </row>
@@ -2081,11 +2084,11 @@
         <v>42.9</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E57/1.757</f>
         <v>13.266945537861874</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="3"/>
+        <f>F57/D57</f>
         <v>0.41459204805818356</v>
       </c>
     </row>
@@ -2106,11 +2109,11 @@
         <v>53.4</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E58/1.757</f>
         <v>10.65827647142836</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="3"/>
+        <f>F58/D58</f>
         <v>0.44409485297618168</v>
       </c>
     </row>
@@ -2131,11 +2134,11 @@
         <v>55.1</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E59/1.757</f>
         <v>10.329436725485923</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="3"/>
+        <f>F59/D59</f>
         <v>1.2911795906857404</v>
       </c>
     </row>
@@ -2156,11 +2159,11 @@
         <v>59</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/E60/1.757</f>
         <v>9.64664345041143</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="3"/>
+        <f>F60/D60</f>
         <v>1.2058304313014288</v>
       </c>
     </row>
@@ -2181,11 +2184,11 @@
         <v>61.5</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/E61/1.757</f>
         <v>9.2545034727524289</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="3"/>
+        <f>F61/D61</f>
         <v>1.1568129340940536</v>
       </c>
     </row>
@@ -2206,11 +2209,11 @@
         <v>61.55</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="2"/>
+        <f>1000/E62/1.757</f>
         <v>9.2469855982822793</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="3"/>
+        <f>F62/D62</f>
         <v>1.1558731997852849</v>
       </c>
     </row>
@@ -2231,11 +2234,11 @@
         <v>62.1</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="2"/>
+        <f>1000/E63/1.757</f>
         <v>9.1650879802620668</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
+        <f>F63/D63</f>
         <v>0.57281799876637918</v>
       </c>
     </row>
@@ -2256,11 +2259,11 @@
         <v>67</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="2"/>
+        <f>1000/E64/1.757</f>
         <v>8.4948054264817063</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="3"/>
+        <f>F64/D64</f>
         <v>0.53092533915510665</v>
       </c>
     </row>
@@ -2281,11 +2284,11 @@
         <v>71.900000000000006</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="2"/>
+        <f>1000/E65/1.757</f>
         <v>7.9158826644544416</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="3"/>
+        <f>F65/D65</f>
         <v>0.4947426665284026</v>
       </c>
     </row>
@@ -2306,11 +2309,11 @@
         <v>73.599999999999994</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
+        <f>1000/E66/1.757</f>
         <v>7.7330429833461194</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
+        <f>F66/D66</f>
         <v>0.12888404972243533</v>
       </c>
     </row>
@@ -2331,11 +2334,11 @@
         <v>74</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E67/1.757</f>
         <v>7.691242751003708</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="5"/>
+        <f>F67/D67</f>
         <v>0.48070267193773175</v>
       </c>
     </row>
@@ -2356,170 +2359,166 @@
         <v>78</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E68/1.757</f>
         <v>7.2968200458240311</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="5"/>
+        <f>F68/D68</f>
         <v>0.36484100229120153</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="1">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="D69" s="2">
+        <v>60</v>
       </c>
       <c r="E69" s="2">
-        <v>80</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="4"/>
-        <v>7.1143995446784292</v>
-      </c>
-      <c r="G69" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88929994308480365</v>
+        <v>7.2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1">
         <v>8</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="1">
-        <v>60</v>
-      </c>
       <c r="E70" s="2">
-        <v>85.5</v>
+        <v>80</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="4"/>
-        <v>6.6567481119798169</v>
+        <f>1000/E70/1.757</f>
+        <v>7.1143995446784292</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="5"/>
-        <v>0.11094580186633028</v>
+        <f>F70/D70</f>
+        <v>0.88929994308480365</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D71" s="2">
+        <v>20</v>
       </c>
       <c r="E71" s="2">
-        <v>93.5</v>
+        <v>82.4</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="4"/>
-        <v>6.0871867761954475</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="5"/>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+        <v>6.9</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D72" s="1">
+        <v>60</v>
+      </c>
+      <c r="E72" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="F72" s="4">
+        <f>1000/E72/1.757</f>
+        <v>6.6567481119798169</v>
+      </c>
+      <c r="G72" s="2">
+        <f>F72/D72</f>
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="2">
-        <v>96</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="4"/>
-        <v>5.9286662872320246</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="5"/>
-        <v>0.74108328590400308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1">
         <v>16</v>
       </c>
       <c r="E73" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F73" s="3">
-        <f t="shared" si="4"/>
-        <v>5.314210677630947</v>
+        <v>93.5</v>
+      </c>
+      <c r="F73" s="4">
+        <f>1000/E73/1.757</f>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="5"/>
-        <v>0.33213816735193419</v>
+        <f>F73/D73</f>
+        <v>0.38044917351221547</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D74" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E74" s="2">
-        <v>107.2</v>
+        <v>96</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="4"/>
-        <v>5.3092533915510671</v>
+        <f>1000/E74/1.757</f>
+        <v>5.9286662872320246</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="5"/>
-        <v>0.3318283369719417</v>
+        <f>F74/D74</f>
+        <v>0.74108328590400308</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>57</v>
@@ -2528,23 +2527,23 @@
         <v>16</v>
       </c>
       <c r="E75" s="2">
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="4"/>
-        <v>5.265050541852677</v>
+        <f>1000/E75/1.757</f>
+        <v>5.314210677630947</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="5"/>
-        <v>0.32906565886579231</v>
+        <f>F75/D75</f>
+        <v>0.33213816735193419</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>57</v>
@@ -2553,95 +2552,191 @@
         <v>16</v>
       </c>
       <c r="E76" s="2">
-        <v>121</v>
+        <v>107.2</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="4"/>
-        <v>4.7037352361510276</v>
+        <f>1000/E76/1.757</f>
+        <v>5.3092533915510671</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="5"/>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F76/D76</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D77" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2">
-        <v>254</v>
-      </c>
-      <c r="F77" s="4">
-        <f t="shared" si="4"/>
-        <v>2.2407557621034426</v>
+        <v>108.1</v>
+      </c>
+      <c r="F77" s="3">
+        <f>1000/E77/1.757</f>
+        <v>5.265050541852677</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="5"/>
-        <v>9.3364823420976781E-2</v>
+        <f>F77/D77</f>
+        <v>0.32906565886579231</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D78" s="1">
         <v>16</v>
       </c>
       <c r="E78" s="2">
+        <v>121</v>
+      </c>
+      <c r="F78" s="3">
+        <f>1000/E78/1.757</f>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G78" s="2">
+        <f>F78/D78</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="2">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F79" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="2">
+        <v>60</v>
+      </c>
+      <c r="E80" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="F80" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D81" s="1">
+        <v>24</v>
+      </c>
+      <c r="E81" s="2">
+        <v>254</v>
+      </c>
+      <c r="F81" s="4">
+        <f>1000/E81/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G81" s="2">
+        <f>F81/D81</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D82" s="1">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2">
         <v>883</v>
       </c>
-      <c r="F78" s="3">
-        <f t="shared" si="4"/>
+      <c r="F82" s="3">
+        <f>1000/E82/1.757</f>
         <v>0.64456621016339111</v>
       </c>
-      <c r="G78" s="2">
-        <f t="shared" si="5"/>
+      <c r="G82" s="2">
+        <f>F82/D82</f>
         <v>4.0285388135211944E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C83" s="5">
         <v>8051</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D83" s="1">
         <v>16</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E83" s="2">
         <v>884</v>
       </c>
-      <c r="F79" s="3">
-        <f t="shared" si="4"/>
+      <c r="F83" s="3">
+        <f>1000/E83/1.757</f>
         <v>0.64383706286682618</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="5"/>
+      <c r="G83" s="2">
+        <f>F83/D83</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H79">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H83">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB661BC-ADE3-4AE6-9325-DFCC1B8AD2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE845A-BDEE-45A3-B15C-5CDA7A77DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="-109" windowWidth="22434" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="77">
   <si>
     <t>MCU</t>
   </si>
@@ -230,33 +230,6 @@
     <t>GD32W515PIQ6(oc)</t>
   </si>
   <si>
-    <t>STM32F407VET6(no pll)</t>
-  </si>
-  <si>
-    <t>GD32F450ZET6(no pll)</t>
-  </si>
-  <si>
-    <t>STM32F401RET6(no pll)</t>
-  </si>
-  <si>
-    <t>GD32E103CBT6(no pll)</t>
-  </si>
-  <si>
-    <t>STM32F103VET6(no pll)</t>
-  </si>
-  <si>
-    <t>GD32FFPRTGU6(no pll)</t>
-  </si>
-  <si>
-    <t>GD32F350CBT6(no pll)</t>
-  </si>
-  <si>
-    <t>STM32L051C8T6(no pll)</t>
-  </si>
-  <si>
-    <t>STM32F070CBT6(no pll)</t>
-  </si>
-  <si>
     <t>XL2409</t>
   </si>
   <si>
@@ -296,6 +269,26 @@
   </si>
   <si>
     <t>CH592</t>
+  </si>
+  <si>
+    <t>AT32F435CMT7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT32F435CMT7(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -649,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -769,13 +762,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>480</v>
@@ -794,13 +787,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>480</v>
@@ -869,57 +862,57 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E9" s="2">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="7">
         <f>1000/E9/1.757</f>
-        <v>470.37352361510278</v>
+        <v>494.91475093415164</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>1.3065931211530633</v>
+        <v>1.3448770405819339</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E10" s="2">
-        <v>1.232</v>
+        <v>1.21</v>
       </c>
       <c r="F10" s="7">
         <f>1000/E10/1.757</f>
-        <v>461.97399640769027</v>
+        <v>470.37352361510278</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>1.4436687387740321</v>
+        <v>1.3065931211530633</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -928,123 +921,123 @@
         <v>50</v>
       </c>
       <c r="D11" s="1">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="E11" s="2">
-        <v>1.4</v>
+        <v>1.232</v>
       </c>
       <c r="F11" s="7">
         <f>1000/E11/1.757</f>
-        <v>406.53711683876742</v>
+        <v>461.97399640769027</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.4946217530837038</v>
+        <v>1.4436687387740321</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="F12" s="7">
         <f>1000/E12/1.757</f>
-        <v>381.98118360689551</v>
+        <v>406.53711683876742</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>1.9894853312859142</v>
+        <v>1.4946217530837038</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="F13" s="7">
         <f>1000/E13/1.757</f>
-        <v>357.95720979514107</v>
+        <v>381.98118360689551</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>1.4914883741464211</v>
+        <v>1.9894853312859142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E14" s="2">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="F14" s="7">
         <f>1000/E14/1.757</f>
-        <v>323.38179748538312</v>
+        <v>369.57919712615217</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>1.1549349910192255</v>
+        <v>1.2832611011324728</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E15" s="2">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="F15" s="7">
         <f>1000/E15/1.757</f>
-        <v>316.19553531904131</v>
+        <v>357.95720979514107</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>1.1292697689965761</v>
+        <v>1.4914883741464211</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1053,173 +1046,173 @@
         <v>49</v>
       </c>
       <c r="D16" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E16" s="2">
-        <v>1.8140000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="F16" s="7">
         <f>1000/E16/1.757</f>
-        <v>313.7552169648701</v>
+        <v>323.38179748538312</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>1.3073134040202921</v>
+        <v>1.1549349910192255</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="E17" s="2">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="F17" s="7">
         <f>1000/E17/1.757</f>
-        <v>264.72184352291833</v>
+        <v>316.19553531904131</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>1.5041013836529451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1292697689965761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E18" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="F18" s="6">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="F18" s="7">
         <f>1000/E18/1.757</f>
-        <v>263.49627943253444</v>
+        <v>313.7552169648701</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>1.3174813971626722</v>
+        <v>1.3073134040202921</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="E19" s="2">
-        <v>2.1880000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F19" s="7">
         <f>1000/E19/1.757</f>
-        <v>260.12429779445807</v>
+        <v>274.95263940786202</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>1.4451349877469892</v>
+        <v>0.74715391143440768</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
-        <v>2.59</v>
+        <v>2.15</v>
       </c>
       <c r="F20" s="7">
         <f>1000/E20/1.757</f>
-        <v>219.74979288582023</v>
+        <v>264.72184352291833</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.5041013836529451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="F21" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="F21" s="6">
         <f>1000/E21/1.757</f>
-        <v>213.96690359935124</v>
+        <v>263.49627943253444</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.9811750333273264</v>
+        <v>1.3174813971626722</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
-        <v>192</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.82</v>
+        <v>180</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.1880000000000002</v>
       </c>
       <c r="F22" s="7">
         <f>1000/E22/1.757</f>
-        <v>201.82693743768596</v>
+        <v>260.12429779445807</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.0511819658212811</v>
+        <v>1.4451349877469892</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1231,840 +1224,840 @@
         <v>168</v>
       </c>
       <c r="E23" s="2">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="F23" s="7">
         <f>1000/E23/1.757</f>
-        <v>194.24981691954756</v>
+        <v>219.74979288582023</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.1562489102354021</v>
+        <v>1.3080344814632157</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="E24" s="2">
-        <v>3.08</v>
+        <v>2.66</v>
       </c>
       <c r="F24" s="7">
         <f>1000/E24/1.757</f>
-        <v>184.78959856307608</v>
+        <v>213.96690359935124</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>0.76995666067948365</v>
+        <v>1.9811750333273264</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2">
-        <v>3.77</v>
+        <v>2.79</v>
       </c>
       <c r="F25" s="7">
         <f>1000/E25/1.757</f>
-        <v>150.96869060325579</v>
+        <v>203.99711956067179</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>1.2580724216937982</v>
+        <v>0.7083233318078882</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
-        <v>180</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3.827</v>
+        <v>192</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.82</v>
       </c>
       <c r="F26" s="7">
         <f>1000/E26/1.757</f>
-        <v>148.72013681062825</v>
+        <v>201.82693743768596</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>0.826222982281268</v>
+        <v>1.0511819658212811</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2">
-        <v>4.1900000000000004</v>
+        <v>2.93</v>
       </c>
       <c r="F27" s="7">
         <f>1000/E27/1.757</f>
-        <v>135.83579082918243</v>
+        <v>194.24981691954756</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>0.7717942660749002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1562489102354021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F28" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="F28" s="7">
         <f>1000/E28/1.757</f>
-        <v>129.35271899415326</v>
+        <v>184.78959856307608</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>0.95112293378053869</v>
+        <v>0.76995666067948365</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1">
-        <v>192</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4.43</v>
+        <v>120</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.77</v>
       </c>
       <c r="F29" s="7">
         <f>1000/E29/1.757</f>
-        <v>128.4767412131545</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>0.66914969381851297</v>
+        <v>1.2580724216937982</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2">
-        <v>4.57</v>
+        <v>3.827</v>
       </c>
       <c r="F30" s="7">
         <f>1000/E30/1.757</f>
-        <v>124.54091106658082</v>
+        <v>148.72013681062825</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>1.1531565839498223</v>
+        <v>0.826222982281268</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2">
-        <v>4.84</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F31" s="7">
         <f>1000/E31/1.757</f>
-        <v>117.5933809037757</v>
+        <v>135.83579082918243</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>0.69996060061771248</v>
+        <v>0.7717942660749002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2">
-        <v>5.05</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F32" s="6">
         <f>1000/E32/1.757</f>
-        <v>112.70335912361868</v>
+        <v>129.35271899415326</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>0.78266221613624087</v>
+        <v>0.95112293378053869</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1">
-        <v>84</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5.21</v>
+        <v>192</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.43</v>
       </c>
       <c r="F33" s="7">
         <f>1000/E33/1.757</f>
-        <v>109.24221949602196</v>
+        <v>128.4767412131545</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.66914969381851297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="1">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F34" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F34" s="7">
         <f>1000/E34/1.757</f>
-        <v>106.98345179967562</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>1.3372931474959453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1531565839498223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="1">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2">
-        <v>5.57</v>
-      </c>
-      <c r="F35" s="6">
+        <v>4.84</v>
+      </c>
+      <c r="F35" s="7">
         <f>1000/E35/1.757</f>
-        <v>102.18168107258067</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>0.75133589023956382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2">
-        <v>6</v>
-      </c>
-      <c r="F36" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="F36" s="6">
         <f>1000/E36/1.757</f>
-        <v>94.858660595712394</v>
+        <v>112.70335912361868</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>0.87832093144178147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.78266221613624087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F37" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="F37" s="7">
         <f>1000/E37/1.757</f>
-        <v>89.208771720105702</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>72</v>
-      </c>
-      <c r="E38" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F38" s="7">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="F38" s="6">
         <f>1000/E38/1.757</f>
-        <v>75.484345301627897</v>
+        <v>106.98345179967562</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
-        <v>1.0483936847448319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="1">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2">
-        <v>8.11</v>
-      </c>
-      <c r="F39" s="7">
+        <v>5.57</v>
+      </c>
+      <c r="F39" s="6">
         <f>1000/E39/1.757</f>
-        <v>70.179033732956157</v>
+        <v>102.18168107258067</v>
       </c>
       <c r="G39" s="2">
         <f>F39/D39</f>
-        <v>0.58482528110796794</v>
+        <v>0.75133589023956382</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2">
-        <v>8.7100000000000009</v>
+        <v>6</v>
       </c>
       <c r="F40" s="7">
         <f>1000/E40/1.757</f>
-        <v>65.344657126782351</v>
+        <v>94.858660595712394</v>
       </c>
       <c r="G40" s="2">
         <f>F40/D40</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.87832093144178147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="F41" s="7">
+        <v>6.38</v>
+      </c>
+      <c r="F41" s="6">
         <f>1000/E41/1.757</f>
-        <v>61.931660889474905</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G41" s="2">
         <f>F41/D41</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1">
         <v>72</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="1">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="F42" s="7">
         <f>1000/E42/1.757</f>
-        <v>61.331030557572667</v>
+        <v>75.484345301627897</v>
       </c>
       <c r="G42" s="2">
         <f>F42/D42</f>
-        <v>0.76663788196965832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.0483936847448319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E43" s="2">
-        <v>9.41</v>
-      </c>
-      <c r="F43" s="8">
+        <v>8.11</v>
+      </c>
+      <c r="F43" s="7">
         <f>1000/E43/1.757</f>
-        <v>60.483736830422359</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G43" s="2">
         <f>F43/D43</f>
-        <v>0.42002595021126637</v>
+        <v>0.58482528110796794</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
         <v>72</v>
       </c>
       <c r="E44" s="2">
-        <v>10.44</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="F44" s="7">
         <f>1000/E44/1.757</f>
-        <v>54.516471606731265</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G44" s="2">
         <f>F44/D44</f>
-        <v>0.75717321676015648</v>
+        <v>0.90756468231642151</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
-        <v>72</v>
-      </c>
-      <c r="E45" s="1">
-        <v>11.83</v>
+        <v>84</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9.19</v>
       </c>
       <c r="F45" s="7">
         <f>1000/E45/1.757</f>
-        <v>48.110901401037566</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G45" s="2">
         <f>F45/D45</f>
-        <v>0.66820696390329948</v>
+        <v>0.73728167725565363</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
         <v>80</v>
       </c>
       <c r="E46" s="2">
-        <v>12.2</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="F46" s="6">
         <f>1000/E46/1.757</f>
-        <v>46.651800292973313</v>
+        <v>61.331030557572667</v>
       </c>
       <c r="G46" s="2">
         <f>F46/D46</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.76663788196965832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F47" s="7">
+        <v>9.41</v>
+      </c>
+      <c r="F47" s="8">
         <f>1000/E47/1.757</f>
-        <v>38.198118360689556</v>
+        <v>60.483736830422359</v>
       </c>
       <c r="G47" s="2">
         <f>F47/D47</f>
-        <v>0.7957941325143657</v>
+        <v>0.42002595021126637</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1">
         <v>72</v>
       </c>
       <c r="E48" s="2">
-        <v>18.329999999999998</v>
+        <v>10.44</v>
       </c>
       <c r="F48" s="7">
         <f>1000/E48/1.757</f>
-        <v>31.050298067336303</v>
+        <v>54.516471606731265</v>
       </c>
       <c r="G48" s="2">
         <f>F48/D48</f>
-        <v>0.43125413982411531</v>
+        <v>0.75717321676015648</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <v>72</v>
       </c>
-      <c r="E49" s="2">
-        <v>19.02</v>
+      <c r="E49" s="1">
+        <v>11.83</v>
       </c>
       <c r="F49" s="7">
         <f>1000/E49/1.757</f>
-        <v>29.923867695808326</v>
+        <v>48.110901401037566</v>
       </c>
       <c r="G49" s="2">
         <f>F49/D49</f>
-        <v>0.4156092735528934</v>
+        <v>0.66820696390329948</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2">
-        <v>25.3</v>
+        <v>12.2</v>
       </c>
       <c r="F50" s="6">
         <f>1000/E50/1.757</f>
-        <v>22.496125042461436</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G50" s="2">
         <f>F50/D50</f>
-        <v>0.70300390757691988</v>
+        <v>0.58314750366216639</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E51" s="2">
-        <v>27</v>
+        <v>14.9</v>
       </c>
       <c r="F51" s="7">
         <f>1000/E51/1.757</f>
-        <v>21.079702354602755</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G51" s="2">
         <f>F51/D51</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2">
-        <v>27.21</v>
-      </c>
-      <c r="F52" s="6">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F52" s="7">
         <f>1000/E52/1.757</f>
-        <v>20.917014464324673</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G52" s="2">
         <f>F52/D52</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2">
-        <v>27.23</v>
-      </c>
-      <c r="F53" s="6">
+        <v>19.02</v>
+      </c>
+      <c r="F53" s="7">
         <f>1000/E53/1.757</f>
-        <v>20.901651251350508</v>
+        <v>29.923867695808326</v>
       </c>
       <c r="G53" s="2">
         <f>F53/D53</f>
-        <v>1.3063532032094067</v>
+        <v>0.4156092735528934</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E54" s="2">
-        <v>27.52</v>
+        <v>25.3</v>
       </c>
       <c r="F54" s="6">
         <f>1000/E54/1.757</f>
-        <v>20.681394025227995</v>
+        <v>22.496125042461436</v>
       </c>
       <c r="G54" s="2">
         <f>F54/D54</f>
-        <v>0.43086237552558321</v>
+        <v>0.70300390757691988</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E55" s="2">
-        <v>33</v>
+        <v>27.52</v>
       </c>
       <c r="F55" s="6">
         <f>1000/E55/1.757</f>
-        <v>17.247029199220435</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G55" s="2">
         <f>F55/D55</f>
-        <v>0.7186262166341848</v>
+        <v>0.43086237552558321</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D56" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2">
-        <v>36.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F56" s="6">
         <f>1000/E56/1.757</f>
-        <v>15.466085966692239</v>
+        <v>17.247029199220435</v>
       </c>
       <c r="G56" s="2">
         <f>F56/D56</f>
-        <v>0.96663037291826492</v>
+        <v>0.7186262166341848</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2094,13 +2087,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1">
         <v>24</v>
@@ -2119,177 +2112,173 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2">
-        <v>55.1</v>
-      </c>
-      <c r="F59" s="6">
+        <v>67</v>
+      </c>
+      <c r="F59" s="4">
         <f>1000/E59/1.757</f>
-        <v>10.329436725485923</v>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G59" s="2">
         <f>F59/D59</f>
-        <v>1.2911795906857404</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.53092533915510665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2">
-        <v>59</v>
-      </c>
-      <c r="F60" s="3">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F60" s="4">
         <f>1000/E60/1.757</f>
-        <v>9.64664345041143</v>
+        <v>7.9158826644544416</v>
       </c>
       <c r="G60" s="2">
         <f>F60/D60</f>
-        <v>1.2058304313014288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="F61" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F61" s="4">
         <f>1000/E61/1.757</f>
-        <v>9.2545034727524289</v>
+        <v>7.7330429833461194</v>
       </c>
       <c r="G61" s="2">
         <f>F61/D61</f>
-        <v>1.1568129340940536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.12888404972243533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="1">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="D62" s="6">
+        <v>16</v>
       </c>
       <c r="E62" s="2">
-        <v>61.55</v>
-      </c>
-      <c r="F62" s="3">
+        <v>74</v>
+      </c>
+      <c r="F62" s="4">
         <f>1000/E62/1.757</f>
-        <v>9.2469855982822793</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G62" s="2">
         <f>F62/D62</f>
-        <v>1.1558731997852849</v>
+        <v>0.48070267193773175</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D63" s="6">
+        <v>20</v>
       </c>
       <c r="E63" s="2">
-        <v>62.1</v>
+        <v>78</v>
       </c>
       <c r="F63" s="4">
         <f>1000/E63/1.757</f>
-        <v>9.1650879802620668</v>
+        <v>7.2968200458240311</v>
       </c>
       <c r="G63" s="2">
         <f>F63/D63</f>
-        <v>0.57281799876637918</v>
+        <v>0.36484100229120153</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D64" s="6">
+        <v>60</v>
       </c>
       <c r="E64" s="2">
-        <v>67</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="F64" s="4">
-        <f>1000/E64/1.757</f>
-        <v>8.4948054264817063</v>
-      </c>
-      <c r="G64" s="2">
-        <f>F64/D64</f>
-        <v>0.53092533915510665</v>
+        <v>7.2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D65" s="6">
+        <v>20</v>
       </c>
       <c r="E65" s="2">
-        <v>71.900000000000006</v>
+        <v>82.4</v>
       </c>
       <c r="F65" s="4">
-        <f>1000/E65/1.757</f>
-        <v>7.9158826644544416</v>
-      </c>
-      <c r="G65" s="2">
-        <f>F65/D65</f>
-        <v>0.4947426665284026</v>
+        <v>6.9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.35</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2297,29 +2286,29 @@
         <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="6">
         <v>60</v>
       </c>
       <c r="E66" s="2">
-        <v>73.599999999999994</v>
+        <v>85.5</v>
       </c>
       <c r="F66" s="4">
         <f>1000/E66/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>6.6567481119798169</v>
       </c>
       <c r="G66" s="2">
         <f>F66/D66</f>
-        <v>0.12888404972243533</v>
+        <v>0.11094580186633028</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>8</v>
@@ -2327,120 +2316,124 @@
       <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="6">
         <v>16</v>
       </c>
       <c r="E67" s="2">
-        <v>74</v>
+        <v>93.5</v>
       </c>
       <c r="F67" s="4">
         <f>1000/E67/1.757</f>
-        <v>7.691242751003708</v>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G67" s="2">
         <f>F67/D67</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.38044917351221547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="1">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D68" s="6">
+        <v>16</v>
       </c>
       <c r="E68" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" s="4">
+        <v>107.1</v>
+      </c>
+      <c r="F68" s="3">
         <f>1000/E68/1.757</f>
-        <v>7.2968200458240311</v>
+        <v>5.314210677630947</v>
       </c>
       <c r="G68" s="2">
         <f>F68/D68</f>
-        <v>0.36484100229120153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="2">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D69" s="6">
+        <v>16</v>
       </c>
       <c r="E69" s="2">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="F69" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.2</v>
+      </c>
+      <c r="F69" s="3">
+        <f>1000/E69/1.757</f>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G69" s="2">
+        <f>F69/D69</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="1">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="D70" s="6">
+        <v>16</v>
       </c>
       <c r="E70" s="2">
-        <v>80</v>
-      </c>
-      <c r="F70" s="4">
+        <v>108.1</v>
+      </c>
+      <c r="F70" s="3">
         <f>1000/E70/1.757</f>
-        <v>7.1143995446784292</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G70" s="2">
         <f>F70/D70</f>
-        <v>0.88929994308480365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="2">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D71" s="6">
+        <v>16</v>
       </c>
       <c r="E71" s="2">
-        <v>82.4</v>
-      </c>
-      <c r="F71" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.35</v>
+        <v>121</v>
+      </c>
+      <c r="F71" s="3">
+        <f>1000/E71/1.757</f>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G71" s="2">
+        <f>F71/D71</f>
+        <v>0.29398345225943923</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
@@ -2448,300 +2441,125 @@
       <c r="C72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="1">
-        <v>60</v>
+      <c r="D72" s="6">
+        <v>20</v>
       </c>
       <c r="E72" s="2">
-        <v>85.5</v>
+        <v>124.8</v>
       </c>
       <c r="F72" s="4">
-        <f>1000/E72/1.757</f>
-        <v>6.6567481119798169</v>
-      </c>
-      <c r="G72" s="2">
-        <f>F72/D72</f>
-        <v>0.11094580186633028</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.23</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="1">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D73" s="6">
+        <v>60</v>
       </c>
       <c r="E73" s="2">
-        <v>93.5</v>
+        <v>124.6</v>
       </c>
       <c r="F73" s="4">
-        <f>1000/E73/1.757</f>
-        <v>6.0871867761954475</v>
-      </c>
-      <c r="G73" s="2">
-        <f>F73/D73</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="1">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="C74" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D74" s="6">
+        <v>24</v>
       </c>
       <c r="E74" s="2">
-        <v>96</v>
-      </c>
-      <c r="F74" s="3">
+        <v>254</v>
+      </c>
+      <c r="F74" s="4">
         <f>1000/E74/1.757</f>
-        <v>5.9286662872320246</v>
+        <v>2.2407557621034426</v>
       </c>
       <c r="G74" s="2">
         <f>F74/D74</f>
-        <v>0.74108328590400308</v>
+        <v>9.3364823420976781E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C75" s="5">
+        <v>8051</v>
       </c>
       <c r="D75" s="1">
         <v>16</v>
       </c>
       <c r="E75" s="2">
-        <v>107.1</v>
+        <v>883</v>
       </c>
       <c r="F75" s="3">
         <f>1000/E75/1.757</f>
-        <v>5.314210677630947</v>
+        <v>0.64456621016339111</v>
       </c>
       <c r="G75" s="2">
         <f>F75/D75</f>
-        <v>0.33213816735193419</v>
+        <v>4.0285388135211944E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C76" s="5">
+        <v>8051</v>
       </c>
       <c r="D76" s="1">
         <v>16</v>
       </c>
       <c r="E76" s="2">
-        <v>107.2</v>
+        <v>884</v>
       </c>
       <c r="F76" s="3">
         <f>1000/E76/1.757</f>
-        <v>5.3092533915510671</v>
+        <v>0.64383706286682618</v>
       </c>
       <c r="G76" s="2">
         <f>F76/D76</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="1">
-        <v>16</v>
-      </c>
-      <c r="E77" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F77" s="3">
-        <f>1000/E77/1.757</f>
-        <v>5.265050541852677</v>
-      </c>
-      <c r="G77" s="2">
-        <f>F77/D77</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="1">
-        <v>16</v>
-      </c>
-      <c r="E78" s="2">
-        <v>121</v>
-      </c>
-      <c r="F78" s="3">
-        <f>1000/E78/1.757</f>
-        <v>4.7037352361510276</v>
-      </c>
-      <c r="G78" s="2">
-        <f>F78/D78</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="2">
-        <v>20</v>
-      </c>
-      <c r="E79" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="F79" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="2">
-        <v>60</v>
-      </c>
-      <c r="E80" s="2">
-        <v>124.6</v>
-      </c>
-      <c r="F80" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D81" s="1">
-        <v>24</v>
-      </c>
-      <c r="E81" s="2">
-        <v>254</v>
-      </c>
-      <c r="F81" s="4">
-        <f>1000/E81/1.757</f>
-        <v>2.2407557621034426</v>
-      </c>
-      <c r="G81" s="2">
-        <f>F81/D81</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D82" s="1">
-        <v>16</v>
-      </c>
-      <c r="E82" s="2">
-        <v>883</v>
-      </c>
-      <c r="F82" s="3">
-        <f>1000/E82/1.757</f>
-        <v>0.64456621016339111</v>
-      </c>
-      <c r="G82" s="2">
-        <f>F82/D82</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D83" s="1">
-        <v>16</v>
-      </c>
-      <c r="E83" s="2">
-        <v>884</v>
-      </c>
-      <c r="F83" s="3">
-        <f>1000/E83/1.757</f>
-        <v>0.64383706286682618</v>
-      </c>
-      <c r="G83" s="2">
-        <f>F83/D83</f>
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H83">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G76">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I60">
-    <sortCondition descending="1" ref="F2:F60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I54">
+    <sortCondition descending="1" ref="F2:F54"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE845A-BDEE-45A3-B15C-5CDA7A77DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4FFB-A98F-4131-A013-420EE25872A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="-109" windowWidth="22434" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="79">
   <si>
     <t>MCU</t>
   </si>
@@ -288,6 +288,14 @@
   </si>
   <si>
     <t>AT32F435CMT7(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303CCT6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F303CCT6(oc)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -702,11 +710,11 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
-        <f>1000/E2/1.757</f>
+        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f>F2/D2</f>
+        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
@@ -727,11 +735,11 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
-        <f>1000/E3/1.757</f>
+        <f t="shared" si="0"/>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/D3</f>
+        <f t="shared" si="1"/>
         <v>2.6167906371231004</v>
       </c>
     </row>
@@ -752,11 +760,11 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f>1000/E4/1.757</f>
+        <f t="shared" si="0"/>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/D4</f>
+        <f t="shared" si="1"/>
         <v>2.1624314725466349</v>
       </c>
     </row>
@@ -777,11 +785,11 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f>1000/E5/1.757</f>
+        <f t="shared" si="0"/>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/D5</f>
+        <f t="shared" si="1"/>
         <v>2.9422661475096898</v>
       </c>
     </row>
@@ -802,11 +810,11 @@
         <v>0.61</v>
       </c>
       <c r="F6" s="6">
-        <f>1000/E6/1.757</f>
+        <f t="shared" si="0"/>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/D6</f>
+        <f t="shared" si="1"/>
         <v>1.9438250122072211</v>
       </c>
     </row>
@@ -827,11 +835,11 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f>1000/E7/1.757</f>
+        <f t="shared" si="0"/>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/D7</f>
+        <f t="shared" si="1"/>
         <v>1.0416397576395944</v>
       </c>
     </row>
@@ -852,11 +860,11 @@
         <v>1.08</v>
       </c>
       <c r="F8" s="6">
-        <f>1000/E8/1.757</f>
+        <f t="shared" si="0"/>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -877,11 +885,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="7">
-        <f>1000/E9/1.757</f>
+        <f t="shared" si="0"/>
         <v>494.91475093415164</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/D9</f>
+        <f t="shared" si="1"/>
         <v>1.3448770405819339</v>
       </c>
     </row>
@@ -902,11 +910,11 @@
         <v>1.21</v>
       </c>
       <c r="F10" s="7">
-        <f>1000/E10/1.757</f>
+        <f t="shared" si="0"/>
         <v>470.37352361510278</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/D10</f>
+        <f t="shared" si="1"/>
         <v>1.3065931211530633</v>
       </c>
     </row>
@@ -927,11 +935,11 @@
         <v>1.232</v>
       </c>
       <c r="F11" s="7">
-        <f>1000/E11/1.757</f>
+        <f t="shared" si="0"/>
         <v>461.97399640769027</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/D11</f>
+        <f t="shared" si="1"/>
         <v>1.4436687387740321</v>
       </c>
     </row>
@@ -952,11 +960,11 @@
         <v>1.4</v>
       </c>
       <c r="F12" s="7">
-        <f>1000/E12/1.757</f>
+        <f t="shared" si="0"/>
         <v>406.53711683876742</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/D12</f>
+        <f t="shared" si="1"/>
         <v>1.4946217530837038</v>
       </c>
     </row>
@@ -977,11 +985,11 @@
         <v>1.49</v>
       </c>
       <c r="F13" s="7">
-        <f>1000/E13/1.757</f>
+        <f t="shared" si="0"/>
         <v>381.98118360689551</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/D13</f>
+        <f t="shared" si="1"/>
         <v>1.9894853312859142</v>
       </c>
     </row>
@@ -1002,11 +1010,11 @@
         <v>1.54</v>
       </c>
       <c r="F14" s="7">
-        <f>1000/E14/1.757</f>
+        <f t="shared" si="0"/>
         <v>369.57919712615217</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/D14</f>
+        <f t="shared" si="1"/>
         <v>1.2832611011324728</v>
       </c>
     </row>
@@ -1027,11 +1035,11 @@
         <v>1.59</v>
       </c>
       <c r="F15" s="7">
-        <f>1000/E15/1.757</f>
+        <f t="shared" si="0"/>
         <v>357.95720979514107</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/D15</f>
+        <f t="shared" si="1"/>
         <v>1.4914883741464211</v>
       </c>
     </row>
@@ -1052,11 +1060,11 @@
         <v>1.76</v>
       </c>
       <c r="F16" s="7">
-        <f>1000/E16/1.757</f>
+        <f t="shared" si="0"/>
         <v>323.38179748538312</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/D16</f>
+        <f t="shared" si="1"/>
         <v>1.1549349910192255</v>
       </c>
     </row>
@@ -1077,11 +1085,11 @@
         <v>1.8</v>
       </c>
       <c r="F17" s="7">
-        <f>1000/E17/1.757</f>
+        <f t="shared" si="0"/>
         <v>316.19553531904131</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.1292697689965761</v>
       </c>
     </row>
@@ -1102,11 +1110,11 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="F18" s="7">
-        <f>1000/E18/1.757</f>
+        <f t="shared" si="0"/>
         <v>313.7552169648701</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/D18</f>
+        <f t="shared" si="1"/>
         <v>1.3073134040202921</v>
       </c>
     </row>
@@ -1127,11 +1135,11 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F19" s="7">
-        <f>1000/E19/1.757</f>
+        <f t="shared" si="0"/>
         <v>274.95263940786202</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/D19</f>
+        <f t="shared" si="1"/>
         <v>0.74715391143440768</v>
       </c>
     </row>
@@ -1152,11 +1160,11 @@
         <v>2.15</v>
       </c>
       <c r="F20" s="7">
-        <f>1000/E20/1.757</f>
+        <f t="shared" si="0"/>
         <v>264.72184352291833</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.5041013836529451</v>
       </c>
     </row>
@@ -1177,11 +1185,11 @@
         <v>2.16</v>
       </c>
       <c r="F21" s="6">
-        <f>1000/E21/1.757</f>
+        <f t="shared" si="0"/>
         <v>263.49627943253444</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/D21</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -1202,11 +1210,11 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="F22" s="7">
-        <f>1000/E22/1.757</f>
+        <f t="shared" si="0"/>
         <v>260.12429779445807</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/D22</f>
+        <f t="shared" si="1"/>
         <v>1.4451349877469892</v>
       </c>
     </row>
@@ -1227,11 +1235,11 @@
         <v>2.59</v>
       </c>
       <c r="F23" s="7">
-        <f>1000/E23/1.757</f>
+        <f t="shared" si="0"/>
         <v>219.74979288582023</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/D23</f>
+        <f t="shared" si="1"/>
         <v>1.3080344814632157</v>
       </c>
     </row>
@@ -1252,11 +1260,11 @@
         <v>2.66</v>
       </c>
       <c r="F24" s="7">
-        <f>1000/E24/1.757</f>
+        <f t="shared" si="0"/>
         <v>213.96690359935124</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/D24</f>
+        <f t="shared" si="1"/>
         <v>1.9811750333273264</v>
       </c>
     </row>
@@ -1277,11 +1285,11 @@
         <v>2.79</v>
       </c>
       <c r="F25" s="7">
-        <f>1000/E25/1.757</f>
+        <f t="shared" si="0"/>
         <v>203.99711956067179</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/D25</f>
+        <f t="shared" si="1"/>
         <v>0.7083233318078882</v>
       </c>
     </row>
@@ -1302,11 +1310,11 @@
         <v>2.82</v>
       </c>
       <c r="F26" s="7">
-        <f>1000/E26/1.757</f>
+        <f t="shared" si="0"/>
         <v>201.82693743768596</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/D26</f>
+        <f t="shared" si="1"/>
         <v>1.0511819658212811</v>
       </c>
     </row>
@@ -1327,11 +1335,11 @@
         <v>2.93</v>
       </c>
       <c r="F27" s="7">
-        <f>1000/E27/1.757</f>
+        <f t="shared" si="0"/>
         <v>194.24981691954756</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/D27</f>
+        <f t="shared" si="1"/>
         <v>1.1562489102354021</v>
       </c>
     </row>
@@ -1352,11 +1360,11 @@
         <v>3.08</v>
       </c>
       <c r="F28" s="7">
-        <f>1000/E28/1.757</f>
+        <f t="shared" si="0"/>
         <v>184.78959856307608</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/D28</f>
+        <f t="shared" si="1"/>
         <v>0.76995666067948365</v>
       </c>
     </row>
@@ -1377,11 +1385,11 @@
         <v>3.77</v>
       </c>
       <c r="F29" s="7">
-        <f>1000/E29/1.757</f>
+        <f t="shared" si="0"/>
         <v>150.96869060325579</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/D29</f>
+        <f t="shared" si="1"/>
         <v>1.2580724216937982</v>
       </c>
     </row>
@@ -1402,11 +1410,11 @@
         <v>3.827</v>
       </c>
       <c r="F30" s="7">
-        <f>1000/E30/1.757</f>
+        <f t="shared" si="0"/>
         <v>148.72013681062825</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/D30</f>
+        <f t="shared" si="1"/>
         <v>0.826222982281268</v>
       </c>
     </row>
@@ -1427,11 +1435,11 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="F31" s="7">
-        <f>1000/E31/1.757</f>
+        <f t="shared" si="0"/>
         <v>135.83579082918243</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/D31</f>
+        <f t="shared" si="1"/>
         <v>0.7717942660749002</v>
       </c>
     </row>
@@ -1452,11 +1460,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F32" s="6">
-        <f>1000/E32/1.757</f>
+        <f t="shared" si="0"/>
         <v>129.35271899415326</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/D32</f>
+        <f t="shared" si="1"/>
         <v>0.95112293378053869</v>
       </c>
     </row>
@@ -1477,11 +1485,11 @@
         <v>4.43</v>
       </c>
       <c r="F33" s="7">
-        <f>1000/E33/1.757</f>
+        <f t="shared" si="0"/>
         <v>128.4767412131545</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/D33</f>
+        <f t="shared" si="1"/>
         <v>0.66914969381851297</v>
       </c>
     </row>
@@ -1502,445 +1510,445 @@
         <v>4.57</v>
       </c>
       <c r="F34" s="7">
-        <f>1000/E34/1.757</f>
+        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
         <v>124.54091106658082</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/D34</f>
+        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
         <v>1.1531565839498223</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="1">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
+        <v>120.83905808371006</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94405514127898482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1">
         <v>168</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>4.84</v>
       </c>
-      <c r="F35" s="7">
-        <f>1000/E35/1.757</f>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
         <v>117.5933809037757</v>
       </c>
-      <c r="G35" s="2">
-        <f>F35/D35</f>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>144</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>5.05</v>
       </c>
-      <c r="F36" s="6">
-        <f>1000/E36/1.757</f>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
         <v>112.70335912361868</v>
       </c>
-      <c r="G36" s="2">
-        <f>F36/D36</f>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
         <v>0.78266221613624087</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="1">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="F37" s="7">
-        <f>1000/E37/1.757</f>
-        <v>109.24221949602196</v>
-      </c>
-      <c r="G37" s="2">
-        <f>F37/D37</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F38" s="6">
-        <f>1000/E38/1.757</f>
-        <v>106.98345179967562</v>
+        <v>5.21</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>109.24221949602196</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/D38</f>
-        <v>1.3372931474959453</v>
+        <f t="shared" si="3"/>
+        <v>1.3005026130478805</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="1">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>106.98345179967562</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1">
         <v>136</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="2">
         <v>5.57</v>
       </c>
-      <c r="F39" s="6">
-        <f>1000/E39/1.757</f>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
         <v>102.18168107258067</v>
       </c>
-      <c r="G39" s="2">
-        <f>F39/D39</f>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
         <v>0.75133589023956382</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>108</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="7">
-        <f>1000/E40/1.757</f>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
         <v>94.858660595712394</v>
       </c>
-      <c r="G40" s="2">
-        <f>F40/D40</f>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
         <v>0.87832093144178147</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>80</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="2">
         <v>6.38</v>
       </c>
-      <c r="F41" s="6">
-        <f>1000/E41/1.757</f>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
         <v>89.208771720105702</v>
       </c>
-      <c r="G41" s="2">
-        <f>F41/D41</f>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
         <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="1">
-        <v>72</v>
-      </c>
-      <c r="E42" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F42" s="7">
-        <f>1000/E42/1.757</f>
-        <v>75.484345301627897</v>
-      </c>
-      <c r="G42" s="2">
-        <f>F42/D42</f>
-        <v>1.0483936847448319</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
-        <v>120</v>
-      </c>
-      <c r="E43" s="2">
-        <v>8.11</v>
+        <v>72</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.54</v>
       </c>
       <c r="F43" s="7">
-        <f>1000/E43/1.757</f>
-        <v>70.179033732956157</v>
+        <f t="shared" si="2"/>
+        <v>75.484345301627897</v>
       </c>
       <c r="G43" s="2">
-        <f>F43/D43</f>
-        <v>0.58482528110796794</v>
+        <f t="shared" si="3"/>
+        <v>1.0483936847448319</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E44" s="2">
-        <v>8.7100000000000009</v>
+        <v>8.11</v>
       </c>
       <c r="F44" s="7">
-        <f>1000/E44/1.757</f>
-        <v>65.344657126782351</v>
+        <f t="shared" si="2"/>
+        <v>70.179033732956157</v>
       </c>
       <c r="G44" s="2">
-        <f>F44/D44</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="1">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>67.037922682482261</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.93108225947892032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
+        <v>65.344657126782351</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="1">
         <v>84</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E47" s="2">
         <v>9.19</v>
       </c>
-      <c r="F45" s="7">
-        <f>1000/E45/1.757</f>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
         <v>61.931660889474905</v>
       </c>
-      <c r="G45" s="2">
-        <f>F45/D45</f>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
         <v>0.73728167725565363</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D48" s="1">
         <v>80</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E48" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F46" s="6">
-        <f>1000/E46/1.757</f>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
         <v>61.331030557572667</v>
       </c>
-      <c r="G46" s="2">
-        <f>F46/D46</f>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
         <v>0.76663788196965832</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D49" s="1">
         <v>144</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E49" s="2">
         <v>9.41</v>
       </c>
-      <c r="F47" s="8">
-        <f>1000/E47/1.757</f>
+      <c r="F49" s="8">
+        <f t="shared" si="2"/>
         <v>60.483736830422359</v>
       </c>
-      <c r="G47" s="2">
-        <f>F47/D47</f>
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
         <v>0.42002595021126637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2">
-        <v>10.44</v>
-      </c>
-      <c r="F48" s="7">
-        <f>1000/E48/1.757</f>
-        <v>54.516471606731265</v>
-      </c>
-      <c r="G48" s="2">
-        <f>F48/D48</f>
-        <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="1">
-        <v>72</v>
-      </c>
-      <c r="E49" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F49" s="7">
-        <f>1000/E49/1.757</f>
-        <v>48.110901401037566</v>
-      </c>
-      <c r="G49" s="2">
-        <f>F49/D49</f>
-        <v>0.66820696390329948</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2">
-        <v>12.2</v>
+        <v>9.49</v>
       </c>
       <c r="F50" s="6">
-        <f>1000/E50/1.757</f>
-        <v>46.651800292973313</v>
+        <f t="shared" si="2"/>
+        <v>59.973863390334493</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/D50</f>
-        <v>0.58314750366216639</v>
+        <f t="shared" si="3"/>
+        <v>0.46854580773698823</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2">
-        <v>14.9</v>
+        <v>10.44</v>
       </c>
       <c r="F51" s="7">
-        <f>1000/E51/1.757</f>
-        <v>38.198118360689556</v>
+        <f t="shared" si="2"/>
+        <v>54.516471606731265</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/D51</f>
-        <v>0.7957941325143657</v>
+        <f t="shared" si="3"/>
+        <v>0.75717321676015648</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
@@ -1948,46 +1956,46 @@
       <c r="D52" s="1">
         <v>72</v>
       </c>
-      <c r="E52" s="2">
-        <v>18.329999999999998</v>
+      <c r="E52" s="1">
+        <v>11.83</v>
       </c>
       <c r="F52" s="7">
-        <f>1000/E52/1.757</f>
-        <v>31.050298067336303</v>
+        <f t="shared" si="2"/>
+        <v>48.110901401037566</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/D52</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F53" s="7">
-        <f>1000/E53/1.757</f>
-        <v>29.923867695808326</v>
+        <v>12.2</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
+        <v>46.651800292973313</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/D53</f>
-        <v>0.4156092735528934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -1996,271 +2004,273 @@
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F54" s="6">
-        <f>1000/E54/1.757</f>
-        <v>22.496125042461436</v>
+        <v>14.9</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="2"/>
+        <v>38.198118360689556</v>
       </c>
       <c r="G54" s="2">
-        <f>F54/D54</f>
-        <v>0.70300390757691988</v>
+        <f t="shared" si="3"/>
+        <v>0.7957941325143657</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
+        <v>33.878093069897282</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47052907041524006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="1">
-        <v>48</v>
-      </c>
-      <c r="E55" s="2">
-        <v>27.52</v>
-      </c>
-      <c r="F55" s="6">
-        <f>1000/E55/1.757</f>
-        <v>20.681394025227995</v>
-      </c>
-      <c r="G55" s="2">
-        <f>F55/D55</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2">
-        <v>33</v>
-      </c>
-      <c r="F56" s="6">
-        <f>1000/E56/1.757</f>
-        <v>17.247029199220435</v>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="2"/>
+        <v>31.050298067336303</v>
       </c>
       <c r="G56" s="2">
-        <f>F56/D56</f>
-        <v>0.7186262166341848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F57" s="6">
-        <f>1000/E57/1.757</f>
-        <v>13.266945537861874</v>
+        <v>19.02</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="2"/>
+        <v>29.923867695808326</v>
       </c>
       <c r="G57" s="2">
-        <f>F57/D57</f>
-        <v>0.41459204805818356</v>
+        <f t="shared" si="3"/>
+        <v>0.4156092735528934</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E58" s="2">
-        <v>53.4</v>
+        <v>25.3</v>
       </c>
       <c r="F58" s="6">
-        <f>1000/E58/1.757</f>
-        <v>10.65827647142836</v>
+        <f t="shared" si="2"/>
+        <v>22.496125042461436</v>
       </c>
       <c r="G58" s="2">
-        <f>F58/D58</f>
-        <v>0.44409485297618168</v>
+        <f t="shared" si="3"/>
+        <v>0.70300390757691988</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E59" s="2">
-        <v>67</v>
-      </c>
-      <c r="F59" s="4">
-        <f>1000/E59/1.757</f>
-        <v>8.4948054264817063</v>
+        <v>27.52</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="2"/>
+        <v>20.681394025227995</v>
       </c>
       <c r="G59" s="2">
-        <f>F59/D59</f>
-        <v>0.53092533915510665</v>
+        <f t="shared" si="3"/>
+        <v>0.43086237552558321</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D60" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E60" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F60" s="4">
-        <f>1000/E60/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>33</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="2"/>
+        <v>17.247029199220435</v>
       </c>
       <c r="G60" s="2">
-        <f>F60/D60</f>
-        <v>0.4947426665284026</v>
+        <f t="shared" si="3"/>
+        <v>0.7186262166341848</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E61" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F61" s="4">
-        <f>1000/E61/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>42.9</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="2"/>
+        <v>13.266945537861874</v>
       </c>
       <c r="G61" s="2">
-        <f>F61/D61</f>
-        <v>0.12888404972243533</v>
+        <f t="shared" si="3"/>
+        <v>0.41459204805818356</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="6">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D62" s="1">
+        <v>24</v>
       </c>
       <c r="E62" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" s="4">
-        <f>1000/E62/1.757</f>
-        <v>7.691242751003708</v>
+        <v>53.4</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="2"/>
+        <v>10.65827647142836</v>
       </c>
       <c r="G62" s="2">
-        <f>F62/D62</f>
-        <v>0.48070267193773175</v>
+        <f t="shared" si="3"/>
+        <v>0.44409485297618168</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="6">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="D63" s="1">
+        <v>16</v>
       </c>
       <c r="E63" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F63" s="4">
-        <f>1000/E63/1.757</f>
-        <v>7.2968200458240311</v>
+        <f t="shared" si="2"/>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G63" s="2">
-        <f>F63/D63</f>
-        <v>0.36484100229120153</v>
+        <f t="shared" si="3"/>
+        <v>0.53092533915510665</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="6">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D64" s="1">
+        <v>16</v>
       </c>
       <c r="E64" s="2">
-        <v>79.099999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F64" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.12</v>
+        <f t="shared" si="2"/>
+        <v>7.9158826644544416</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4947426665284026</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
@@ -2268,293 +2278,394 @@
       <c r="C65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="6">
-        <v>20</v>
+      <c r="D65" s="1">
+        <v>60</v>
       </c>
       <c r="E65" s="2">
-        <v>82.4</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F65" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>7.7330429833461194</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12888404972243533</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D66" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2">
-        <v>85.5</v>
+        <v>74</v>
       </c>
       <c r="F66" s="4">
-        <f>1000/E66/1.757</f>
-        <v>6.6567481119798169</v>
+        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
+        <v>7.691242751003708</v>
       </c>
       <c r="G66" s="2">
-        <f>F66/D66</f>
-        <v>0.11094580186633028</v>
+        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
+        <v>0.48070267193773175</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="6">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="4"/>
+        <v>7.2968200458240311</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36484100229120153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="6">
+        <v>60</v>
+      </c>
+      <c r="E68" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F68" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="6">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="F69" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="6">
+        <v>60</v>
+      </c>
+      <c r="E70" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ref="F70:F75" si="6">1000/E70/1.757</f>
+        <v>6.6567481119798169</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" ref="G70:G75" si="7">F70/D70</f>
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D67" s="6">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2">
-        <v>93.5</v>
-      </c>
-      <c r="F67" s="4">
-        <f>1000/E67/1.757</f>
-        <v>6.0871867761954475</v>
-      </c>
-      <c r="G67" s="2">
-        <f>F67/D67</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="6">
-        <v>16</v>
-      </c>
-      <c r="E68" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F68" s="3">
-        <f>1000/E68/1.757</f>
-        <v>5.314210677630947</v>
-      </c>
-      <c r="G68" s="2">
-        <f>F68/D68</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="6">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F69" s="3">
-        <f>1000/E69/1.757</f>
-        <v>5.3092533915510671</v>
-      </c>
-      <c r="G69" s="2">
-        <f>F69/D69</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="6">
-        <v>16</v>
-      </c>
-      <c r="E70" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F70" s="3">
-        <f>1000/E70/1.757</f>
-        <v>5.265050541852677</v>
-      </c>
-      <c r="G70" s="2">
-        <f>F70/D70</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D71" s="6">
         <v>16</v>
       </c>
       <c r="E71" s="2">
-        <v>121</v>
-      </c>
-      <c r="F71" s="3">
-        <f>1000/E71/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>93.5</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="6"/>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G71" s="2">
-        <f>F71/D71</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0.38044917351221547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D72" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E72" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="F72" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.1</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="6"/>
+        <v>5.314210677630947</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D73" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2">
-        <v>124.6</v>
-      </c>
-      <c r="F73" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.2</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="6"/>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="7"/>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D74" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2">
-        <v>254</v>
-      </c>
-      <c r="F74" s="4">
-        <f>1000/E74/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>108.1</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="6"/>
+        <v>5.265050541852677</v>
       </c>
       <c r="G74" s="2">
-        <f>F74/D74</f>
-        <v>9.3364823420976781E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.32906565886579231</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="6">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2">
+        <v>121</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7037352361510276</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="6">
+        <v>20</v>
+      </c>
+      <c r="E76" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F76" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="6">
+        <v>60</v>
+      </c>
+      <c r="E77" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D78" s="6">
+        <v>24</v>
+      </c>
+      <c r="E78" s="2">
+        <v>254</v>
+      </c>
+      <c r="F78" s="4">
+        <f>1000/E78/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G78" s="2">
+        <f>F78/D78</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C79" s="5">
         <v>8051</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D79" s="1">
         <v>16</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E79" s="2">
         <v>883</v>
       </c>
-      <c r="F75" s="3">
-        <f>1000/E75/1.757</f>
+      <c r="F79" s="3">
+        <f>1000/E79/1.757</f>
         <v>0.64456621016339111</v>
       </c>
-      <c r="G75" s="2">
-        <f>F75/D75</f>
+      <c r="G79" s="2">
+        <f>F79/D79</f>
         <v>4.0285388135211944E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C80" s="5">
         <v>8051</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D80" s="1">
         <v>16</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E80" s="2">
         <v>884</v>
       </c>
-      <c r="F76" s="3">
-        <f>1000/E76/1.757</f>
+      <c r="F80" s="3">
+        <f>1000/E80/1.757</f>
         <v>0.64383706286682618</v>
       </c>
-      <c r="G76" s="2">
-        <f>F76/D76</f>
+      <c r="G80" s="2">
+        <f>F80/D80</f>
         <v>4.0239816429176636E-2</v>
       </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G76">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G80">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF4FFB-A98F-4131-A013-420EE25872A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CA74A-FE5A-45AA-8202-398B98BA4DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-109" windowWidth="22434" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="869" yWindow="-109" windowWidth="22425" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
   <si>
     <t>MCU</t>
   </si>
@@ -296,6 +296,22 @@
   </si>
   <si>
     <t>STM32F303CCT6(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH32V305RB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RISC-V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -2310,11 +2326,11 @@
         <v>74</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
+        <f t="shared" ref="F66:F67" si="4">1000/E66/1.757</f>
         <v>7.691242751003708</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
+        <f t="shared" ref="G66:G67" si="5">F66/D66</f>
         <v>0.48070267193773175</v>
       </c>
     </row>
@@ -2660,8 +2676,105 @@
         <v>4.0239816429176636E-2</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81" s="6"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="1">
+        <v>144</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="F81" s="3">
+        <f>1000/E81/1.757</f>
+        <v>211.58065560381945</v>
+      </c>
+      <c r="G81" s="2">
+        <f>F81/D81</f>
+        <v>1.4693101083598572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1">
+        <v>144</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6.69</v>
+      </c>
+      <c r="F82" s="3">
+        <f>1000/E82/1.757</f>
+        <v>85.075031924405735</v>
+      </c>
+      <c r="G82" s="2">
+        <f>F82/D82</f>
+        <v>0.5907988328083732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="1">
+        <v>208</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="F83" s="3">
+        <f>1000/E83/1.757</f>
+        <v>307.64971004014831</v>
+      </c>
+      <c r="G83" s="2">
+        <f>F83/D83</f>
+        <v>1.47908514442379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="1">
+        <v>192</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F84" s="3">
+        <f>1000/E84/1.757</f>
+        <v>113.37688517415825</v>
+      </c>
+      <c r="G84" s="2">
+        <f>F84/D84</f>
+        <v>0.59050461028207424</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CA74A-FE5A-45AA-8202-398B98BA4DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C01D5F-466B-42F8-BA09-763FBAFF2A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="869" yWindow="-109" windowWidth="22425" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
   <si>
     <t>MCU</t>
   </si>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>Os</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH32V305RB(oc)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +673,8 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F4:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
@@ -726,11 +730,11 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
+        <f>1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
+        <f>F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
@@ -751,11 +755,11 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E3/1.757</f>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>F3/D3</f>
         <v>2.6167906371231004</v>
       </c>
     </row>
@@ -776,11 +780,11 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E4/1.757</f>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>F4/D4</f>
         <v>2.1624314725466349</v>
       </c>
     </row>
@@ -801,11 +805,11 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E5/1.757</f>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>F5/D5</f>
         <v>2.9422661475096898</v>
       </c>
     </row>
@@ -826,11 +830,11 @@
         <v>0.61</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E6/1.757</f>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>F6/D6</f>
         <v>1.9438250122072211</v>
       </c>
     </row>
@@ -851,11 +855,11 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E7/1.757</f>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>F7/D7</f>
         <v>1.0416397576395944</v>
       </c>
     </row>
@@ -876,11 +880,11 @@
         <v>1.08</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E8/1.757</f>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>F8/D8</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -901,11 +905,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E9/1.757</f>
         <v>494.91475093415164</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>F9/D9</f>
         <v>1.3448770405819339</v>
       </c>
     </row>
@@ -926,11 +930,11 @@
         <v>1.21</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E10/1.757</f>
         <v>470.37352361510278</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>F10/D10</f>
         <v>1.3065931211530633</v>
       </c>
     </row>
@@ -951,11 +955,11 @@
         <v>1.232</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E11/1.757</f>
         <v>461.97399640769027</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f>F11/D11</f>
         <v>1.4436687387740321</v>
       </c>
     </row>
@@ -976,11 +980,11 @@
         <v>1.4</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E12/1.757</f>
         <v>406.53711683876742</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f>F12/D12</f>
         <v>1.4946217530837038</v>
       </c>
     </row>
@@ -1001,11 +1005,11 @@
         <v>1.49</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E13/1.757</f>
         <v>381.98118360689551</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>F13/D13</f>
         <v>1.9894853312859142</v>
       </c>
     </row>
@@ -1026,11 +1030,11 @@
         <v>1.54</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E14/1.757</f>
         <v>369.57919712615217</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f>F14/D14</f>
         <v>1.2832611011324728</v>
       </c>
     </row>
@@ -1051,11 +1055,11 @@
         <v>1.59</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E15/1.757</f>
         <v>357.95720979514107</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f>F15/D15</f>
         <v>1.4914883741464211</v>
       </c>
     </row>
@@ -1076,11 +1080,11 @@
         <v>1.76</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E16/1.757</f>
         <v>323.38179748538312</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f>F16/D16</f>
         <v>1.1549349910192255</v>
       </c>
     </row>
@@ -1101,11 +1105,11 @@
         <v>1.8</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E17/1.757</f>
         <v>316.19553531904131</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f>F17/D17</f>
         <v>1.1292697689965761</v>
       </c>
     </row>
@@ -1126,267 +1130,267 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E18/1.757</f>
         <v>313.7552169648701</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f>F18/D18</f>
         <v>1.3073134040202921</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2">
-        <v>2.0699999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>274.95263940786202</v>
+        <f>1000/E19/1.757</f>
+        <v>307.64971004014831</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.74715391143440768</v>
+        <f>F19/D19</f>
+        <v>1.47908514442379</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
+        <v>368</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f>1000/E20/1.757</f>
+        <v>274.95263940786202</v>
+      </c>
+      <c r="G20" s="2">
+        <f>F20/D20</f>
+        <v>0.74715391143440768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>176</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>2.15</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
+      <c r="F21" s="7">
+        <f>1000/E21/1.757</f>
         <v>264.72184352291833</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
+      <c r="G21" s="2">
+        <f>F21/D21</f>
         <v>1.5041013836529451</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>200</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>2.16</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
+      <c r="F22" s="6">
+        <f>1000/E22/1.757</f>
         <v>263.49627943253444</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
+      <c r="G22" s="2">
+        <f>F22/D22</f>
         <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1">
-        <v>180</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.1880000000000002</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>260.12429779445807</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4451349877469892</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2">
-        <v>2.59</v>
+        <v>2.1880000000000002</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>219.74979288582023</v>
+        <f>1000/E23/1.757</f>
+        <v>260.12429779445807</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3080344814632157</v>
+        <f>F23/D23</f>
+        <v>1.4451349877469892</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="E24" s="2">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>213.96690359935124</v>
+        <f>1000/E24/1.757</f>
+        <v>219.74979288582023</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9811750333273264</v>
+        <f>F24/D24</f>
+        <v>1.3080344814632157</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>203.99711956067179</v>
+        <f>1000/E25/1.757</f>
+        <v>213.96690359935124</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7083233318078882</v>
+        <f>F25/D25</f>
+        <v>1.9811750333273264</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1">
-        <v>192</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.82</v>
+        <v>144</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.69</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>201.82693743768596</v>
+        <f>1000/E26/1.757</f>
+        <v>211.58065560381945</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0511819658212811</v>
+        <f>F26/D26</f>
+        <v>1.4693101083598572</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>194.24981691954756</v>
+        <f>1000/E27/1.757</f>
+        <v>203.99711956067179</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1562489102354021</v>
+        <f>F27/D27</f>
+        <v>0.7083233318078882</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1">
-        <v>240</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3.08</v>
+        <v>192</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.82</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>184.78959856307608</v>
+        <f>1000/E28/1.757</f>
+        <v>201.82693743768596</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.76995666067948365</v>
+        <f>F28/D28</f>
+        <v>1.0511819658212811</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1395,676 +1399,676 @@
         <v>49</v>
       </c>
       <c r="D29" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E29" s="2">
-        <v>3.77</v>
+        <v>2.93</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>150.96869060325579</v>
+        <f>1000/E29/1.757</f>
+        <v>194.24981691954756</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2580724216937982</v>
+        <f>F29/D29</f>
+        <v>1.1562489102354021</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2">
-        <v>3.827</v>
+        <v>3.08</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>148.72013681062825</v>
+        <f>1000/E30/1.757</f>
+        <v>184.78959856307608</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.826222982281268</v>
+        <f>F30/D30</f>
+        <v>0.76995666067948365</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="F31" s="7">
+        <f>1000/E31/1.757</f>
+        <v>150.96869060325579</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31/D31</f>
+        <v>1.2580724216937982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="1">
-        <v>176</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>135.83579082918243</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="1"/>
-        <v>0.7717942660749002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D32" s="1">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>129.35271899415326</v>
+        <v>3.827</v>
+      </c>
+      <c r="F32" s="7">
+        <f>1000/E32/1.757</f>
+        <v>148.72013681062825</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.95112293378053869</v>
+        <f>F32/D32</f>
+        <v>0.826222982281268</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
-        <v>192</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4.43</v>
+        <v>176</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.1900000000000004</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>128.4767412131545</v>
+        <f>1000/E33/1.757</f>
+        <v>135.83579082918243</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66914969381851297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <f>F33/D33</f>
+        <v>0.7717942660749002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="1">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
-        <v>124.54091106658082</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F34" s="6">
+        <f>1000/E34/1.757</f>
+        <v>129.35271899415326</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
-        <v>1.1531565839498223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F34/D34</f>
+        <v>0.95112293378053869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
-        <v>128</v>
-      </c>
-      <c r="E35" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="2"/>
-        <v>120.83905808371006</v>
+        <v>192</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F35" s="7">
+        <f>1000/E35/1.757</f>
+        <v>128.4767412131545</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
-        <v>0.94405514127898482</v>
+        <f>F35/D35</f>
+        <v>0.66914969381851297</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="1">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2">
-        <v>4.84</v>
+        <v>4.57</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="2"/>
-        <v>117.5933809037757</v>
+        <f>1000/E36/1.757</f>
+        <v>124.54091106658082</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>0.69996060061771248</v>
+        <f>F36/D36</f>
+        <v>1.1531565839498223</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2">
-        <v>5.05</v>
+        <v>4.71</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="2"/>
-        <v>112.70335912361868</v>
+        <f>1000/E37/1.757</f>
+        <v>120.83905808371006</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>0.78266221613624087</v>
+        <f>F37/D37</f>
+        <v>0.94405514127898482</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="E38" s="2">
-        <v>5.21</v>
+        <v>4.84</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="2"/>
-        <v>109.24221949602196</v>
+        <f>1000/E38/1.757</f>
+        <v>117.5933809037757</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F38/D38</f>
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="2"/>
-        <v>106.98345179967562</v>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F39" s="7">
+        <f>1000/E39/1.757</f>
+        <v>113.37688517415825</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3372931474959453</v>
+        <f>F39/D39</f>
+        <v>0.59050461028207424</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2">
-        <v>5.57</v>
+        <v>5.05</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="2"/>
-        <v>102.18168107258067</v>
+        <f>1000/E40/1.757</f>
+        <v>112.70335912361868</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="3"/>
-        <v>0.75133589023956382</v>
+        <f>F40/D40</f>
+        <v>0.78266221613624087</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2">
-        <v>6</v>
+        <v>5.21</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="2"/>
-        <v>94.858660595712394</v>
+        <f>1000/E41/1.757</f>
+        <v>109.24221949602196</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87832093144178147</v>
+        <f>F41/D41</f>
+        <v>1.3005026130478805</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
         <v>80</v>
       </c>
       <c r="E42" s="2">
-        <v>6.38</v>
+        <v>5.32</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="2"/>
-        <v>89.208771720105702</v>
+        <f>1000/E42/1.757</f>
+        <v>106.98345179967562</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <f>F42/D42</f>
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="2"/>
-        <v>75.484345301627897</v>
+        <v>136</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5.57</v>
+      </c>
+      <c r="F43" s="6">
+        <f>1000/E43/1.757</f>
+        <v>102.18168107258067</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0483936847448319</v>
+        <f>F43/D43</f>
+        <v>0.75133589023956382</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2">
-        <v>8.11</v>
+        <v>6</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="2"/>
-        <v>70.179033732956157</v>
+        <f>1000/E44/1.757</f>
+        <v>94.858660595712394</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="3"/>
-        <v>0.58482528110796794</v>
+        <f>F44/D44</f>
+        <v>0.87832093144178147</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2">
-        <v>8.49</v>
+        <v>6.38</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="2"/>
-        <v>67.037922682482261</v>
+        <f>1000/E45/1.757</f>
+        <v>89.208771720105702</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
-        <v>0.93108225947892032</v>
+        <f>F45/D45</f>
+        <v>1.1151096465013213</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2">
-        <v>8.7100000000000009</v>
+        <v>6.69</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="2"/>
-        <v>65.344657126782351</v>
+        <f>1000/E46/1.757</f>
+        <v>85.075031924405735</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90756468231642151</v>
+        <f>F46/D46</f>
+        <v>0.5907988328083732</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="F47" s="7">
+        <f>1000/E47/1.757</f>
+        <v>75.484345301627897</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47/D47</f>
+        <v>1.0483936847448319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="1">
-        <v>84</v>
-      </c>
-      <c r="E47" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="2"/>
-        <v>61.931660889474905</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E48" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="2"/>
-        <v>61.331030557572667</v>
+        <v>8.11</v>
+      </c>
+      <c r="F48" s="7">
+        <f>1000/E48/1.757</f>
+        <v>70.179033732956157</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="3"/>
-        <v>0.76663788196965832</v>
+        <f>F48/D48</f>
+        <v>0.58482528110796794</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2">
-        <v>9.41</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="2"/>
-        <v>60.483736830422359</v>
+        <v>8.49</v>
+      </c>
+      <c r="F49" s="6">
+        <f>1000/E49/1.757</f>
+        <v>67.037922682482261</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>0.42002595021126637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F49/D49</f>
+        <v>0.93108225947892032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2">
-        <v>9.49</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="2"/>
-        <v>59.973863390334493</v>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F50" s="7">
+        <f>1000/E50/1.757</f>
+        <v>65.344657126782351</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="3"/>
-        <v>0.46854580773698823</v>
+        <f>F50/D50</f>
+        <v>0.90756468231642151</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2">
-        <v>10.44</v>
+        <v>9.19</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="2"/>
-        <v>54.516471606731265</v>
+        <f>1000/E51/1.757</f>
+        <v>61.931660889474905</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="3"/>
-        <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+        <f>F51/D51</f>
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1">
-        <v>72</v>
-      </c>
-      <c r="E52" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="2"/>
-        <v>48.110901401037566</v>
+        <v>80</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F52" s="6">
+        <f>1000/E52/1.757</f>
+        <v>61.331030557572667</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="3"/>
-        <v>0.66820696390329948</v>
+        <f>F52/D52</f>
+        <v>0.76663788196965832</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E53" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="2"/>
-        <v>46.651800292973313</v>
+        <v>9.41</v>
+      </c>
+      <c r="F53" s="8">
+        <f>1000/E53/1.757</f>
+        <v>60.483736830422359</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+        <f>F53/D53</f>
+        <v>0.42002595021126637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="2"/>
-        <v>38.198118360689556</v>
+        <v>9.49</v>
+      </c>
+      <c r="F54" s="6">
+        <f>1000/E54/1.757</f>
+        <v>59.973863390334493</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F54/D54</f>
+        <v>0.46854580773698823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1">
         <v>72</v>
       </c>
       <c r="E55" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="2"/>
-        <v>33.878093069897282</v>
+        <v>10.44</v>
+      </c>
+      <c r="F55" s="7">
+        <f>1000/E55/1.757</f>
+        <v>54.516471606731265</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47052907041524006</v>
+        <f>F55/D55</f>
+        <v>0.75717321676015648</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>52</v>
@@ -2072,46 +2076,46 @@
       <c r="D56" s="1">
         <v>72</v>
       </c>
-      <c r="E56" s="2">
-        <v>18.329999999999998</v>
+      <c r="E56" s="1">
+        <v>11.83</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="2"/>
-        <v>31.050298067336303</v>
+        <f>1000/E56/1.757</f>
+        <v>48.110901401037566</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="3"/>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <f>F56/D56</f>
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="2"/>
-        <v>29.923867695808326</v>
+        <v>12.2</v>
+      </c>
+      <c r="F57" s="6">
+        <f>1000/E57/1.757</f>
+        <v>46.651800292973313</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4156092735528934</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F57/D57</f>
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
@@ -2120,271 +2124,273 @@
         <v>55</v>
       </c>
       <c r="D58" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E58" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" si="2"/>
-        <v>22.496125042461436</v>
+        <v>14.9</v>
+      </c>
+      <c r="F58" s="7">
+        <f>1000/E58/1.757</f>
+        <v>38.198118360689556</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="3"/>
-        <v>0.70300390757691988</v>
+        <f>F58/D58</f>
+        <v>0.7957941325143657</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="F59" s="6">
+        <f>1000/E59/1.757</f>
+        <v>33.878093069897282</v>
+      </c>
+      <c r="G59" s="2">
+        <f>F59/D59</f>
+        <v>0.47052907041524006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="1">
-        <v>48</v>
-      </c>
-      <c r="E59" s="2">
-        <v>27.52</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="2"/>
-        <v>20.681394025227995</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="3"/>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D60" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2">
-        <v>33</v>
-      </c>
-      <c r="F60" s="6">
-        <f t="shared" si="2"/>
-        <v>17.247029199220435</v>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F60" s="7">
+        <f>1000/E60/1.757</f>
+        <v>31.050298067336303</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7186262166341848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F60/D60</f>
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E61" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="2"/>
-        <v>13.266945537861874</v>
+        <v>19.02</v>
+      </c>
+      <c r="F61" s="7">
+        <f>1000/E61/1.757</f>
+        <v>29.923867695808326</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="3"/>
-        <v>0.41459204805818356</v>
+        <f>F61/D61</f>
+        <v>0.4156092735528934</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2">
-        <v>53.4</v>
+        <v>25.3</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="2"/>
-        <v>10.65827647142836</v>
+        <f>1000/E62/1.757</f>
+        <v>22.496125042461436</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="3"/>
-        <v>0.44409485297618168</v>
+        <f>F62/D62</f>
+        <v>0.70300390757691988</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E63" s="2">
-        <v>67</v>
-      </c>
-      <c r="F63" s="4">
-        <f t="shared" si="2"/>
-        <v>8.4948054264817063</v>
+        <v>27.52</v>
+      </c>
+      <c r="F63" s="6">
+        <f>1000/E63/1.757</f>
+        <v>20.681394025227995</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
-        <v>0.53092533915510665</v>
+        <f>F63/D63</f>
+        <v>0.43086237552558321</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E64" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F64" s="4">
-        <f t="shared" si="2"/>
-        <v>7.9158826644544416</v>
+        <v>33</v>
+      </c>
+      <c r="F64" s="6">
+        <f>1000/E64/1.757</f>
+        <v>17.247029199220435</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4947426665284026</v>
+        <f>F64/D64</f>
+        <v>0.7186262166341848</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D65" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E65" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F65" s="4">
-        <f t="shared" si="2"/>
-        <v>7.7330429833461194</v>
+        <v>42.9</v>
+      </c>
+      <c r="F65" s="6">
+        <f>1000/E65/1.757</f>
+        <v>13.266945537861874</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="3"/>
-        <v>0.12888404972243533</v>
+        <f>F65/D65</f>
+        <v>0.41459204805818356</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="6">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D66" s="1">
+        <v>24</v>
       </c>
       <c r="E66" s="2">
-        <v>74</v>
-      </c>
-      <c r="F66" s="4">
-        <f t="shared" ref="F66:F67" si="4">1000/E66/1.757</f>
-        <v>7.691242751003708</v>
+        <v>53.4</v>
+      </c>
+      <c r="F66" s="6">
+        <f>1000/E66/1.757</f>
+        <v>10.65827647142836</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G67" si="5">F66/D66</f>
-        <v>0.48070267193773175</v>
+        <f>F66/D66</f>
+        <v>0.44409485297618168</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="6">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="D67" s="1">
+        <v>16</v>
       </c>
       <c r="E67" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="4"/>
-        <v>7.2968200458240311</v>
+        <f>1000/E67/1.757</f>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="5"/>
-        <v>0.36484100229120153</v>
+        <f>F67/D67</f>
+        <v>0.53092533915510665</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="6">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D68" s="1">
+        <v>16</v>
       </c>
       <c r="E68" s="2">
-        <v>79.099999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F68" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.12</v>
+        <f>1000/E68/1.757</f>
+        <v>7.9158826644544416</v>
+      </c>
+      <c r="G68" s="2">
+        <f>F68/D68</f>
+        <v>0.4947426665284026</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
@@ -2392,393 +2398,391 @@
       <c r="C69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="6">
-        <v>20</v>
+      <c r="D69" s="1">
+        <v>60</v>
       </c>
       <c r="E69" s="2">
-        <v>82.4</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F69" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.35</v>
+        <f>1000/E69/1.757</f>
+        <v>7.7330429833461194</v>
+      </c>
+      <c r="G69" s="2">
+        <f>F69/D69</f>
+        <v>0.12888404972243533</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D70" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2">
-        <v>85.5</v>
+        <v>74</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" ref="F70:F75" si="6">1000/E70/1.757</f>
-        <v>6.6567481119798169</v>
+        <f>1000/E70/1.757</f>
+        <v>7.691242751003708</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" ref="G70:G75" si="7">F70/D70</f>
-        <v>0.11094580186633028</v>
+        <f>F70/D70</f>
+        <v>0.48070267193773175</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="6">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" s="4">
+        <f>1000/E71/1.757</f>
+        <v>7.2968200458240311</v>
+      </c>
+      <c r="G71" s="2">
+        <f>F71/D71</f>
+        <v>0.36484100229120153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="6">
+        <v>60</v>
+      </c>
+      <c r="E72" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F72" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="6">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="F73" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="6">
+        <v>60</v>
+      </c>
+      <c r="E74" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="F74" s="4">
+        <f>1000/E74/1.757</f>
+        <v>6.6567481119798169</v>
+      </c>
+      <c r="G74" s="2">
+        <f>F74/D74</f>
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D71" s="6">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2">
-        <v>93.5</v>
-      </c>
-      <c r="F71" s="4">
-        <f t="shared" si="6"/>
-        <v>6.0871867761954475</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="7"/>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="6">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="6"/>
-        <v>5.314210677630947</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="7"/>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="6">
-        <v>16</v>
-      </c>
-      <c r="E73" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F73" s="3">
-        <f t="shared" si="6"/>
-        <v>5.3092533915510671</v>
-      </c>
-      <c r="G73" s="2">
-        <f t="shared" si="7"/>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="6">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F74" s="3">
-        <f t="shared" si="6"/>
-        <v>5.265050541852677</v>
-      </c>
-      <c r="G74" s="2">
-        <f t="shared" si="7"/>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D75" s="6">
         <v>16</v>
       </c>
       <c r="E75" s="2">
-        <v>121</v>
-      </c>
-      <c r="F75" s="3">
-        <f t="shared" si="6"/>
-        <v>4.7037352361510276</v>
+        <v>93.5</v>
+      </c>
+      <c r="F75" s="4">
+        <f>1000/E75/1.757</f>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="7"/>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F75/D75</f>
+        <v>0.38044917351221547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D76" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="F76" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.1</v>
+      </c>
+      <c r="F76" s="3">
+        <f>1000/E76/1.757</f>
+        <v>5.314210677630947</v>
+      </c>
+      <c r="G76" s="2">
+        <f>F76/D76</f>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D77" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2">
-        <v>124.6</v>
-      </c>
-      <c r="F77" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.2</v>
+      </c>
+      <c r="F77" s="3">
+        <f>1000/E77/1.757</f>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G77" s="2">
+        <f>F77/D77</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D78" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2">
-        <v>254</v>
-      </c>
-      <c r="F78" s="4">
+        <v>108.1</v>
+      </c>
+      <c r="F78" s="3">
         <f>1000/E78/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G78" s="2">
         <f>F78/D78</f>
-        <v>9.3364823420976781E-2</v>
+        <v>0.32906565886579231</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D79" s="1">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="6">
         <v>16</v>
       </c>
       <c r="E79" s="2">
-        <v>883</v>
+        <v>121</v>
       </c>
       <c r="F79" s="3">
         <f>1000/E79/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G79" s="2">
         <f>F79/D79</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="6">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F80" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="6">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C82" s="5">
         <v>8051</v>
       </c>
-      <c r="D80" s="1">
-        <v>16</v>
-      </c>
-      <c r="E80" s="2">
-        <v>884</v>
-      </c>
-      <c r="F80" s="3">
-        <f>1000/E80/1.757</f>
-        <v>0.64383706286682618</v>
-      </c>
-      <c r="G80" s="2">
-        <f>F80/D80</f>
-        <v>4.0239816429176636E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="1">
-        <v>144</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="F81" s="3">
-        <f>1000/E81/1.757</f>
-        <v>211.58065560381945</v>
-      </c>
-      <c r="G81" s="2">
-        <f>F81/D81</f>
-        <v>1.4693101083598572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="1">
-        <v>144</v>
+      <c r="D82" s="6">
+        <v>24</v>
       </c>
       <c r="E82" s="2">
-        <v>6.69</v>
-      </c>
-      <c r="F82" s="3">
+        <v>254</v>
+      </c>
+      <c r="F82" s="4">
         <f>1000/E82/1.757</f>
-        <v>85.075031924405735</v>
+        <v>2.2407557621034426</v>
       </c>
       <c r="G82" s="2">
         <f>F82/D82</f>
-        <v>0.5907988328083732</v>
+        <v>9.3364823420976781E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8051</v>
       </c>
       <c r="D83" s="1">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="E83" s="2">
-        <v>1.85</v>
+        <v>883</v>
       </c>
       <c r="F83" s="3">
         <f>1000/E83/1.757</f>
-        <v>307.64971004014831</v>
+        <v>0.64456621016339111</v>
       </c>
       <c r="G83" s="2">
         <f>F83/D83</f>
-        <v>1.47908514442379</v>
+        <v>4.0285388135211944E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="C84" s="5">
+        <v>8051</v>
       </c>
       <c r="D84" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2">
-        <v>5.0199999999999996</v>
+        <v>884</v>
       </c>
       <c r="F84" s="3">
         <f>1000/E84/1.757</f>
-        <v>113.37688517415825</v>
+        <v>0.64383706286682618</v>
       </c>
       <c r="G84" s="2">
         <f>F84/D84</f>
-        <v>0.59050461028207424</v>
+        <v>4.0239816429176636E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G80">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H84">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29221"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C01D5F-466B-42F8-BA09-763FBAFF2A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC98F50-FED2-4017-80D9-96C900A5137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="869" yWindow="-109" windowWidth="22425" windowHeight="13259" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
   <si>
     <t>MCU</t>
   </si>
@@ -316,6 +316,42 @@
   </si>
   <si>
     <t>CH32V305RB(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT32F403ACGT7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT32F403ACGT7(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N32G455REL7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N32G455REL7(LATENCY=4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N32G455REL7(LATENCY=3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N32G455REL7(LATENCY=2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N32G455REL7(LATENCY=4, oc)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,27 +706,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F4:F46"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.3" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.84375" style="1"/>
+    <col min="1" max="1" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,7 +774,7 @@
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +799,7 @@
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -788,7 +824,7 @@
         <v>2.1624314725466349</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -813,7 +849,7 @@
         <v>2.9422661475096898</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -838,7 +874,7 @@
         <v>1.9438250122072211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -863,7 +899,7 @@
         <v>1.0416397576395944</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -888,7 +924,7 @@
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -913,7 +949,7 @@
         <v>1.3448770405819339</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -938,7 +974,7 @@
         <v>1.3065931211530633</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -963,7 +999,7 @@
         <v>1.4436687387740321</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,7 +1024,7 @@
         <v>1.4946217530837038</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +1049,7 @@
         <v>1.9894853312859142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -1038,7 +1074,7 @@
         <v>1.2832611011324728</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1063,34 +1099,34 @@
         <v>1.4914883741464211</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E16" s="2">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="F16" s="7">
         <f>1000/E16/1.757</f>
-        <v>323.38179748538312</v>
+        <v>332.83740559899087</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>1.1549349910192255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1556854361076072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1102,20 +1138,20 @@
         <v>280</v>
       </c>
       <c r="E17" s="2">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="F17" s="7">
         <f>1000/E17/1.757</f>
-        <v>316.19553531904131</v>
+        <v>323.38179748538312</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>1.1292697689965761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1549349910192255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1124,1051 +1160,1051 @@
         <v>49</v>
       </c>
       <c r="D18" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E18" s="2">
-        <v>1.8140000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F18" s="7">
         <f>1000/E18/1.757</f>
-        <v>313.7552169648701</v>
+        <v>316.19553531904131</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1292697689965761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="E19" s="2">
-        <v>1.85</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F19" s="7">
         <f>1000/E19/1.757</f>
-        <v>307.64971004014831</v>
+        <v>313.7552169648701</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>1.47908514442379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3073134040202921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="E20" s="2">
-        <v>2.0699999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="F20" s="7">
         <f>1000/E20/1.757</f>
-        <v>274.95263940786202</v>
+        <v>307.64971004014831</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>0.74715391143440768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.47908514442379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="F21" s="7">
         <f>1000/E21/1.757</f>
-        <v>264.72184352291833</v>
+        <v>276.28736095838559</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.5041013836529451</v>
+        <v>1.1511973373266067</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1">
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="E22" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="F22" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F22" s="7">
         <f>1000/E22/1.757</f>
-        <v>263.49627943253444</v>
+        <v>274.95263940786202</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.74715391143440768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2">
-        <v>2.1880000000000002</v>
-      </c>
-      <c r="F23" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="F23" s="6">
         <f>1000/E23/1.757</f>
-        <v>260.12429779445807</v>
+        <v>268.46790734635579</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.4451349877469892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.0487027630717023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2">
-        <v>2.59</v>
+        <v>2.15</v>
       </c>
       <c r="F24" s="7">
         <f>1000/E24/1.757</f>
-        <v>219.74979288582023</v>
+        <v>264.72184352291833</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.5041013836529451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="F25" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="F25" s="6">
         <f>1000/E25/1.757</f>
-        <v>213.96690359935124</v>
+        <v>263.49627943253444</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>1.9811750333273264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2">
-        <v>2.69</v>
+        <v>2.1880000000000002</v>
       </c>
       <c r="F26" s="7">
         <f>1000/E26/1.757</f>
-        <v>211.58065560381945</v>
+        <v>260.12429779445807</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>1.4693101083598572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.4451349877469892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="F27" s="7">
         <f>1000/E27/1.757</f>
-        <v>203.99711956067179</v>
+        <v>219.74979288582023</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>0.7083233318078882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3080344814632157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1">
-        <v>192</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2.82</v>
+        <v>108</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.66</v>
       </c>
       <c r="F28" s="7">
         <f>1000/E28/1.757</f>
-        <v>201.82693743768596</v>
+        <v>213.96690359935124</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>1.0511819658212811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.9811750333273264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="F29" s="7">
         <f>1000/E29/1.757</f>
-        <v>194.24981691954756</v>
+        <v>211.58065560381945</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>1.1562489102354021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.4693101083598572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="E30" s="2">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="F30" s="7">
         <f>1000/E30/1.757</f>
-        <v>184.78959856307608</v>
+        <v>203.99711956067179</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>0.76995666067948365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.7083233318078882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1">
-        <v>120</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3.77</v>
+        <v>192</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.82</v>
       </c>
       <c r="F31" s="7">
         <f>1000/E31/1.757</f>
-        <v>150.96869060325579</v>
+        <v>201.82693743768596</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>1.2580724216937982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.0511819658212811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E32" s="2">
-        <v>3.827</v>
+        <v>2.93</v>
       </c>
       <c r="F32" s="7">
         <f>1000/E32/1.757</f>
-        <v>148.72013681062825</v>
+        <v>194.24981691954756</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>0.826222982281268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1562489102354021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2">
-        <v>4.1900000000000004</v>
+        <v>3.08</v>
       </c>
       <c r="F33" s="7">
         <f>1000/E33/1.757</f>
-        <v>135.83579082918243</v>
+        <v>184.78959856307608</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.7717942660749002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.76995666067948365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E34" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F34" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="F34" s="2">
         <f>1000/E34/1.757</f>
-        <v>129.35271899415326</v>
+        <v>152.1796694048862</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>0.95112293378053869</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.0568032597561541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1">
-        <v>192</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4.43</v>
+        <v>120</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.77</v>
       </c>
       <c r="F35" s="7">
         <f>1000/E35/1.757</f>
-        <v>128.4767412131545</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>0.66914969381851297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.2580724216937982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2">
-        <v>4.57</v>
+        <v>3.827</v>
       </c>
       <c r="F36" s="7">
         <f>1000/E36/1.757</f>
-        <v>124.54091106658082</v>
+        <v>148.72013681062825</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>1.1531565839498223</v>
+        <v>0.826222982281268</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E37" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F37" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F37" s="7">
         <f>1000/E37/1.757</f>
-        <v>120.83905808371006</v>
+        <v>135.83579082918243</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>0.94405514127898482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.7717942660749002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="1">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="F38" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F38" s="6">
         <f>1000/E38/1.757</f>
-        <v>117.5933809037757</v>
+        <v>129.35271899415326</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
-        <v>0.69996060061771248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.95112293378053869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1">
         <v>192</v>
       </c>
-      <c r="E39" s="2">
-        <v>5.0199999999999996</v>
+      <c r="E39" s="1">
+        <v>4.43</v>
       </c>
       <c r="F39" s="7">
         <f>1000/E39/1.757</f>
-        <v>113.37688517415825</v>
+        <v>128.4767412131545</v>
       </c>
       <c r="G39" s="2">
         <f>F39/D39</f>
-        <v>0.59050461028207424</v>
+        <v>0.66914969381851297</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="F40" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="F40" s="7">
         <f>1000/E40/1.757</f>
-        <v>112.70335912361868</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G40" s="2">
         <f>F40/D40</f>
-        <v>0.78266221613624087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1531565839498223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="1">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="F41" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F41" s="6">
         <f>1000/E41/1.757</f>
-        <v>109.24221949602196</v>
+        <v>120.83905808371006</v>
       </c>
       <c r="G41" s="2">
         <f>F41/D41</f>
-        <v>1.3005026130478805</v>
+        <v>0.94405514127898482</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F42" s="6">
+        <v>4.84</v>
+      </c>
+      <c r="F42" s="7">
         <f>1000/E42/1.757</f>
-        <v>106.98345179967562</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G42" s="2">
         <f>F42/D42</f>
-        <v>1.3372931474959453</v>
+        <v>0.69996060061771248</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2">
-        <v>5.57</v>
-      </c>
-      <c r="F43" s="6">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F43" s="7">
         <f>1000/E43/1.757</f>
-        <v>102.18168107258067</v>
+        <v>113.37688517415825</v>
       </c>
       <c r="G43" s="2">
         <f>F43/D43</f>
-        <v>0.75133589023956382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.59050461028207424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2">
-        <v>6</v>
-      </c>
-      <c r="F44" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="F44" s="6">
         <f>1000/E44/1.757</f>
-        <v>94.858660595712394</v>
+        <v>112.70335912361868</v>
       </c>
       <c r="G44" s="2">
         <f>F44/D44</f>
-        <v>0.87832093144178147</v>
+        <v>0.78266221613624087</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F45" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="F45" s="7">
         <f>1000/E45/1.757</f>
-        <v>89.208771720105702</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G45" s="2">
         <f>F45/D45</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2">
-        <v>6.69</v>
-      </c>
-      <c r="F46" s="7">
+        <v>5.32</v>
+      </c>
+      <c r="F46" s="6">
         <f>1000/E46/1.757</f>
-        <v>85.075031924405735</v>
+        <v>106.98345179967562</v>
       </c>
       <c r="G46" s="2">
         <f>F46/D46</f>
-        <v>0.5907988328083732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1">
-        <v>72</v>
-      </c>
-      <c r="E47" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F47" s="7">
+        <v>136</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5.57</v>
+      </c>
+      <c r="F47" s="6">
         <f>1000/E47/1.757</f>
-        <v>75.484345301627897</v>
+        <v>102.18168107258067</v>
       </c>
       <c r="G47" s="2">
         <f>F47/D47</f>
-        <v>1.0483936847448319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75133589023956382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2">
-        <v>8.11</v>
+        <v>6</v>
       </c>
       <c r="F48" s="7">
         <f>1000/E48/1.757</f>
-        <v>70.179033732956157</v>
+        <v>94.858660595712394</v>
       </c>
       <c r="G48" s="2">
         <f>F48/D48</f>
-        <v>0.58482528110796794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.87832093144178147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2">
-        <v>8.49</v>
+        <v>6.38</v>
       </c>
       <c r="F49" s="6">
         <f>1000/E49/1.757</f>
-        <v>67.037922682482261</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G49" s="2">
         <f>F49/D49</f>
-        <v>0.93108225947892032</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2">
-        <v>8.7100000000000009</v>
+        <v>6.69</v>
       </c>
       <c r="F50" s="7">
         <f>1000/E50/1.757</f>
-        <v>65.344657126782351</v>
+        <v>85.075031924405735</v>
       </c>
       <c r="G50" s="2">
         <f>F50/D50</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5907988328083732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>84</v>
-      </c>
-      <c r="E51" s="2">
-        <v>9.19</v>
+        <v>72</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7.54</v>
       </c>
       <c r="F51" s="7">
         <f>1000/E51/1.757</f>
-        <v>61.931660889474905</v>
+        <v>75.484345301627897</v>
       </c>
       <c r="G51" s="2">
         <f>F51/D51</f>
-        <v>0.73728167725565363</v>
+        <v>1.0483936847448319</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F52" s="6">
+        <v>8.11</v>
+      </c>
+      <c r="F52" s="7">
         <f>1000/E52/1.757</f>
-        <v>61.331030557572667</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G52" s="2">
         <f>F52/D52</f>
-        <v>0.76663788196965832</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2">
-        <v>9.41</v>
-      </c>
-      <c r="F53" s="8">
+        <v>8.49</v>
+      </c>
+      <c r="F53" s="6">
         <f>1000/E53/1.757</f>
-        <v>60.483736830422359</v>
+        <v>67.037922682482261</v>
       </c>
       <c r="G53" s="2">
         <f>F53/D53</f>
-        <v>0.42002595021126637</v>
+        <v>0.93108225947892032</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2">
-        <v>9.49</v>
-      </c>
-      <c r="F54" s="6">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F54" s="7">
         <f>1000/E54/1.757</f>
-        <v>59.973863390334493</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G54" s="2">
         <f>F54/D54</f>
-        <v>0.46854580773698823</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2">
-        <v>10.44</v>
+        <v>9.19</v>
       </c>
       <c r="F55" s="7">
         <f>1000/E55/1.757</f>
-        <v>54.516471606731265</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G55" s="2">
         <f>F55/D55</f>
-        <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D56" s="1">
-        <v>72</v>
-      </c>
-      <c r="E56" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F56" s="7">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F56" s="6">
         <f>1000/E56/1.757</f>
-        <v>48.110901401037566</v>
+        <v>61.331030557572667</v>
       </c>
       <c r="G56" s="2">
         <f>F56/D56</f>
-        <v>0.66820696390329948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.76663788196965832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E57" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F57" s="6">
+        <v>9.41</v>
+      </c>
+      <c r="F57" s="8">
         <f>1000/E57/1.757</f>
-        <v>46.651800292973313</v>
+        <v>60.483736830422359</v>
       </c>
       <c r="G57" s="2">
         <f>F57/D57</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.42002595021126637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F58" s="7">
+        <v>9.49</v>
+      </c>
+      <c r="F58" s="6">
         <f>1000/E58/1.757</f>
-        <v>38.198118360689556</v>
+        <v>59.973863390334493</v>
       </c>
       <c r="G58" s="2">
         <f>F58/D58</f>
-        <v>0.7957941325143657</v>
+        <v>0.46854580773698823</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1">
         <v>72</v>
       </c>
       <c r="E59" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="F59" s="6">
+        <v>10.44</v>
+      </c>
+      <c r="F59" s="7">
         <f>1000/E59/1.757</f>
-        <v>33.878093069897282</v>
+        <v>54.516471606731265</v>
       </c>
       <c r="G59" s="2">
         <f>F59/D59</f>
-        <v>0.47052907041524006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.75717321676015648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>52</v>
@@ -2176,46 +2212,46 @@
       <c r="D60" s="1">
         <v>72</v>
       </c>
-      <c r="E60" s="2">
-        <v>18.329999999999998</v>
+      <c r="E60" s="1">
+        <v>11.83</v>
       </c>
       <c r="F60" s="7">
         <f>1000/E60/1.757</f>
-        <v>31.050298067336303</v>
+        <v>48.110901401037566</v>
       </c>
       <c r="G60" s="2">
         <f>F60/D60</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F61" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="F61" s="6">
         <f>1000/E61/1.757</f>
-        <v>29.923867695808326</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G61" s="2">
         <f>F61/D61</f>
-        <v>0.4156092735528934</v>
+        <v>0.58314750366216639</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
@@ -2224,271 +2260,273 @@
         <v>55</v>
       </c>
       <c r="D62" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E62" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F62" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="F62" s="7">
         <f>1000/E62/1.757</f>
-        <v>22.496125042461436</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G62" s="2">
         <f>F62/D62</f>
-        <v>0.70300390757691988</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D63" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2">
-        <v>27.52</v>
+        <v>16.8</v>
       </c>
       <c r="F63" s="6">
         <f>1000/E63/1.757</f>
-        <v>20.681394025227995</v>
+        <v>33.878093069897282</v>
       </c>
       <c r="G63" s="2">
         <f>F63/D63</f>
-        <v>0.43086237552558321</v>
+        <v>0.47052907041524006</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D64" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E64" s="2">
-        <v>33</v>
-      </c>
-      <c r="F64" s="6">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F64" s="7">
         <f>1000/E64/1.757</f>
-        <v>17.247029199220435</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G64" s="2">
         <f>F64/D64</f>
-        <v>0.7186262166341848</v>
+        <v>0.43125413982411531</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F65" s="6">
+        <v>19.02</v>
+      </c>
+      <c r="F65" s="7">
         <f>1000/E65/1.757</f>
-        <v>13.266945537861874</v>
+        <v>29.923867695808326</v>
       </c>
       <c r="G65" s="2">
         <f>F65/D65</f>
-        <v>0.41459204805818356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.4156092735528934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D66" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E66" s="2">
-        <v>53.4</v>
+        <v>25.3</v>
       </c>
       <c r="F66" s="6">
         <f>1000/E66/1.757</f>
-        <v>10.65827647142836</v>
+        <v>22.496125042461436</v>
       </c>
       <c r="G66" s="2">
         <f>F66/D66</f>
-        <v>0.44409485297618168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.70300390757691988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E67" s="2">
-        <v>67</v>
-      </c>
-      <c r="F67" s="4">
+        <v>27.52</v>
+      </c>
+      <c r="F67" s="6">
         <f>1000/E67/1.757</f>
-        <v>8.4948054264817063</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G67" s="2">
         <f>F67/D67</f>
-        <v>0.53092533915510665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F68" s="4">
+        <v>33</v>
+      </c>
+      <c r="F68" s="6">
         <f>1000/E68/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>17.247029199220435</v>
       </c>
       <c r="G68" s="2">
         <f>F68/D68</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7186262166341848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F69" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="F69" s="6">
         <f>1000/E69/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>13.266945537861874</v>
       </c>
       <c r="G69" s="2">
         <f>F69/D69</f>
-        <v>0.12888404972243533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.41459204805818356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="6">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D70" s="1">
+        <v>24</v>
       </c>
       <c r="E70" s="2">
-        <v>74</v>
-      </c>
-      <c r="F70" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="F70" s="6">
         <f>1000/E70/1.757</f>
-        <v>7.691242751003708</v>
+        <v>10.65827647142836</v>
       </c>
       <c r="G70" s="2">
         <f>F70/D70</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.44409485297618168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="6">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="D71" s="1">
+        <v>16</v>
       </c>
       <c r="E71" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F71" s="4">
         <f>1000/E71/1.757</f>
-        <v>7.2968200458240311</v>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G71" s="2">
         <f>F71/D71</f>
-        <v>0.36484100229120153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.53092533915510665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="6">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16</v>
       </c>
       <c r="E72" s="2">
-        <v>79.099999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F72" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <f>1000/E72/1.757</f>
+        <v>7.9158826644544416</v>
+      </c>
+      <c r="G72" s="2">
+        <f>F72/D72</f>
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
@@ -2496,293 +2534,514 @@
       <c r="C73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="6">
-        <v>20</v>
+      <c r="D73" s="1">
+        <v>60</v>
       </c>
       <c r="E73" s="2">
-        <v>82.4</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F73" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <f>1000/E73/1.757</f>
+        <v>7.7330429833461194</v>
+      </c>
+      <c r="G73" s="2">
+        <f>F73/D73</f>
+        <v>0.12888404972243533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D74" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2">
-        <v>85.5</v>
+        <v>74</v>
       </c>
       <c r="F74" s="4">
         <f>1000/E74/1.757</f>
-        <v>6.6567481119798169</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G74" s="2">
         <f>F74/D74</f>
-        <v>0.11094580186633028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D75" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E75" s="2">
-        <v>93.5</v>
+        <v>78</v>
       </c>
       <c r="F75" s="4">
         <f>1000/E75/1.757</f>
-        <v>6.0871867761954475</v>
+        <v>7.2968200458240311</v>
       </c>
       <c r="G75" s="2">
         <f>F75/D75</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.36484100229120153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D76" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E76" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F76" s="3">
-        <f>1000/E76/1.757</f>
-        <v>5.314210677630947</v>
-      </c>
-      <c r="G76" s="2">
-        <f>F76/D76</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F76" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D77" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F77" s="3">
-        <f>1000/E77/1.757</f>
-        <v>5.3092533915510671</v>
-      </c>
-      <c r="G77" s="2">
-        <f>F77/D77</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+        <v>82.4</v>
+      </c>
+      <c r="F77" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D78" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F78" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="F78" s="4">
         <f>1000/E78/1.757</f>
-        <v>5.265050541852677</v>
+        <v>6.6567481119798169</v>
       </c>
       <c r="G78" s="2">
         <f>F78/D78</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" s="6">
         <v>16</v>
       </c>
       <c r="E79" s="2">
-        <v>121</v>
-      </c>
-      <c r="F79" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="F79" s="4">
         <f>1000/E79/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G79" s="2">
         <f>F79/D79</f>
-        <v>0.29398345225943923</v>
+        <v>0.38044917351221547</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D80" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="F80" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.1</v>
+      </c>
+      <c r="F80" s="3">
+        <f>1000/E80/1.757</f>
+        <v>5.314210677630947</v>
+      </c>
+      <c r="G80" s="2">
+        <f>F80/D80</f>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D81" s="6">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E81" s="2">
-        <v>124.6</v>
-      </c>
-      <c r="F81" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107.2</v>
+      </c>
+      <c r="F81" s="3">
+        <f>1000/E81/1.757</f>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G81" s="2">
+        <f>F81/D81</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D82" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2">
-        <v>254</v>
-      </c>
-      <c r="F82" s="4">
+        <v>108.1</v>
+      </c>
+      <c r="F82" s="3">
         <f>1000/E82/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G82" s="2">
         <f>F82/D82</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="6">
         <v>16</v>
       </c>
       <c r="E83" s="2">
-        <v>883</v>
+        <v>121</v>
       </c>
       <c r="F83" s="3">
         <f>1000/E83/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G83" s="2">
         <f>F83/D83</f>
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="6">
+        <v>20</v>
+      </c>
+      <c r="E84" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F84" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="6">
+        <v>60</v>
+      </c>
+      <c r="E85" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="F85" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D86" s="6">
+        <v>24</v>
+      </c>
+      <c r="E86" s="2">
+        <v>254</v>
+      </c>
+      <c r="F86" s="4">
+        <f>1000/E86/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G86" s="2">
+        <f>F86/D86</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D87" s="1">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2">
+        <v>883</v>
+      </c>
+      <c r="F87" s="3">
+        <f>1000/E87/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G87" s="2">
+        <f>F87/D87</f>
         <v>4.0285388135211944E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C88" s="5">
         <v>8051</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D88" s="1">
         <v>16</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E88" s="2">
         <v>884</v>
       </c>
-      <c r="F84" s="3">
-        <f>1000/E84/1.757</f>
+      <c r="F88" s="3">
+        <f>1000/E88/1.757</f>
         <v>0.64383706286682618</v>
       </c>
-      <c r="G84" s="2">
-        <f>F84/D84</f>
+      <c r="G88" s="2">
+        <f>F88/D88</f>
         <v>4.0239816429176636E-2</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M88" s="1">
+        <v>32</v>
+      </c>
+      <c r="N88" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="O88" s="2">
+        <f>1000/N88/1.757</f>
+        <v>41.034748635492029</v>
+      </c>
+      <c r="P88" s="2">
+        <f>O88/M88</f>
+        <v>1.2823358948591259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M89" s="1">
+        <v>144</v>
+      </c>
+      <c r="N89" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="O89" s="2">
+        <f>1000/N89/1.757</f>
+        <v>77.753000488288833</v>
+      </c>
+      <c r="P89" s="2">
+        <f>O89/M89</f>
+        <v>0.53995139227978362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" s="1">
+        <v>144</v>
+      </c>
+      <c r="N90" s="2">
+        <v>6</v>
+      </c>
+      <c r="O90" s="2">
+        <f>1000/N90/1.757</f>
+        <v>94.858660595712394</v>
+      </c>
+      <c r="P90" s="2">
+        <f>O90/M90</f>
+        <v>0.6587406985813361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M91" s="1">
+        <v>144</v>
+      </c>
+      <c r="N91" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="O91" s="2">
+        <f>1000/N91/1.757</f>
+        <v>120.58304313014288</v>
+      </c>
+      <c r="P91" s="2">
+        <f>O91/M91</f>
+        <v>0.83738224395932559</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" s="1">
+        <v>256</v>
+      </c>
+      <c r="N92" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="O92" s="2">
+        <f>1000/N92/1.757</f>
+        <v>138.1436804791928</v>
+      </c>
+      <c r="P92" s="2">
+        <f>O92/M92</f>
+        <v>0.53962375187184686</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H84">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC98F50-FED2-4017-80D9-96C900A5137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300E8BE-DA8C-451F-8076-4F5A3A59A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="93">
   <si>
     <t>MCU</t>
   </si>
@@ -706,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,9 @@
     <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,11 +768,11 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
-        <f>1000/E2/1.757</f>
+        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f>F2/D2</f>
+        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
@@ -791,11 +793,11 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
-        <f>1000/E3/1.757</f>
+        <f t="shared" si="0"/>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/D3</f>
+        <f t="shared" si="1"/>
         <v>2.6167906371231004</v>
       </c>
     </row>
@@ -816,11 +818,11 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f>1000/E4/1.757</f>
+        <f t="shared" si="0"/>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/D4</f>
+        <f t="shared" si="1"/>
         <v>2.1624314725466349</v>
       </c>
     </row>
@@ -841,11 +843,11 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f>1000/E5/1.757</f>
+        <f t="shared" si="0"/>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/D5</f>
+        <f t="shared" si="1"/>
         <v>2.9422661475096898</v>
       </c>
     </row>
@@ -866,11 +868,11 @@
         <v>0.61</v>
       </c>
       <c r="F6" s="6">
-        <f>1000/E6/1.757</f>
+        <f t="shared" si="0"/>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/D6</f>
+        <f t="shared" si="1"/>
         <v>1.9438250122072211</v>
       </c>
     </row>
@@ -891,11 +893,11 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f>1000/E7/1.757</f>
+        <f t="shared" si="0"/>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/D7</f>
+        <f t="shared" si="1"/>
         <v>1.0416397576395944</v>
       </c>
     </row>
@@ -916,11 +918,11 @@
         <v>1.08</v>
       </c>
       <c r="F8" s="6">
-        <f>1000/E8/1.757</f>
+        <f t="shared" si="0"/>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -941,11 +943,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="7">
-        <f>1000/E9/1.757</f>
+        <f t="shared" si="0"/>
         <v>494.91475093415164</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/D9</f>
+        <f t="shared" si="1"/>
         <v>1.3448770405819339</v>
       </c>
     </row>
@@ -966,11 +968,11 @@
         <v>1.21</v>
       </c>
       <c r="F10" s="7">
-        <f>1000/E10/1.757</f>
+        <f t="shared" si="0"/>
         <v>470.37352361510278</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/D10</f>
+        <f t="shared" si="1"/>
         <v>1.3065931211530633</v>
       </c>
     </row>
@@ -991,11 +993,11 @@
         <v>1.232</v>
       </c>
       <c r="F11" s="7">
-        <f>1000/E11/1.757</f>
+        <f t="shared" si="0"/>
         <v>461.97399640769027</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/D11</f>
+        <f t="shared" si="1"/>
         <v>1.4436687387740321</v>
       </c>
     </row>
@@ -1016,11 +1018,11 @@
         <v>1.4</v>
       </c>
       <c r="F12" s="7">
-        <f>1000/E12/1.757</f>
+        <f t="shared" si="0"/>
         <v>406.53711683876742</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/D12</f>
+        <f t="shared" si="1"/>
         <v>1.4946217530837038</v>
       </c>
     </row>
@@ -1041,11 +1043,11 @@
         <v>1.49</v>
       </c>
       <c r="F13" s="7">
-        <f>1000/E13/1.757</f>
+        <f t="shared" si="0"/>
         <v>381.98118360689551</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/D13</f>
+        <f t="shared" si="1"/>
         <v>1.9894853312859142</v>
       </c>
     </row>
@@ -1066,11 +1068,11 @@
         <v>1.54</v>
       </c>
       <c r="F14" s="7">
-        <f>1000/E14/1.757</f>
+        <f t="shared" si="0"/>
         <v>369.57919712615217</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/D14</f>
+        <f t="shared" si="1"/>
         <v>1.2832611011324728</v>
       </c>
     </row>
@@ -1091,11 +1093,11 @@
         <v>1.59</v>
       </c>
       <c r="F15" s="7">
-        <f>1000/E15/1.757</f>
+        <f t="shared" si="0"/>
         <v>357.95720979514107</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/D15</f>
+        <f t="shared" si="1"/>
         <v>1.4914883741464211</v>
       </c>
     </row>
@@ -1116,11 +1118,11 @@
         <v>1.71</v>
       </c>
       <c r="F16" s="7">
-        <f>1000/E16/1.757</f>
+        <f t="shared" si="0"/>
         <v>332.83740559899087</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/D16</f>
+        <f t="shared" si="1"/>
         <v>1.1556854361076072</v>
       </c>
     </row>
@@ -1141,11 +1143,11 @@
         <v>1.76</v>
       </c>
       <c r="F17" s="7">
-        <f>1000/E17/1.757</f>
+        <f t="shared" si="0"/>
         <v>323.38179748538312</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/D17</f>
+        <f t="shared" si="1"/>
         <v>1.1549349910192255</v>
       </c>
     </row>
@@ -1166,11 +1168,11 @@
         <v>1.8</v>
       </c>
       <c r="F18" s="7">
-        <f>1000/E18/1.757</f>
+        <f t="shared" si="0"/>
         <v>316.19553531904131</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/D18</f>
+        <f t="shared" si="1"/>
         <v>1.1292697689965761</v>
       </c>
     </row>
@@ -1191,11 +1193,11 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="F19" s="7">
-        <f>1000/E19/1.757</f>
+        <f t="shared" si="0"/>
         <v>313.7552169648701</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/D19</f>
+        <f t="shared" si="1"/>
         <v>1.3073134040202921</v>
       </c>
     </row>
@@ -1216,11 +1218,11 @@
         <v>1.85</v>
       </c>
       <c r="F20" s="7">
-        <f>1000/E20/1.757</f>
+        <f t="shared" si="0"/>
         <v>307.64971004014831</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/D20</f>
+        <f t="shared" si="1"/>
         <v>1.47908514442379</v>
       </c>
     </row>
@@ -1241,11 +1243,11 @@
         <v>2.06</v>
       </c>
       <c r="F21" s="7">
-        <f>1000/E21/1.757</f>
+        <f t="shared" si="0"/>
         <v>276.28736095838559</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/D21</f>
+        <f t="shared" si="1"/>
         <v>1.1511973373266067</v>
       </c>
     </row>
@@ -1266,11 +1268,11 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F22" s="7">
-        <f>1000/E22/1.757</f>
+        <f t="shared" si="0"/>
         <v>274.95263940786202</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/D22</f>
+        <f t="shared" si="1"/>
         <v>0.74715391143440768</v>
       </c>
     </row>
@@ -1291,11 +1293,11 @@
         <v>2.12</v>
       </c>
       <c r="F23" s="6">
-        <f>1000/E23/1.757</f>
+        <f t="shared" si="0"/>
         <v>268.46790734635579</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/D23</f>
+        <f t="shared" si="1"/>
         <v>1.0487027630717023</v>
       </c>
     </row>
@@ -1316,11 +1318,11 @@
         <v>2.15</v>
       </c>
       <c r="F24" s="7">
-        <f>1000/E24/1.757</f>
+        <f t="shared" si="0"/>
         <v>264.72184352291833</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/D24</f>
+        <f t="shared" si="1"/>
         <v>1.5041013836529451</v>
       </c>
     </row>
@@ -1341,11 +1343,11 @@
         <v>2.16</v>
       </c>
       <c r="F25" s="6">
-        <f>1000/E25/1.757</f>
+        <f t="shared" si="0"/>
         <v>263.49627943253444</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/D25</f>
+        <f t="shared" si="1"/>
         <v>1.3174813971626722</v>
       </c>
     </row>
@@ -1366,11 +1368,11 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="F26" s="7">
-        <f>1000/E26/1.757</f>
+        <f t="shared" si="0"/>
         <v>260.12429779445807</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/D26</f>
+        <f t="shared" si="1"/>
         <v>1.4451349877469892</v>
       </c>
     </row>
@@ -1391,11 +1393,11 @@
         <v>2.59</v>
       </c>
       <c r="F27" s="7">
-        <f>1000/E27/1.757</f>
+        <f t="shared" si="0"/>
         <v>219.74979288582023</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/D27</f>
+        <f t="shared" si="1"/>
         <v>1.3080344814632157</v>
       </c>
     </row>
@@ -1416,11 +1418,11 @@
         <v>2.66</v>
       </c>
       <c r="F28" s="7">
-        <f>1000/E28/1.757</f>
+        <f t="shared" si="0"/>
         <v>213.96690359935124</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/D28</f>
+        <f t="shared" si="1"/>
         <v>1.9811750333273264</v>
       </c>
     </row>
@@ -1441,11 +1443,11 @@
         <v>2.69</v>
       </c>
       <c r="F29" s="7">
-        <f>1000/E29/1.757</f>
+        <f t="shared" si="0"/>
         <v>211.58065560381945</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/D29</f>
+        <f t="shared" si="1"/>
         <v>1.4693101083598572</v>
       </c>
     </row>
@@ -1466,11 +1468,11 @@
         <v>2.79</v>
       </c>
       <c r="F30" s="7">
-        <f>1000/E30/1.757</f>
+        <f t="shared" si="0"/>
         <v>203.99711956067179</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/D30</f>
+        <f t="shared" si="1"/>
         <v>0.7083233318078882</v>
       </c>
     </row>
@@ -1491,11 +1493,11 @@
         <v>2.82</v>
       </c>
       <c r="F31" s="7">
-        <f>1000/E31/1.757</f>
+        <f t="shared" si="0"/>
         <v>201.82693743768596</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/D31</f>
+        <f t="shared" si="1"/>
         <v>1.0511819658212811</v>
       </c>
     </row>
@@ -1516,11 +1518,11 @@
         <v>2.93</v>
       </c>
       <c r="F32" s="7">
-        <f>1000/E32/1.757</f>
+        <f t="shared" si="0"/>
         <v>194.24981691954756</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/D32</f>
+        <f t="shared" si="1"/>
         <v>1.1562489102354021</v>
       </c>
     </row>
@@ -1541,11 +1543,11 @@
         <v>3.08</v>
       </c>
       <c r="F33" s="7">
-        <f>1000/E33/1.757</f>
+        <f t="shared" si="0"/>
         <v>184.78959856307608</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/D33</f>
+        <f t="shared" si="1"/>
         <v>0.76995666067948365</v>
       </c>
     </row>
@@ -1566,11 +1568,11 @@
         <v>3.74</v>
       </c>
       <c r="F34" s="2">
-        <f>1000/E34/1.757</f>
+        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
         <v>152.1796694048862</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/D34</f>
+        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
         <v>1.0568032597561541</v>
       </c>
     </row>
@@ -1591,11 +1593,11 @@
         <v>3.77</v>
       </c>
       <c r="F35" s="7">
-        <f>1000/E35/1.757</f>
+        <f t="shared" si="2"/>
         <v>150.96869060325579</v>
       </c>
       <c r="G35" s="2">
-        <f>F35/D35</f>
+        <f t="shared" si="3"/>
         <v>1.2580724216937982</v>
       </c>
     </row>
@@ -1616,11 +1618,11 @@
         <v>3.827</v>
       </c>
       <c r="F36" s="7">
-        <f>1000/E36/1.757</f>
+        <f t="shared" si="2"/>
         <v>148.72013681062825</v>
       </c>
       <c r="G36" s="2">
-        <f>F36/D36</f>
+        <f t="shared" si="3"/>
         <v>0.826222982281268</v>
       </c>
     </row>
@@ -1641,11 +1643,11 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="F37" s="7">
-        <f>1000/E37/1.757</f>
+        <f t="shared" si="2"/>
         <v>135.83579082918243</v>
       </c>
       <c r="G37" s="2">
-        <f>F37/D37</f>
+        <f t="shared" si="3"/>
         <v>0.7717942660749002</v>
       </c>
     </row>
@@ -1666,11 +1668,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F38" s="6">
-        <f>1000/E38/1.757</f>
+        <f t="shared" si="2"/>
         <v>129.35271899415326</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/D38</f>
+        <f t="shared" si="3"/>
         <v>0.95112293378053869</v>
       </c>
     </row>
@@ -1691,11 +1693,11 @@
         <v>4.43</v>
       </c>
       <c r="F39" s="7">
-        <f>1000/E39/1.757</f>
+        <f t="shared" si="2"/>
         <v>128.4767412131545</v>
       </c>
       <c r="G39" s="2">
-        <f>F39/D39</f>
+        <f t="shared" si="3"/>
         <v>0.66914969381851297</v>
       </c>
     </row>
@@ -1716,11 +1718,11 @@
         <v>4.57</v>
       </c>
       <c r="F40" s="7">
-        <f>1000/E40/1.757</f>
+        <f t="shared" si="2"/>
         <v>124.54091106658082</v>
       </c>
       <c r="G40" s="2">
-        <f>F40/D40</f>
+        <f t="shared" si="3"/>
         <v>1.1531565839498223</v>
       </c>
     </row>
@@ -1741,11 +1743,11 @@
         <v>4.71</v>
       </c>
       <c r="F41" s="6">
-        <f>1000/E41/1.757</f>
+        <f t="shared" si="2"/>
         <v>120.83905808371006</v>
       </c>
       <c r="G41" s="2">
-        <f>F41/D41</f>
+        <f t="shared" si="3"/>
         <v>0.94405514127898482</v>
       </c>
     </row>
@@ -1766,11 +1768,11 @@
         <v>4.84</v>
       </c>
       <c r="F42" s="7">
-        <f>1000/E42/1.757</f>
+        <f t="shared" si="2"/>
         <v>117.5933809037757</v>
       </c>
       <c r="G42" s="2">
-        <f>F42/D42</f>
+        <f t="shared" si="3"/>
         <v>0.69996060061771248</v>
       </c>
     </row>
@@ -1791,11 +1793,11 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="F43" s="7">
-        <f>1000/E43/1.757</f>
+        <f t="shared" si="2"/>
         <v>113.37688517415825</v>
       </c>
       <c r="G43" s="2">
-        <f>F43/D43</f>
+        <f t="shared" si="3"/>
         <v>0.59050461028207424</v>
       </c>
     </row>
@@ -1816,11 +1818,11 @@
         <v>5.05</v>
       </c>
       <c r="F44" s="6">
-        <f>1000/E44/1.757</f>
+        <f t="shared" si="2"/>
         <v>112.70335912361868</v>
       </c>
       <c r="G44" s="2">
-        <f>F44/D44</f>
+        <f t="shared" si="3"/>
         <v>0.78266221613624087</v>
       </c>
     </row>
@@ -1841,11 +1843,11 @@
         <v>5.21</v>
       </c>
       <c r="F45" s="7">
-        <f>1000/E45/1.757</f>
+        <f t="shared" si="2"/>
         <v>109.24221949602196</v>
       </c>
       <c r="G45" s="2">
-        <f>F45/D45</f>
+        <f t="shared" si="3"/>
         <v>1.3005026130478805</v>
       </c>
     </row>
@@ -1866,11 +1868,11 @@
         <v>5.32</v>
       </c>
       <c r="F46" s="6">
-        <f>1000/E46/1.757</f>
+        <f t="shared" si="2"/>
         <v>106.98345179967562</v>
       </c>
       <c r="G46" s="2">
-        <f>F46/D46</f>
+        <f t="shared" si="3"/>
         <v>1.3372931474959453</v>
       </c>
     </row>
@@ -1891,11 +1893,11 @@
         <v>5.57</v>
       </c>
       <c r="F47" s="6">
-        <f>1000/E47/1.757</f>
+        <f t="shared" si="2"/>
         <v>102.18168107258067</v>
       </c>
       <c r="G47" s="2">
-        <f>F47/D47</f>
+        <f t="shared" si="3"/>
         <v>0.75133589023956382</v>
       </c>
     </row>
@@ -1916,11 +1918,11 @@
         <v>6</v>
       </c>
       <c r="F48" s="7">
-        <f>1000/E48/1.757</f>
+        <f t="shared" si="2"/>
         <v>94.858660595712394</v>
       </c>
       <c r="G48" s="2">
-        <f>F48/D48</f>
+        <f t="shared" si="3"/>
         <v>0.87832093144178147</v>
       </c>
     </row>
@@ -1941,11 +1943,11 @@
         <v>6.38</v>
       </c>
       <c r="F49" s="6">
-        <f>1000/E49/1.757</f>
+        <f t="shared" si="2"/>
         <v>89.208771720105702</v>
       </c>
       <c r="G49" s="2">
-        <f>F49/D49</f>
+        <f t="shared" si="3"/>
         <v>1.1151096465013213</v>
       </c>
     </row>
@@ -1966,11 +1968,11 @@
         <v>6.69</v>
       </c>
       <c r="F50" s="7">
-        <f>1000/E50/1.757</f>
+        <f t="shared" si="2"/>
         <v>85.075031924405735</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/D50</f>
+        <f t="shared" si="3"/>
         <v>0.5907988328083732</v>
       </c>
     </row>
@@ -1991,11 +1993,11 @@
         <v>7.54</v>
       </c>
       <c r="F51" s="7">
-        <f>1000/E51/1.757</f>
+        <f t="shared" si="2"/>
         <v>75.484345301627897</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/D51</f>
+        <f t="shared" si="3"/>
         <v>1.0483936847448319</v>
       </c>
     </row>
@@ -2016,11 +2018,11 @@
         <v>8.11</v>
       </c>
       <c r="F52" s="7">
-        <f>1000/E52/1.757</f>
+        <f t="shared" si="2"/>
         <v>70.179033732956157</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/D52</f>
+        <f t="shared" si="3"/>
         <v>0.58482528110796794</v>
       </c>
     </row>
@@ -2041,11 +2043,11 @@
         <v>8.49</v>
       </c>
       <c r="F53" s="6">
-        <f>1000/E53/1.757</f>
+        <f t="shared" si="2"/>
         <v>67.037922682482261</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/D53</f>
+        <f t="shared" si="3"/>
         <v>0.93108225947892032</v>
       </c>
     </row>
@@ -2066,11 +2068,11 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="F54" s="7">
-        <f>1000/E54/1.757</f>
+        <f t="shared" si="2"/>
         <v>65.344657126782351</v>
       </c>
       <c r="G54" s="2">
-        <f>F54/D54</f>
+        <f t="shared" si="3"/>
         <v>0.90756468231642151</v>
       </c>
     </row>
@@ -2091,11 +2093,11 @@
         <v>9.19</v>
       </c>
       <c r="F55" s="7">
-        <f>1000/E55/1.757</f>
+        <f t="shared" si="2"/>
         <v>61.931660889474905</v>
       </c>
       <c r="G55" s="2">
-        <f>F55/D55</f>
+        <f t="shared" si="3"/>
         <v>0.73728167725565363</v>
       </c>
     </row>
@@ -2116,11 +2118,11 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F56" s="6">
-        <f>1000/E56/1.757</f>
+        <f t="shared" si="2"/>
         <v>61.331030557572667</v>
       </c>
       <c r="G56" s="2">
-        <f>F56/D56</f>
+        <f t="shared" si="3"/>
         <v>0.76663788196965832</v>
       </c>
     </row>
@@ -2141,11 +2143,11 @@
         <v>9.41</v>
       </c>
       <c r="F57" s="8">
-        <f>1000/E57/1.757</f>
+        <f t="shared" si="2"/>
         <v>60.483736830422359</v>
       </c>
       <c r="G57" s="2">
-        <f>F57/D57</f>
+        <f t="shared" si="3"/>
         <v>0.42002595021126637</v>
       </c>
     </row>
@@ -2166,11 +2168,11 @@
         <v>9.49</v>
       </c>
       <c r="F58" s="6">
-        <f>1000/E58/1.757</f>
+        <f t="shared" si="2"/>
         <v>59.973863390334493</v>
       </c>
       <c r="G58" s="2">
-        <f>F58/D58</f>
+        <f t="shared" si="3"/>
         <v>0.46854580773698823</v>
       </c>
     </row>
@@ -2191,11 +2193,11 @@
         <v>10.44</v>
       </c>
       <c r="F59" s="7">
-        <f>1000/E59/1.757</f>
+        <f t="shared" si="2"/>
         <v>54.516471606731265</v>
       </c>
       <c r="G59" s="2">
-        <f>F59/D59</f>
+        <f t="shared" si="3"/>
         <v>0.75717321676015648</v>
       </c>
     </row>
@@ -2216,11 +2218,11 @@
         <v>11.83</v>
       </c>
       <c r="F60" s="7">
-        <f>1000/E60/1.757</f>
+        <f t="shared" si="2"/>
         <v>48.110901401037566</v>
       </c>
       <c r="G60" s="2">
-        <f>F60/D60</f>
+        <f t="shared" si="3"/>
         <v>0.66820696390329948</v>
       </c>
     </row>
@@ -2241,11 +2243,11 @@
         <v>12.2</v>
       </c>
       <c r="F61" s="6">
-        <f>1000/E61/1.757</f>
+        <f t="shared" si="2"/>
         <v>46.651800292973313</v>
       </c>
       <c r="G61" s="2">
-        <f>F61/D61</f>
+        <f t="shared" si="3"/>
         <v>0.58314750366216639</v>
       </c>
     </row>
@@ -2266,11 +2268,11 @@
         <v>14.9</v>
       </c>
       <c r="F62" s="7">
-        <f>1000/E62/1.757</f>
+        <f t="shared" si="2"/>
         <v>38.198118360689556</v>
       </c>
       <c r="G62" s="2">
-        <f>F62/D62</f>
+        <f t="shared" si="3"/>
         <v>0.7957941325143657</v>
       </c>
     </row>
@@ -2291,11 +2293,11 @@
         <v>16.8</v>
       </c>
       <c r="F63" s="6">
-        <f>1000/E63/1.757</f>
+        <f t="shared" si="2"/>
         <v>33.878093069897282</v>
       </c>
       <c r="G63" s="2">
-        <f>F63/D63</f>
+        <f t="shared" si="3"/>
         <v>0.47052907041524006</v>
       </c>
     </row>
@@ -2316,11 +2318,11 @@
         <v>18.329999999999998</v>
       </c>
       <c r="F64" s="7">
-        <f>1000/E64/1.757</f>
+        <f t="shared" si="2"/>
         <v>31.050298067336303</v>
       </c>
       <c r="G64" s="2">
-        <f>F64/D64</f>
+        <f t="shared" si="3"/>
         <v>0.43125413982411531</v>
       </c>
     </row>
@@ -2341,11 +2343,11 @@
         <v>19.02</v>
       </c>
       <c r="F65" s="7">
-        <f>1000/E65/1.757</f>
+        <f t="shared" si="2"/>
         <v>29.923867695808326</v>
       </c>
       <c r="G65" s="2">
-        <f>F65/D65</f>
+        <f t="shared" si="3"/>
         <v>0.4156092735528934</v>
       </c>
     </row>
@@ -2366,11 +2368,11 @@
         <v>25.3</v>
       </c>
       <c r="F66" s="6">
-        <f>1000/E66/1.757</f>
+        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
         <v>22.496125042461436</v>
       </c>
       <c r="G66" s="2">
-        <f>F66/D66</f>
+        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
         <v>0.70300390757691988</v>
       </c>
     </row>
@@ -2391,11 +2393,11 @@
         <v>27.52</v>
       </c>
       <c r="F67" s="6">
-        <f>1000/E67/1.757</f>
+        <f t="shared" si="4"/>
         <v>20.681394025227995</v>
       </c>
       <c r="G67" s="2">
-        <f>F67/D67</f>
+        <f t="shared" si="5"/>
         <v>0.43086237552558321</v>
       </c>
     </row>
@@ -2416,11 +2418,11 @@
         <v>33</v>
       </c>
       <c r="F68" s="6">
-        <f>1000/E68/1.757</f>
+        <f t="shared" si="4"/>
         <v>17.247029199220435</v>
       </c>
       <c r="G68" s="2">
-        <f>F68/D68</f>
+        <f t="shared" si="5"/>
         <v>0.7186262166341848</v>
       </c>
     </row>
@@ -2441,11 +2443,11 @@
         <v>42.9</v>
       </c>
       <c r="F69" s="6">
-        <f>1000/E69/1.757</f>
+        <f t="shared" si="4"/>
         <v>13.266945537861874</v>
       </c>
       <c r="G69" s="2">
-        <f>F69/D69</f>
+        <f t="shared" si="5"/>
         <v>0.41459204805818356</v>
       </c>
     </row>
@@ -2466,11 +2468,11 @@
         <v>53.4</v>
       </c>
       <c r="F70" s="6">
-        <f>1000/E70/1.757</f>
+        <f t="shared" si="4"/>
         <v>10.65827647142836</v>
       </c>
       <c r="G70" s="2">
-        <f>F70/D70</f>
+        <f t="shared" si="5"/>
         <v>0.44409485297618168</v>
       </c>
     </row>
@@ -2491,11 +2493,11 @@
         <v>67</v>
       </c>
       <c r="F71" s="4">
-        <f>1000/E71/1.757</f>
+        <f t="shared" si="4"/>
         <v>8.4948054264817063</v>
       </c>
       <c r="G71" s="2">
-        <f>F71/D71</f>
+        <f t="shared" si="5"/>
         <v>0.53092533915510665</v>
       </c>
     </row>
@@ -2516,11 +2518,11 @@
         <v>71.900000000000006</v>
       </c>
       <c r="F72" s="4">
-        <f>1000/E72/1.757</f>
+        <f t="shared" si="4"/>
         <v>7.9158826644544416</v>
       </c>
       <c r="G72" s="2">
-        <f>F72/D72</f>
+        <f t="shared" si="5"/>
         <v>0.4947426665284026</v>
       </c>
     </row>
@@ -2541,11 +2543,11 @@
         <v>73.599999999999994</v>
       </c>
       <c r="F73" s="4">
-        <f>1000/E73/1.757</f>
+        <f t="shared" si="4"/>
         <v>7.7330429833461194</v>
       </c>
       <c r="G73" s="2">
-        <f>F73/D73</f>
+        <f t="shared" si="5"/>
         <v>0.12888404972243533</v>
       </c>
     </row>
@@ -2566,11 +2568,11 @@
         <v>74</v>
       </c>
       <c r="F74" s="4">
-        <f>1000/E74/1.757</f>
+        <f t="shared" si="4"/>
         <v>7.691242751003708</v>
       </c>
       <c r="G74" s="2">
-        <f>F74/D74</f>
+        <f t="shared" si="5"/>
         <v>0.48070267193773175</v>
       </c>
     </row>
@@ -2591,11 +2593,11 @@
         <v>78</v>
       </c>
       <c r="F75" s="4">
-        <f>1000/E75/1.757</f>
+        <f t="shared" si="4"/>
         <v>7.2968200458240311</v>
       </c>
       <c r="G75" s="2">
-        <f>F75/D75</f>
+        <f t="shared" si="5"/>
         <v>0.36484100229120153</v>
       </c>
     </row>
@@ -2662,11 +2664,11 @@
         <v>85.5</v>
       </c>
       <c r="F78" s="4">
-        <f>1000/E78/1.757</f>
+        <f t="shared" ref="F78:F83" si="6">1000/E78/1.757</f>
         <v>6.6567481119798169</v>
       </c>
       <c r="G78" s="2">
-        <f>F78/D78</f>
+        <f t="shared" ref="G78:G83" si="7">F78/D78</f>
         <v>0.11094580186633028</v>
       </c>
     </row>
@@ -2687,11 +2689,11 @@
         <v>93.5</v>
       </c>
       <c r="F79" s="4">
-        <f>1000/E79/1.757</f>
+        <f t="shared" si="6"/>
         <v>6.0871867761954475</v>
       </c>
       <c r="G79" s="2">
-        <f>F79/D79</f>
+        <f t="shared" si="7"/>
         <v>0.38044917351221547</v>
       </c>
     </row>
@@ -2712,11 +2714,11 @@
         <v>107.1</v>
       </c>
       <c r="F80" s="3">
-        <f>1000/E80/1.757</f>
+        <f t="shared" si="6"/>
         <v>5.314210677630947</v>
       </c>
       <c r="G80" s="2">
-        <f>F80/D80</f>
+        <f t="shared" si="7"/>
         <v>0.33213816735193419</v>
       </c>
     </row>
@@ -2737,11 +2739,11 @@
         <v>107.2</v>
       </c>
       <c r="F81" s="3">
-        <f>1000/E81/1.757</f>
+        <f t="shared" si="6"/>
         <v>5.3092533915510671</v>
       </c>
       <c r="G81" s="2">
-        <f>F81/D81</f>
+        <f t="shared" si="7"/>
         <v>0.3318283369719417</v>
       </c>
     </row>
@@ -2762,11 +2764,11 @@
         <v>108.1</v>
       </c>
       <c r="F82" s="3">
-        <f>1000/E82/1.757</f>
+        <f t="shared" si="6"/>
         <v>5.265050541852677</v>
       </c>
       <c r="G82" s="2">
-        <f>F82/D82</f>
+        <f t="shared" si="7"/>
         <v>0.32906565886579231</v>
       </c>
     </row>
@@ -2787,11 +2789,11 @@
         <v>121</v>
       </c>
       <c r="F83" s="3">
-        <f>1000/E83/1.757</f>
+        <f t="shared" si="6"/>
         <v>4.7037352361510276</v>
       </c>
       <c r="G83" s="2">
-        <f>F83/D83</f>
+        <f t="shared" si="7"/>
         <v>0.29398345225943923</v>
       </c>
     </row>
@@ -3037,6 +3039,31 @@
       <c r="P92" s="2">
         <f>O92/M92</f>
         <v>0.53962375187184686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93" s="1">
+        <v>144</v>
+      </c>
+      <c r="N93" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="O93" s="2">
+        <f>1000/N93/1.757</f>
+        <v>170.40477951325579</v>
+      </c>
+      <c r="P93" s="2">
+        <f>O93/M93</f>
+        <v>1.1833665243976097</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300E8BE-DA8C-451F-8076-4F5A3A59A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB5B4C-3FA9-4FB4-A2D7-DC0A2D428927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="-110" windowWidth="24770" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>MCU</t>
   </si>
@@ -339,19 +339,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N32G455REL7(LATENCY=4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N32G455REL7(LATENCY=3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N32G455REL7(LATENCY=2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N32G455REL7(LATENCY=4, oc)</t>
+    <t>N32G455REL7(oc)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,26 +697,32 @@
   <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" customWidth="1"/>
-    <col min="9" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.9140625" style="1"/>
+    <col min="10" max="10" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,15 +762,15 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">1000/E2/1.757</f>
+        <f>1000/E2/1.757</f>
         <v>24322.733486080102</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G33" si="1">F2/D2</f>
+        <f>F2/D2</f>
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,15 +787,15 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E3/1.757</f>
         <v>11383.039271485488</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>F3/D3</f>
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,15 +812,15 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E4/1.757</f>
         <v>1729.9451780373081</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>F4/D4</f>
         <v>2.1624314725466349</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -843,15 +837,15 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E5/1.757</f>
         <v>1412.2877508046511</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>F5/D5</f>
         <v>2.9422661475096898</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -868,15 +862,15 @@
         <v>0.61</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E6/1.757</f>
         <v>933.03600585946617</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>F6/D6</f>
         <v>1.9438250122072211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,15 +887,15 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E7/1.757</f>
         <v>833.31180611167554</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>F7/D7</f>
         <v>1.0416397576395944</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -918,15 +912,15 @@
         <v>1.08</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E8/1.757</f>
         <v>526.99255886506887</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>F8/D8</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -943,15 +937,15 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E9/1.757</f>
         <v>494.91475093415164</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>F9/D9</f>
         <v>1.3448770405819339</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -968,15 +962,15 @@
         <v>1.21</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E10/1.757</f>
         <v>470.37352361510278</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>F10/D10</f>
         <v>1.3065931211530633</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -993,15 +987,15 @@
         <v>1.232</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E11/1.757</f>
         <v>461.97399640769027</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f>F11/D11</f>
         <v>1.4436687387740321</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,15 +1012,15 @@
         <v>1.4</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E12/1.757</f>
         <v>406.53711683876742</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f>F12/D12</f>
         <v>1.4946217530837038</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1043,15 +1037,15 @@
         <v>1.49</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E13/1.757</f>
         <v>381.98118360689551</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>F13/D13</f>
         <v>1.9894853312859142</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -1068,15 +1062,15 @@
         <v>1.54</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E14/1.757</f>
         <v>369.57919712615217</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f>F14/D14</f>
         <v>1.2832611011324728</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,15 +1087,15 @@
         <v>1.59</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E15/1.757</f>
         <v>357.95720979514107</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f>F15/D15</f>
         <v>1.4914883741464211</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
@@ -1118,15 +1112,15 @@
         <v>1.71</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E16/1.757</f>
         <v>332.83740559899087</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f>F16/D16</f>
         <v>1.1556854361076072</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,15 +1137,15 @@
         <v>1.76</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E17/1.757</f>
         <v>323.38179748538312</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f>F17/D17</f>
         <v>1.1549349910192255</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1168,15 +1162,15 @@
         <v>1.8</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E18/1.757</f>
         <v>316.19553531904131</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f>F18/D18</f>
         <v>1.1292697689965761</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1193,15 +1187,15 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E19/1.757</f>
         <v>313.7552169648701</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f>F19/D19</f>
         <v>1.3073134040202921</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1218,15 +1212,15 @@
         <v>1.85</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E20/1.757</f>
         <v>307.64971004014831</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f>F20/D20</f>
         <v>1.47908514442379</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -1243,15 +1237,15 @@
         <v>2.06</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E21/1.757</f>
         <v>276.28736095838559</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f>F21/D21</f>
         <v>1.1511973373266067</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -1268,17 +1262,17 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E22/1.757</f>
         <v>274.95263940786202</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f>F22/D22</f>
         <v>0.74715391143440768</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -1293,15 +1287,15 @@
         <v>2.12</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E23/1.757</f>
         <v>268.46790734635579</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f>F23/D23</f>
         <v>1.0487027630717023</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,15 +1312,15 @@
         <v>2.15</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E24/1.757</f>
         <v>264.72184352291833</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f>F24/D24</f>
         <v>1.5041013836529451</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1343,15 +1337,15 @@
         <v>2.16</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="0"/>
+        <f>1000/E25/1.757</f>
         <v>263.49627943253444</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f>F25/D25</f>
         <v>1.3174813971626722</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1368,15 +1362,15 @@
         <v>2.1880000000000002</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E26/1.757</f>
         <v>260.12429779445807</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f>F26/D26</f>
         <v>1.4451349877469892</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,15 +1387,15 @@
         <v>2.59</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E27/1.757</f>
         <v>219.74979288582023</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f>F27/D27</f>
         <v>1.3080344814632157</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,15 +1412,15 @@
         <v>2.66</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E28/1.757</f>
         <v>213.96690359935124</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f>F28/D28</f>
         <v>1.9811750333273264</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1443,15 +1437,15 @@
         <v>2.69</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E29/1.757</f>
         <v>211.58065560381945</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
+        <f>F29/D29</f>
         <v>1.4693101083598572</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1468,15 +1462,15 @@
         <v>2.79</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E30/1.757</f>
         <v>203.99711956067179</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f>F30/D30</f>
         <v>0.7083233318078882</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1493,15 +1487,15 @@
         <v>2.82</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E31/1.757</f>
         <v>201.82693743768596</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f>F31/D31</f>
         <v>1.0511819658212811</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,15 +1512,15 @@
         <v>2.93</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E32/1.757</f>
         <v>194.24981691954756</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f>F32/D32</f>
         <v>1.1562489102354021</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1543,17 +1537,17 @@
         <v>3.08</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
+        <f>1000/E33/1.757</f>
         <v>184.78959856307608</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f>F33/D33</f>
         <v>0.76995666067948365</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -1567,16 +1561,15 @@
       <c r="E34" s="2">
         <v>3.74</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" ref="F34:F65" si="2">1000/E34/1.757</f>
-        <v>152.1796694048862</v>
+      <c r="F34" s="6">
+        <v>152</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G65" si="3">F34/D34</f>
-        <v>1.0568032597561541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <f>F34/D34</f>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,15 +1586,15 @@
         <v>3.77</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E35/1.757</f>
         <v>150.96869060325579</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
+        <f>F35/D35</f>
         <v>1.2580724216937982</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1618,15 +1611,15 @@
         <v>3.827</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E36/1.757</f>
         <v>148.72013681062825</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
+        <f>F36/D36</f>
         <v>0.826222982281268</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1643,15 +1636,15 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E37/1.757</f>
         <v>135.83579082918243</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
+        <f>F37/D37</f>
         <v>0.7717942660749002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1668,15 +1661,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E38/1.757</f>
         <v>129.35271899415326</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
+        <f>F38/D38</f>
         <v>0.95112293378053869</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1693,15 +1686,15 @@
         <v>4.43</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E39/1.757</f>
         <v>128.4767412131545</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f>F39/D39</f>
         <v>0.66914969381851297</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1718,15 +1711,15 @@
         <v>4.57</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E40/1.757</f>
         <v>124.54091106658082</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="3"/>
+        <f>F40/D40</f>
         <v>1.1531565839498223</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1743,15 +1736,15 @@
         <v>4.71</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E41/1.757</f>
         <v>120.83905808371006</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="3"/>
+        <f>F41/D41</f>
         <v>0.94405514127898482</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -1768,15 +1761,15 @@
         <v>4.84</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E42/1.757</f>
         <v>117.5933809037757</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="3"/>
+        <f>F42/D42</f>
         <v>0.69996060061771248</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1793,15 +1786,15 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E43/1.757</f>
         <v>113.37688517415825</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="3"/>
+        <f>F43/D43</f>
         <v>0.59050461028207424</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -1818,15 +1811,15 @@
         <v>5.05</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E44/1.757</f>
         <v>112.70335912361868</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="3"/>
+        <f>F44/D44</f>
         <v>0.78266221613624087</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,15 +1836,15 @@
         <v>5.21</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E45/1.757</f>
         <v>109.24221949602196</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
+        <f>F45/D45</f>
         <v>1.3005026130478805</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1868,15 +1861,15 @@
         <v>5.32</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E46/1.757</f>
         <v>106.98345179967562</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f>F46/D46</f>
         <v>1.3372931474959453</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -1893,15 +1886,15 @@
         <v>5.57</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E47/1.757</f>
         <v>102.18168107258067</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="3"/>
+        <f>F47/D47</f>
         <v>0.75133589023956382</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -1918,15 +1911,15 @@
         <v>6</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E48/1.757</f>
         <v>94.858660595712394</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="3"/>
+        <f>F48/D48</f>
         <v>0.87832093144178147</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -1943,15 +1936,15 @@
         <v>6.38</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E49/1.757</f>
         <v>89.208771720105702</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="3"/>
+        <f>F49/D49</f>
         <v>1.1151096465013213</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -1968,15 +1961,15 @@
         <v>6.69</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E50/1.757</f>
         <v>85.075031924405735</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="3"/>
+        <f>F50/D50</f>
         <v>0.5907988328083732</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
@@ -1993,15 +1986,15 @@
         <v>7.54</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E51/1.757</f>
         <v>75.484345301627897</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="3"/>
+        <f>F51/D51</f>
         <v>1.0483936847448319</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2018,15 +2011,15 @@
         <v>8.11</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E52/1.757</f>
         <v>70.179033732956157</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="3"/>
+        <f>F52/D52</f>
         <v>0.58482528110796794</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -2043,15 +2036,15 @@
         <v>8.49</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E53/1.757</f>
         <v>67.037922682482261</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="3"/>
+        <f>F53/D53</f>
         <v>0.93108225947892032</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -2068,15 +2061,15 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E54/1.757</f>
         <v>65.344657126782351</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="3"/>
+        <f>F54/D54</f>
         <v>0.90756468231642151</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,15 +2086,15 @@
         <v>9.19</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E55/1.757</f>
         <v>61.931660889474905</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="3"/>
+        <f>F55/D55</f>
         <v>0.73728167725565363</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2118,15 +2111,15 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E56/1.757</f>
         <v>61.331030557572667</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="3"/>
+        <f>F56/D56</f>
         <v>0.76663788196965832</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2143,15 +2136,15 @@
         <v>9.41</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="2"/>
+        <f>1000/E57/1.757</f>
         <v>60.483736830422359</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="3"/>
+        <f>F57/D57</f>
         <v>0.42002595021126637</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
@@ -2168,15 +2161,15 @@
         <v>9.49</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E58/1.757</f>
         <v>59.973863390334493</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="3"/>
+        <f>F58/D58</f>
         <v>0.46854580773698823</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -2193,15 +2186,15 @@
         <v>10.44</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E59/1.757</f>
         <v>54.516471606731265</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="3"/>
+        <f>F59/D59</f>
         <v>0.75717321676015648</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -2218,15 +2211,15 @@
         <v>11.83</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E60/1.757</f>
         <v>48.110901401037566</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="3"/>
+        <f>F60/D60</f>
         <v>0.66820696390329948</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -2243,15 +2236,15 @@
         <v>12.2</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E61/1.757</f>
         <v>46.651800292973313</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="3"/>
+        <f>F61/D61</f>
         <v>0.58314750366216639</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,15 +2261,15 @@
         <v>14.9</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E62/1.757</f>
         <v>38.198118360689556</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="3"/>
+        <f>F62/D62</f>
         <v>0.7957941325143657</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -2293,15 +2286,15 @@
         <v>16.8</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="2"/>
+        <f>1000/E63/1.757</f>
         <v>33.878093069897282</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
+        <f>F63/D63</f>
         <v>0.47052907041524006</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -2318,15 +2311,15 @@
         <v>18.329999999999998</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E64/1.757</f>
         <v>31.050298067336303</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="3"/>
+        <f>F64/D64</f>
         <v>0.43125413982411531</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
@@ -2343,15 +2336,15 @@
         <v>19.02</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="2"/>
+        <f>1000/E65/1.757</f>
         <v>29.923867695808326</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="3"/>
+        <f>F65/D65</f>
         <v>0.4156092735528934</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
@@ -2368,15 +2361,15 @@
         <v>25.3</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F97" si="4">1000/E66/1.757</f>
+        <f>1000/E66/1.757</f>
         <v>22.496125042461436</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G97" si="5">F66/D66</f>
+        <f>F66/D66</f>
         <v>0.70300390757691988</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,15 +2386,15 @@
         <v>27.52</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="4"/>
+        <f>1000/E67/1.757</f>
         <v>20.681394025227995</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="5"/>
+        <f>F67/D67</f>
         <v>0.43086237552558321</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,15 +2411,15 @@
         <v>33</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="4"/>
+        <f>1000/E68/1.757</f>
         <v>17.247029199220435</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="5"/>
+        <f>F68/D68</f>
         <v>0.7186262166341848</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
@@ -2443,15 +2436,15 @@
         <v>42.9</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="4"/>
+        <f>1000/E69/1.757</f>
         <v>13.266945537861874</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="5"/>
+        <f>F69/D69</f>
         <v>0.41459204805818356</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2468,15 +2461,15 @@
         <v>53.4</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="4"/>
+        <f>1000/E70/1.757</f>
         <v>10.65827647142836</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="5"/>
+        <f>F70/D70</f>
         <v>0.44409485297618168</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,15 +2486,15 @@
         <v>67</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E71/1.757</f>
         <v>8.4948054264817063</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="5"/>
+        <f>F71/D71</f>
         <v>0.53092533915510665</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
@@ -2518,15 +2511,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E72/1.757</f>
         <v>7.9158826644544416</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="5"/>
+        <f>F72/D72</f>
         <v>0.4947426665284026</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
@@ -2543,15 +2536,15 @@
         <v>73.599999999999994</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E73/1.757</f>
         <v>7.7330429833461194</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="5"/>
+        <f>F73/D73</f>
         <v>0.12888404972243533</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -2568,15 +2561,15 @@
         <v>74</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E74/1.757</f>
         <v>7.691242751003708</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="5"/>
+        <f>F74/D74</f>
         <v>0.48070267193773175</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
@@ -2593,15 +2586,15 @@
         <v>78</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="4"/>
+        <f>1000/E75/1.757</f>
         <v>7.2968200458240311</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="5"/>
+        <f>F75/D75</f>
         <v>0.36484100229120153</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -2624,7 +2617,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -2647,7 +2640,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>44</v>
       </c>
@@ -2664,15 +2657,15 @@
         <v>85.5</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" ref="F78:F83" si="6">1000/E78/1.757</f>
+        <f>1000/E78/1.757</f>
         <v>6.6567481119798169</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" ref="G78:G83" si="7">F78/D78</f>
+        <f>F78/D78</f>
         <v>0.11094580186633028</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>45</v>
       </c>
@@ -2689,15 +2682,15 @@
         <v>93.5</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="6"/>
+        <f>1000/E79/1.757</f>
         <v>6.0871867761954475</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="7"/>
+        <f>F79/D79</f>
         <v>0.38044917351221547</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -2714,15 +2707,15 @@
         <v>107.1</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="6"/>
+        <f>1000/E80/1.757</f>
         <v>5.314210677630947</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="7"/>
+        <f>F80/D80</f>
         <v>0.33213816735193419</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -2739,15 +2732,15 @@
         <v>107.2</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="6"/>
+        <f>1000/E81/1.757</f>
         <v>5.3092533915510671</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="7"/>
+        <f>F81/D81</f>
         <v>0.3318283369719417</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -2764,15 +2757,15 @@
         <v>108.1</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="6"/>
+        <f>1000/E82/1.757</f>
         <v>5.265050541852677</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="7"/>
+        <f>F82/D82</f>
         <v>0.32906565886579231</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>27</v>
       </c>
@@ -2789,15 +2782,15 @@
         <v>121</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="6"/>
+        <f>1000/E83/1.757</f>
         <v>4.7037352361510276</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="7"/>
+        <f>F83/D83</f>
         <v>0.29398345225943923</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>71</v>
       </c>
@@ -2820,7 +2813,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>71</v>
       </c>
@@ -2843,7 +2836,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>9.3364823420976781E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,7 +2886,7 @@
         <v>4.0285388135211944E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
@@ -2917,154 +2910,34 @@
         <f>F88/D88</f>
         <v>4.0239816429176636E-2</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M88" s="1">
-        <v>32</v>
-      </c>
-      <c r="N88" s="2">
-        <v>13.87</v>
-      </c>
-      <c r="O88" s="2">
-        <f>1000/N88/1.757</f>
-        <v>41.034748635492029</v>
-      </c>
-      <c r="P88" s="2">
-        <f>O88/M88</f>
-        <v>1.2823358948591259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M89" s="1">
-        <v>144</v>
-      </c>
-      <c r="N89" s="2">
-        <v>7.32</v>
-      </c>
-      <c r="O89" s="2">
-        <f>1000/N89/1.757</f>
-        <v>77.753000488288833</v>
-      </c>
-      <c r="P89" s="2">
-        <f>O89/M89</f>
-        <v>0.53995139227978362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M90" s="1">
-        <v>144</v>
-      </c>
-      <c r="N90" s="2">
-        <v>6</v>
-      </c>
-      <c r="O90" s="2">
-        <f>1000/N90/1.757</f>
-        <v>94.858660595712394</v>
-      </c>
-      <c r="P90" s="2">
-        <f>O90/M90</f>
-        <v>0.6587406985813361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M91" s="1">
-        <v>144</v>
-      </c>
-      <c r="N91" s="2">
-        <v>4.72</v>
-      </c>
-      <c r="O91" s="2">
-        <f>1000/N91/1.757</f>
-        <v>120.58304313014288</v>
-      </c>
-      <c r="P91" s="2">
-        <f>O91/M91</f>
-        <v>0.83738224395932559</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M92" s="1">
-        <v>256</v>
-      </c>
-      <c r="N92" s="2">
-        <v>4.12</v>
-      </c>
-      <c r="O92" s="2">
-        <f>1000/N92/1.757</f>
-        <v>138.1436804791928</v>
-      </c>
-      <c r="P92" s="2">
-        <f>O92/M92</f>
-        <v>0.53962375187184686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M93" s="1">
-        <v>144</v>
-      </c>
-      <c r="N93" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="O93" s="2">
-        <f>1000/N93/1.757</f>
-        <v>170.40477951325579</v>
-      </c>
-      <c r="P93" s="2">
-        <f>O93/M93</f>
-        <v>1.1833665243976097</v>
-      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\__my_github\dhrystone_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB5B4C-3FA9-4FB4-A2D7-DC0A2D428927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8BBDD84F-20CC-4D29-A4BF-71EC9BCBF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="-110" windowWidth="24770" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="94">
   <si>
     <t>MCU</t>
   </si>
@@ -340,6 +340,22 @@
   </si>
   <si>
     <t>N32G455REL7(oc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD32H737VMT6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cortex-M7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Os</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -347,10 +363,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -395,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +434,9 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,35 +714,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.9140625" style="1"/>
-    <col min="10" max="10" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="33.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.9140625" style="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +755,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -745,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -758,7 +778,7 @@
       <c r="D2" s="1">
         <v>4350</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="F2" s="7">
@@ -770,7 +790,7 @@
         <v>5.5914329853057705</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,7 +803,7 @@
       <c r="D3" s="1">
         <v>4350</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>0.05</v>
       </c>
       <c r="F3" s="7">
@@ -795,62 +815,62 @@
         <v>2.6167906371231004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
-        <v>800</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="F4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.249</v>
+      </c>
+      <c r="F4" s="7">
         <f>1000/E4/1.757</f>
-        <v>1729.9451780373081</v>
+        <v>2285.7508577280096</v>
       </c>
       <c r="G4" s="2">
         <f>F4/D4</f>
-        <v>2.1624314725466349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.2857508577280097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1">
-        <v>480</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.40300000000000002</v>
+        <v>800</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32900000000000001</v>
       </c>
       <c r="F5" s="6">
         <f>1000/E5/1.757</f>
-        <v>1412.2877508046511</v>
+        <v>1729.9451780373081</v>
       </c>
       <c r="G5" s="2">
         <f>F5/D5</f>
-        <v>2.9422661475096898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.1624314725466349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -858,221 +878,221 @@
       <c r="D6" s="1">
         <v>480</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.61</v>
+      <c r="E6" s="9">
+        <v>0.40300000000000002</v>
       </c>
       <c r="F6" s="6">
         <f>1000/E6/1.757</f>
-        <v>933.03600585946617</v>
+        <v>1412.2877508046511</v>
       </c>
       <c r="G6" s="2">
         <f>F6/D6</f>
-        <v>1.9438250122072211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.9422661475096898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
-        <v>800</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="F7" s="6">
+        <v>600</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F7" s="7">
         <f>1000/E7/1.757</f>
-        <v>833.31180611167554</v>
+        <v>1371.4505146368058</v>
       </c>
       <c r="G7" s="2">
         <f>F7/D7</f>
-        <v>1.0416397576395944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.2857508577280097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1">
-        <v>400</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="F8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="F8" s="7">
         <f>1000/E8/1.757</f>
-        <v>526.99255886506887</v>
+        <v>1355.1237227958916</v>
       </c>
       <c r="G8" s="2">
         <f>F8/D8</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3551237227958917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1">
-        <v>368</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F9" s="7">
+        <v>480</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="F9" s="6">
         <f>1000/E9/1.757</f>
-        <v>494.91475093415164</v>
+        <v>933.03600585946617</v>
       </c>
       <c r="G9" s="2">
         <f>F9/D9</f>
-        <v>1.3448770405819339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.9438250122072211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1">
-        <v>360</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="F10" s="7">
+        <v>800</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F10" s="6">
         <f>1000/E10/1.757</f>
-        <v>470.37352361510278</v>
+        <v>833.31180611167554</v>
       </c>
       <c r="G10" s="2">
         <f>F10/D10</f>
-        <v>1.3065931211530633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.0416397576395944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1">
-        <v>320</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.232</v>
+        <v>600</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.70099999999999996</v>
       </c>
       <c r="F11" s="7">
         <f>1000/E11/1.757</f>
-        <v>461.97399640769027</v>
+        <v>811.91435602606896</v>
       </c>
       <c r="G11" s="2">
         <f>F11/D11</f>
-        <v>1.4436687387740321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3531905933767816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
-        <v>272</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F12" s="7">
+        <v>400</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="F12" s="6">
         <f>1000/E12/1.757</f>
-        <v>406.53711683876742</v>
+        <v>526.99255886506887</v>
       </c>
       <c r="G12" s="2">
         <f>F12/D12</f>
-        <v>1.4946217530837038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>192</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.49</v>
+        <v>368</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F13" s="7">
         <f>1000/E13/1.757</f>
-        <v>381.98118360689551</v>
+        <v>494.91475093415164</v>
       </c>
       <c r="G13" s="2">
         <f>F13/D13</f>
-        <v>1.9894853312859142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3448770405819339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
-        <v>288</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.54</v>
+        <v>360</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.21</v>
       </c>
       <c r="F14" s="7">
         <f>1000/E14/1.757</f>
-        <v>369.57919712615217</v>
+        <v>470.37352361510278</v>
       </c>
       <c r="G14" s="2">
         <f>F14/D14</f>
-        <v>1.2832611011324728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3065931211530633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1081,1225 +1101,1225 @@
         <v>50</v>
       </c>
       <c r="D15" s="1">
-        <v>240</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.59</v>
+        <v>320</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.232</v>
       </c>
       <c r="F15" s="7">
         <f>1000/E15/1.757</f>
-        <v>357.95720979514107</v>
+        <v>461.97399640769027</v>
       </c>
       <c r="G15" s="2">
         <f>F15/D15</f>
-        <v>1.4914883741464211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.4436687387740321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1">
-        <v>288</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.71</v>
+        <v>272</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.4</v>
       </c>
       <c r="F16" s="7">
         <f>1000/E16/1.757</f>
-        <v>332.83740559899087</v>
+        <v>406.53711683876742</v>
       </c>
       <c r="G16" s="2">
         <f>F16/D16</f>
-        <v>1.1556854361076072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.4946217530837038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1">
-        <v>280</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.76</v>
+        <v>192</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.49</v>
       </c>
       <c r="F17" s="7">
         <f>1000/E17/1.757</f>
-        <v>323.38179748538312</v>
+        <v>381.98118360689551</v>
       </c>
       <c r="G17" s="2">
         <f>F17/D17</f>
-        <v>1.1549349910192255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.9894853312859142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1">
-        <v>280</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.8</v>
+        <v>288</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.54</v>
       </c>
       <c r="F18" s="7">
         <f>1000/E18/1.757</f>
-        <v>316.19553531904131</v>
+        <v>369.57919712615217</v>
       </c>
       <c r="G18" s="2">
         <f>F18/D18</f>
-        <v>1.1292697689965761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.2832611011324728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>240</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.8140000000000001</v>
+      <c r="E19" s="9">
+        <v>1.59</v>
       </c>
       <c r="F19" s="7">
         <f>1000/E19/1.757</f>
-        <v>313.7552169648701</v>
+        <v>357.95720979514107</v>
       </c>
       <c r="G19" s="2">
         <f>F19/D19</f>
-        <v>1.3073134040202921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.4914883741464211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1">
-        <v>208</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.85</v>
+        <v>288</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.71</v>
       </c>
       <c r="F20" s="7">
         <f>1000/E20/1.757</f>
-        <v>307.64971004014831</v>
+        <v>332.83740559899087</v>
       </c>
       <c r="G20" s="2">
         <f>F20/D20</f>
-        <v>1.47908514442379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1556854361076072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1">
-        <v>240</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.06</v>
+        <v>280</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.76</v>
       </c>
       <c r="F21" s="7">
         <f>1000/E21/1.757</f>
-        <v>276.28736095838559</v>
+        <v>323.38179748538312</v>
       </c>
       <c r="G21" s="2">
         <f>F21/D21</f>
-        <v>1.1511973373266067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1549349910192255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
-        <v>368</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.0699999999999998</v>
+        <v>280</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.8</v>
       </c>
       <c r="F22" s="7">
         <f>1000/E22/1.757</f>
-        <v>274.95263940786202</v>
+        <v>316.19553531904131</v>
       </c>
       <c r="G22" s="2">
         <f>F22/D22</f>
-        <v>0.74715391143440768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.1292697689965761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1">
-        <v>256</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="F23" s="6">
+        <v>240</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="F23" s="7">
         <f>1000/E23/1.757</f>
-        <v>268.46790734635579</v>
+        <v>313.7552169648701</v>
       </c>
       <c r="G23" s="2">
         <f>F23/D23</f>
-        <v>1.0487027630717023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3073134040202921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
-        <v>176</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2.15</v>
+        <v>208</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.85</v>
       </c>
       <c r="F24" s="7">
         <f>1000/E24/1.757</f>
-        <v>264.72184352291833</v>
+        <v>307.64971004014831</v>
       </c>
       <c r="G24" s="2">
         <f>F24/D24</f>
-        <v>1.5041013836529451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.47908514442379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1">
-        <v>200</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.16</v>
-      </c>
-      <c r="F25" s="6">
+        <v>240</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="F25" s="7">
         <f>1000/E25/1.757</f>
-        <v>263.49627943253444</v>
+        <v>276.28736095838559</v>
       </c>
       <c r="G25" s="2">
         <f>F25/D25</f>
-        <v>1.3174813971626722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1511973373266067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1">
-        <v>180</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.1880000000000002</v>
+        <v>368</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2.0699999999999998</v>
       </c>
       <c r="F26" s="7">
         <f>1000/E26/1.757</f>
-        <v>260.12429779445807</v>
+        <v>274.95263940786202</v>
       </c>
       <c r="G26" s="2">
         <f>F26/D26</f>
-        <v>1.4451349877469892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.74715391143440768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1">
-        <v>168</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="F27" s="7">
+        <v>256</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="F27" s="6">
         <f>1000/E27/1.757</f>
-        <v>219.74979288582023</v>
+        <v>268.46790734635579</v>
       </c>
       <c r="G27" s="2">
         <f>F27/D27</f>
-        <v>1.3080344814632157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.0487027630717023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
-        <v>108</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.66</v>
+        <v>176</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2.15</v>
       </c>
       <c r="F28" s="7">
         <f>1000/E28/1.757</f>
-        <v>213.96690359935124</v>
+        <v>264.72184352291833</v>
       </c>
       <c r="G28" s="2">
         <f>F28/D28</f>
-        <v>1.9811750333273264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.5041013836529451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="F29" s="7">
+        <v>200</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.16</v>
+      </c>
+      <c r="F29" s="6">
         <f>1000/E29/1.757</f>
-        <v>211.58065560381945</v>
+        <v>263.49627943253444</v>
       </c>
       <c r="G29" s="2">
         <f>F29/D29</f>
-        <v>1.4693101083598572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3174813971626722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1">
-        <v>288</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.79</v>
+        <v>180</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2.1880000000000002</v>
       </c>
       <c r="F30" s="7">
         <f>1000/E30/1.757</f>
-        <v>203.99711956067179</v>
+        <v>260.12429779445807</v>
       </c>
       <c r="G30" s="2">
         <f>F30/D30</f>
-        <v>0.7083233318078882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.4451349877469892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
-        <v>192</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2.82</v>
+        <v>168</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2.59</v>
       </c>
       <c r="F31" s="7">
         <f>1000/E31/1.757</f>
-        <v>201.82693743768596</v>
+        <v>219.74979288582023</v>
       </c>
       <c r="G31" s="2">
         <f>F31/D31</f>
-        <v>1.0511819658212811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3080344814632157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1">
-        <v>168</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2.93</v>
+        <v>108</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2.66</v>
       </c>
       <c r="F32" s="7">
         <f>1000/E32/1.757</f>
-        <v>194.24981691954756</v>
+        <v>213.96690359935124</v>
       </c>
       <c r="G32" s="2">
         <f>F32/D32</f>
-        <v>1.1562489102354021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.9811750333273264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1">
-        <v>240</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3.08</v>
+        <v>144</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2.69</v>
       </c>
       <c r="F33" s="7">
         <f>1000/E33/1.757</f>
-        <v>184.78959856307608</v>
+        <v>211.58065560381945</v>
       </c>
       <c r="G33" s="2">
         <f>F33/D33</f>
-        <v>0.76995666067948365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.4693101083598572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="1">
-        <v>144</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3.74</v>
-      </c>
-      <c r="F34" s="6">
-        <v>152</v>
+        <v>288</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2.79</v>
+      </c>
+      <c r="F34" s="7">
+        <f>1000/E34/1.757</f>
+        <v>203.99711956067179</v>
       </c>
       <c r="G34" s="2">
         <f>F34/D34</f>
-        <v>1.0555555555555556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.7083233318078882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.77</v>
+        <v>192</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2.82</v>
       </c>
       <c r="F35" s="7">
         <f>1000/E35/1.757</f>
-        <v>150.96869060325579</v>
+        <v>201.82693743768596</v>
       </c>
       <c r="G35" s="2">
         <f>F35/D35</f>
-        <v>1.2580724216937982</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.0511819658212811</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
-        <v>180</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3.827</v>
+        <v>168</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2.93</v>
       </c>
       <c r="F36" s="7">
         <f>1000/E36/1.757</f>
-        <v>148.72013681062825</v>
+        <v>194.24981691954756</v>
       </c>
       <c r="G36" s="2">
         <f>F36/D36</f>
-        <v>0.826222982281268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1562489102354021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1">
-        <v>176</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4.1900000000000004</v>
+        <v>240</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3.08</v>
       </c>
       <c r="F37" s="7">
         <f>1000/E37/1.757</f>
-        <v>135.83579082918243</v>
+        <v>184.78959856307608</v>
       </c>
       <c r="G37" s="2">
         <f>F37/D37</f>
-        <v>0.7717942660749002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.76995666067948365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1">
-        <v>136</v>
-      </c>
-      <c r="E38" s="2">
-        <v>4.4000000000000004</v>
+        <v>144</v>
+      </c>
+      <c r="E38" s="9">
+        <v>3.74</v>
       </c>
       <c r="F38" s="6">
-        <f>1000/E38/1.757</f>
-        <v>129.35271899415326</v>
+        <v>152</v>
       </c>
       <c r="G38" s="2">
         <f>F38/D38</f>
-        <v>0.95112293378053869</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1">
-        <v>192</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4.43</v>
+        <v>120</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3.77</v>
       </c>
       <c r="F39" s="7">
         <f>1000/E39/1.757</f>
-        <v>128.4767412131545</v>
+        <v>150.96869060325579</v>
       </c>
       <c r="G39" s="2">
         <f>F39/D39</f>
-        <v>0.66914969381851297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.2580724216937982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1">
-        <v>108</v>
-      </c>
-      <c r="E40" s="2">
-        <v>4.57</v>
+        <v>180</v>
+      </c>
+      <c r="E40" s="9">
+        <v>3.827</v>
       </c>
       <c r="F40" s="7">
         <f>1000/E40/1.757</f>
-        <v>124.54091106658082</v>
+        <v>148.72013681062825</v>
       </c>
       <c r="G40" s="2">
         <f>F40/D40</f>
-        <v>1.1531565839498223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.826222982281268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
-        <v>128</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4.71</v>
-      </c>
-      <c r="F41" s="6">
+        <v>176</v>
+      </c>
+      <c r="E41" s="9">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F41" s="7">
         <f>1000/E41/1.757</f>
-        <v>120.83905808371006</v>
+        <v>135.83579082918243</v>
       </c>
       <c r="G41" s="2">
         <f>F41/D41</f>
-        <v>0.94405514127898482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.7717942660749002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1">
-        <v>168</v>
-      </c>
-      <c r="E42" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="F42" s="7">
+        <v>136</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F42" s="6">
         <f>1000/E42/1.757</f>
-        <v>117.5933809037757</v>
+        <v>129.35271899415326</v>
       </c>
       <c r="G42" s="2">
         <f>F42/D42</f>
-        <v>0.69996060061771248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.95112293378053869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1">
         <v>192</v>
       </c>
-      <c r="E43" s="2">
-        <v>5.0199999999999996</v>
+      <c r="E43" s="9">
+        <v>4.43</v>
       </c>
       <c r="F43" s="7">
         <f>1000/E43/1.757</f>
-        <v>113.37688517415825</v>
+        <v>128.4767412131545</v>
       </c>
       <c r="G43" s="2">
         <f>F43/D43</f>
-        <v>0.59050461028207424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.66914969381851297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1">
-        <v>144</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="F44" s="6">
+        <v>108</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F44" s="7">
         <f>1000/E44/1.757</f>
-        <v>112.70335912361868</v>
+        <v>124.54091106658082</v>
       </c>
       <c r="G44" s="2">
         <f>F44/D44</f>
-        <v>0.78266221613624087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1531565839498223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="1">
-        <v>84</v>
-      </c>
-      <c r="E45" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="F45" s="7">
+        <v>128</v>
+      </c>
+      <c r="E45" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F45" s="6">
         <f>1000/E45/1.757</f>
-        <v>109.24221949602196</v>
+        <v>120.83905808371006</v>
       </c>
       <c r="G45" s="2">
         <f>F45/D45</f>
-        <v>1.3005026130478805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.94405514127898482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="1">
-        <v>80</v>
-      </c>
-      <c r="E46" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="F46" s="6">
+        <v>168</v>
+      </c>
+      <c r="E46" s="9">
+        <v>4.84</v>
+      </c>
+      <c r="F46" s="7">
         <f>1000/E46/1.757</f>
-        <v>106.98345179967562</v>
+        <v>117.5933809037757</v>
       </c>
       <c r="G46" s="2">
         <f>F46/D46</f>
-        <v>1.3372931474959453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.69996060061771248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1">
-        <v>136</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5.57</v>
-      </c>
-      <c r="F47" s="6">
+        <v>192</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F47" s="7">
         <f>1000/E47/1.757</f>
-        <v>102.18168107258067</v>
+        <v>113.37688517415825</v>
       </c>
       <c r="G47" s="2">
         <f>F47/D47</f>
-        <v>0.75133589023956382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.59050461028207424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
-        <v>108</v>
-      </c>
-      <c r="E48" s="2">
-        <v>6</v>
-      </c>
-      <c r="F48" s="7">
+        <v>144</v>
+      </c>
+      <c r="E48" s="9">
+        <v>5.05</v>
+      </c>
+      <c r="F48" s="6">
         <f>1000/E48/1.757</f>
-        <v>94.858660595712394</v>
+        <v>112.70335912361868</v>
       </c>
       <c r="G48" s="2">
         <f>F48/D48</f>
-        <v>0.87832093144178147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.78266221613624087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
-        <v>80</v>
-      </c>
-      <c r="E49" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="F49" s="6">
+        <v>84</v>
+      </c>
+      <c r="E49" s="9">
+        <v>5.21</v>
+      </c>
+      <c r="F49" s="7">
         <f>1000/E49/1.757</f>
-        <v>89.208771720105702</v>
+        <v>109.24221949602196</v>
       </c>
       <c r="G49" s="2">
         <f>F49/D49</f>
-        <v>1.1151096465013213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3005026130478805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>144</v>
-      </c>
-      <c r="E50" s="2">
-        <v>6.69</v>
-      </c>
-      <c r="F50" s="7">
+        <v>80</v>
+      </c>
+      <c r="E50" s="9">
+        <v>5.32</v>
+      </c>
+      <c r="F50" s="6">
         <f>1000/E50/1.757</f>
-        <v>85.075031924405735</v>
+        <v>106.98345179967562</v>
       </c>
       <c r="G50" s="2">
         <f>F50/D50</f>
-        <v>0.5907988328083732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.3372931474959453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>72</v>
-      </c>
-      <c r="E51" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="F51" s="7">
+        <v>136</v>
+      </c>
+      <c r="E51" s="9">
+        <v>5.57</v>
+      </c>
+      <c r="F51" s="6">
         <f>1000/E51/1.757</f>
-        <v>75.484345301627897</v>
+        <v>102.18168107258067</v>
       </c>
       <c r="G51" s="2">
         <f>F51/D51</f>
-        <v>1.0483936847448319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.75133589023956382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1">
-        <v>120</v>
-      </c>
-      <c r="E52" s="2">
-        <v>8.11</v>
+        <v>108</v>
+      </c>
+      <c r="E52" s="9">
+        <v>6</v>
       </c>
       <c r="F52" s="7">
         <f>1000/E52/1.757</f>
-        <v>70.179033732956157</v>
+        <v>94.858660595712394</v>
       </c>
       <c r="G52" s="2">
         <f>F52/D52</f>
-        <v>0.58482528110796794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.87832093144178147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D53" s="1">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2">
-        <v>8.49</v>
+        <v>80</v>
+      </c>
+      <c r="E53" s="9">
+        <v>6.38</v>
       </c>
       <c r="F53" s="6">
         <f>1000/E53/1.757</f>
-        <v>67.037922682482261</v>
+        <v>89.208771720105702</v>
       </c>
       <c r="G53" s="2">
         <f>F53/D53</f>
-        <v>0.93108225947892032</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1.1151096465013213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1">
-        <v>72</v>
-      </c>
-      <c r="E54" s="2">
-        <v>8.7100000000000009</v>
+        <v>144</v>
+      </c>
+      <c r="E54" s="9">
+        <v>6.69</v>
       </c>
       <c r="F54" s="7">
         <f>1000/E54/1.757</f>
-        <v>65.344657126782351</v>
+        <v>85.075031924405735</v>
       </c>
       <c r="G54" s="2">
         <f>F54/D54</f>
-        <v>0.90756468231642151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.5907988328083732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1">
-        <v>84</v>
-      </c>
-      <c r="E55" s="2">
-        <v>9.19</v>
+        <v>72</v>
+      </c>
+      <c r="E55" s="9">
+        <v>7.54</v>
       </c>
       <c r="F55" s="7">
         <f>1000/E55/1.757</f>
-        <v>61.931660889474905</v>
+        <v>75.484345301627897</v>
       </c>
       <c r="G55" s="2">
         <f>F55/D55</f>
-        <v>0.73728167725565363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0483936847448319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="1">
-        <v>80</v>
-      </c>
-      <c r="E56" s="2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F56" s="6">
+        <v>120</v>
+      </c>
+      <c r="E56" s="9">
+        <v>8.11</v>
+      </c>
+      <c r="F56" s="7">
         <f>1000/E56/1.757</f>
-        <v>61.331030557572667</v>
+        <v>70.179033732956157</v>
       </c>
       <c r="G56" s="2">
         <f>F56/D56</f>
-        <v>0.76663788196965832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.58482528110796794</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D57" s="1">
-        <v>144</v>
-      </c>
-      <c r="E57" s="2">
-        <v>9.41</v>
-      </c>
-      <c r="F57" s="8">
+        <v>72</v>
+      </c>
+      <c r="E57" s="9">
+        <v>8.49</v>
+      </c>
+      <c r="F57" s="6">
         <f>1000/E57/1.757</f>
-        <v>60.483736830422359</v>
+        <v>67.037922682482261</v>
       </c>
       <c r="G57" s="2">
         <f>F57/D57</f>
-        <v>0.42002595021126637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.93108225947892032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1">
-        <v>128</v>
-      </c>
-      <c r="E58" s="2">
-        <v>9.49</v>
-      </c>
-      <c r="F58" s="6">
+        <v>72</v>
+      </c>
+      <c r="E58" s="9">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F58" s="7">
         <f>1000/E58/1.757</f>
-        <v>59.973863390334493</v>
+        <v>65.344657126782351</v>
       </c>
       <c r="G58" s="2">
         <f>F58/D58</f>
-        <v>0.46854580773698823</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.90756468231642151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D59" s="1">
-        <v>72</v>
-      </c>
-      <c r="E59" s="2">
-        <v>10.44</v>
+        <v>84</v>
+      </c>
+      <c r="E59" s="9">
+        <v>9.19</v>
       </c>
       <c r="F59" s="7">
         <f>1000/E59/1.757</f>
-        <v>54.516471606731265</v>
+        <v>61.931660889474905</v>
       </c>
       <c r="G59" s="2">
         <f>F59/D59</f>
-        <v>0.75717321676015648</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.73728167725565363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D60" s="1">
-        <v>72</v>
-      </c>
-      <c r="E60" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="F60" s="7">
+        <v>80</v>
+      </c>
+      <c r="E60" s="9">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F60" s="6">
         <f>1000/E60/1.757</f>
-        <v>48.110901401037566</v>
+        <v>61.331030557572667</v>
       </c>
       <c r="G60" s="2">
         <f>F60/D60</f>
-        <v>0.66820696390329948</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.76663788196965832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="F61" s="6">
+        <v>144</v>
+      </c>
+      <c r="E61" s="9">
+        <v>9.41</v>
+      </c>
+      <c r="F61" s="8">
         <f>1000/E61/1.757</f>
-        <v>46.651800292973313</v>
+        <v>60.483736830422359</v>
       </c>
       <c r="G61" s="2">
         <f>F61/D61</f>
-        <v>0.58314750366216639</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.42002595021126637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D62" s="1">
-        <v>48</v>
-      </c>
-      <c r="E62" s="2">
-        <v>14.9</v>
-      </c>
-      <c r="F62" s="7">
+        <v>128</v>
+      </c>
+      <c r="E62" s="9">
+        <v>9.49</v>
+      </c>
+      <c r="F62" s="6">
         <f>1000/E62/1.757</f>
-        <v>38.198118360689556</v>
+        <v>59.973863390334493</v>
       </c>
       <c r="G62" s="2">
         <f>F62/D62</f>
-        <v>0.7957941325143657</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.46854580773698823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D63" s="1">
         <v>72</v>
       </c>
-      <c r="E63" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="E63" s="9">
+        <v>10.44</v>
+      </c>
+      <c r="F63" s="7">
         <f>1000/E63/1.757</f>
-        <v>33.878093069897282</v>
+        <v>54.516471606731265</v>
       </c>
       <c r="G63" s="2">
         <f>F63/D63</f>
-        <v>0.47052907041524006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.75717321676015648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
@@ -2307,46 +2327,46 @@
       <c r="D64" s="1">
         <v>72</v>
       </c>
-      <c r="E64" s="2">
-        <v>18.329999999999998</v>
+      <c r="E64" s="9">
+        <v>11.83</v>
       </c>
       <c r="F64" s="7">
         <f>1000/E64/1.757</f>
-        <v>31.050298067336303</v>
+        <v>48.110901401037566</v>
       </c>
       <c r="G64" s="2">
         <f>F64/D64</f>
-        <v>0.43125413982411531</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.66820696390329948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="1">
-        <v>72</v>
-      </c>
-      <c r="E65" s="2">
-        <v>19.02</v>
-      </c>
-      <c r="F65" s="7">
+        <v>80</v>
+      </c>
+      <c r="E65" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="F65" s="6">
         <f>1000/E65/1.757</f>
-        <v>29.923867695808326</v>
+        <v>46.651800292973313</v>
       </c>
       <c r="G65" s="2">
         <f>F65/D65</f>
-        <v>0.4156092735528934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.58314750366216639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -2355,271 +2375,273 @@
         <v>55</v>
       </c>
       <c r="D66" s="1">
-        <v>32</v>
-      </c>
-      <c r="E66" s="2">
-        <v>25.3</v>
-      </c>
-      <c r="F66" s="6">
+        <v>48</v>
+      </c>
+      <c r="E66" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="F66" s="7">
         <f>1000/E66/1.757</f>
-        <v>22.496125042461436</v>
+        <v>38.198118360689556</v>
       </c>
       <c r="G66" s="2">
         <f>F66/D66</f>
-        <v>0.70300390757691988</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7957941325143657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D67" s="1">
-        <v>48</v>
-      </c>
-      <c r="E67" s="2">
-        <v>27.52</v>
+        <v>72</v>
+      </c>
+      <c r="E67" s="9">
+        <v>16.8</v>
       </c>
       <c r="F67" s="6">
         <f>1000/E67/1.757</f>
-        <v>20.681394025227995</v>
+        <v>33.878093069897282</v>
       </c>
       <c r="G67" s="2">
         <f>F67/D67</f>
-        <v>0.43086237552558321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.47052907041524006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1">
-        <v>24</v>
-      </c>
-      <c r="E68" s="2">
-        <v>33</v>
-      </c>
-      <c r="F68" s="6">
+        <v>72</v>
+      </c>
+      <c r="E68" s="9">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F68" s="7">
         <f>1000/E68/1.757</f>
-        <v>17.247029199220435</v>
+        <v>31.050298067336303</v>
       </c>
       <c r="G68" s="2">
         <f>F68/D68</f>
-        <v>0.7186262166341848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.43125413982411531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1">
-        <v>32</v>
-      </c>
-      <c r="E69" s="2">
-        <v>42.9</v>
-      </c>
-      <c r="F69" s="6">
+        <v>72</v>
+      </c>
+      <c r="E69" s="9">
+        <v>19.02</v>
+      </c>
+      <c r="F69" s="7">
         <f>1000/E69/1.757</f>
-        <v>13.266945537861874</v>
+        <v>29.923867695808326</v>
       </c>
       <c r="G69" s="2">
         <f>F69/D69</f>
-        <v>0.41459204805818356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4156092735528934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1">
-        <v>24</v>
-      </c>
-      <c r="E70" s="2">
-        <v>53.4</v>
+        <v>32</v>
+      </c>
+      <c r="E70" s="9">
+        <v>25.3</v>
       </c>
       <c r="F70" s="6">
         <f>1000/E70/1.757</f>
-        <v>10.65827647142836</v>
+        <v>22.496125042461436</v>
       </c>
       <c r="G70" s="2">
         <f>F70/D70</f>
-        <v>0.44409485297618168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.70300390757691988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" s="1">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2">
-        <v>67</v>
-      </c>
-      <c r="F71" s="4">
+        <v>48</v>
+      </c>
+      <c r="E71" s="9">
+        <v>27.52</v>
+      </c>
+      <c r="F71" s="6">
         <f>1000/E71/1.757</f>
-        <v>8.4948054264817063</v>
+        <v>20.681394025227995</v>
       </c>
       <c r="G71" s="2">
         <f>F71/D71</f>
-        <v>0.53092533915510665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.43086237552558321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F72" s="4">
+        <v>24</v>
+      </c>
+      <c r="E72" s="9">
+        <v>33</v>
+      </c>
+      <c r="F72" s="6">
         <f>1000/E72/1.757</f>
-        <v>7.9158826644544416</v>
+        <v>17.247029199220435</v>
       </c>
       <c r="G72" s="2">
         <f>F72/D72</f>
-        <v>0.4947426665284026</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7186262166341848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D73" s="1">
-        <v>60</v>
-      </c>
-      <c r="E73" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F73" s="4">
+        <v>32</v>
+      </c>
+      <c r="E73" s="9">
+        <v>42.9</v>
+      </c>
+      <c r="F73" s="6">
         <f>1000/E73/1.757</f>
-        <v>7.7330429833461194</v>
+        <v>13.266945537861874</v>
       </c>
       <c r="G73" s="2">
         <f>F73/D73</f>
-        <v>0.12888404972243533</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.41459204805818356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="6">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2">
-        <v>74</v>
-      </c>
-      <c r="F74" s="4">
+        <v>62</v>
+      </c>
+      <c r="D74" s="1">
+        <v>24</v>
+      </c>
+      <c r="E74" s="9">
+        <v>53.4</v>
+      </c>
+      <c r="F74" s="6">
         <f>1000/E74/1.757</f>
-        <v>7.691242751003708</v>
+        <v>10.65827647142836</v>
       </c>
       <c r="G74" s="2">
         <f>F74/D74</f>
-        <v>0.48070267193773175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.44409485297618168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="6">
-        <v>20</v>
-      </c>
-      <c r="E75" s="2">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="D75" s="1">
+        <v>16</v>
+      </c>
+      <c r="E75" s="9">
+        <v>67</v>
       </c>
       <c r="F75" s="4">
         <f>1000/E75/1.757</f>
-        <v>7.2968200458240311</v>
+        <v>8.4948054264817063</v>
       </c>
       <c r="G75" s="2">
         <f>F75/D75</f>
-        <v>0.36484100229120153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.53092533915510665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="6">
-        <v>60</v>
-      </c>
-      <c r="E76" s="2">
-        <v>79.099999999999994</v>
+        <v>56</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16</v>
+      </c>
+      <c r="E76" s="9">
+        <v>71.900000000000006</v>
       </c>
       <c r="F76" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <f>1000/E76/1.757</f>
+        <v>7.9158826644544416</v>
+      </c>
+      <c r="G76" s="2">
+        <f>F76/D76</f>
+        <v>0.4947426665284026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
@@ -2627,321 +2649,406 @@
       <c r="C77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="6">
-        <v>20</v>
-      </c>
-      <c r="E77" s="2">
-        <v>82.4</v>
+      <c r="D77" s="1">
+        <v>60</v>
+      </c>
+      <c r="E77" s="9">
+        <v>73.599999999999994</v>
       </c>
       <c r="F77" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <f>1000/E77/1.757</f>
+        <v>7.7330429833461194</v>
+      </c>
+      <c r="G77" s="2">
+        <f>F77/D77</f>
+        <v>0.12888404972243533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D78" s="6">
-        <v>60</v>
-      </c>
-      <c r="E78" s="2">
-        <v>85.5</v>
+        <v>16</v>
+      </c>
+      <c r="E78" s="9">
+        <v>74</v>
       </c>
       <c r="F78" s="4">
         <f>1000/E78/1.757</f>
-        <v>6.6567481119798169</v>
+        <v>7.691242751003708</v>
       </c>
       <c r="G78" s="2">
         <f>F78/D78</f>
-        <v>0.11094580186633028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.48070267193773175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D79" s="6">
-        <v>16</v>
-      </c>
-      <c r="E79" s="2">
-        <v>93.5</v>
+        <v>20</v>
+      </c>
+      <c r="E79" s="9">
+        <v>78</v>
       </c>
       <c r="F79" s="4">
         <f>1000/E79/1.757</f>
-        <v>6.0871867761954475</v>
+        <v>7.2968200458240311</v>
       </c>
       <c r="G79" s="2">
         <f>F79/D79</f>
-        <v>0.38044917351221547</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.36484100229120153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D80" s="6">
-        <v>16</v>
-      </c>
-      <c r="E80" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="F80" s="3">
-        <f>1000/E80/1.757</f>
-        <v>5.314210677630947</v>
-      </c>
-      <c r="G80" s="2">
-        <f>F80/D80</f>
-        <v>0.33213816735193419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="E80" s="9">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F80" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D81" s="6">
-        <v>16</v>
-      </c>
-      <c r="E81" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="F81" s="3">
-        <f>1000/E81/1.757</f>
-        <v>5.3092533915510671</v>
-      </c>
-      <c r="G81" s="2">
-        <f>F81/D81</f>
-        <v>0.3318283369719417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="E81" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="F81" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D82" s="6">
-        <v>16</v>
-      </c>
-      <c r="E82" s="2">
-        <v>108.1</v>
-      </c>
-      <c r="F82" s="3">
+        <v>60</v>
+      </c>
+      <c r="E82" s="9">
+        <v>85.5</v>
+      </c>
+      <c r="F82" s="4">
         <f>1000/E82/1.757</f>
-        <v>5.265050541852677</v>
+        <v>6.6567481119798169</v>
       </c>
       <c r="G82" s="2">
         <f>F82/D82</f>
-        <v>0.32906565886579231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+        <v>0.11094580186633028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="6">
         <v>16</v>
       </c>
-      <c r="E83" s="2">
-        <v>121</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="9">
+        <v>93.5</v>
+      </c>
+      <c r="F83" s="4">
         <f>1000/E83/1.757</f>
-        <v>4.7037352361510276</v>
+        <v>6.0871867761954475</v>
       </c>
       <c r="G83" s="2">
         <f>F83/D83</f>
-        <v>0.29398345225943923</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.38044917351221547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D84" s="6">
-        <v>20</v>
-      </c>
-      <c r="E84" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="F84" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E84" s="9">
+        <v>107.1</v>
+      </c>
+      <c r="F84" s="3">
+        <f>1000/E84/1.757</f>
+        <v>5.314210677630947</v>
+      </c>
+      <c r="G84" s="2">
+        <f>F84/D84</f>
+        <v>0.33213816735193419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D85" s="6">
-        <v>60</v>
-      </c>
-      <c r="E85" s="2">
-        <v>124.6</v>
-      </c>
-      <c r="F85" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E85" s="9">
+        <v>107.2</v>
+      </c>
+      <c r="F85" s="3">
+        <f>1000/E85/1.757</f>
+        <v>5.3092533915510671</v>
+      </c>
+      <c r="G85" s="2">
+        <f>F85/D85</f>
+        <v>0.3318283369719417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="5">
-        <v>8051</v>
+        <v>30</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D86" s="6">
-        <v>24</v>
-      </c>
-      <c r="E86" s="2">
-        <v>254</v>
-      </c>
-      <c r="F86" s="4">
+        <v>16</v>
+      </c>
+      <c r="E86" s="9">
+        <v>108.1</v>
+      </c>
+      <c r="F86" s="3">
         <f>1000/E86/1.757</f>
-        <v>2.2407557621034426</v>
+        <v>5.265050541852677</v>
       </c>
       <c r="G86" s="2">
         <f>F86/D86</f>
-        <v>9.3364823420976781E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+        <v>0.32906565886579231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="6">
         <v>16</v>
       </c>
-      <c r="E87" s="2">
-        <v>883</v>
+      <c r="E87" s="9">
+        <v>121</v>
       </c>
       <c r="F87" s="3">
         <f>1000/E87/1.757</f>
-        <v>0.64456621016339111</v>
+        <v>4.7037352361510276</v>
       </c>
       <c r="G87" s="2">
         <f>F87/D87</f>
-        <v>4.0285388135211944E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+        <v>0.29398345225943923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C88" s="5">
-        <v>8051</v>
-      </c>
-      <c r="D88" s="1">
-        <v>16</v>
-      </c>
-      <c r="E88" s="2">
-        <v>884</v>
-      </c>
-      <c r="F88" s="3">
-        <f>1000/E88/1.757</f>
-        <v>0.64383706286682618</v>
-      </c>
-      <c r="G88" s="2">
-        <f>F88/D88</f>
-        <v>4.0239816429176636E-2</v>
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="6">
+        <v>20</v>
+      </c>
+      <c r="E88" s="9">
+        <v>124.8</v>
+      </c>
+      <c r="F88" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.23</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="6">
+        <v>60</v>
+      </c>
+      <c r="E89" s="9">
+        <v>124.6</v>
+      </c>
+      <c r="F89" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.08</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D90" s="6">
+        <v>24</v>
+      </c>
+      <c r="E90" s="9">
+        <v>254</v>
+      </c>
+      <c r="F90" s="4">
+        <f>1000/E90/1.757</f>
+        <v>2.2407557621034426</v>
+      </c>
+      <c r="G90" s="2">
+        <f>F90/D90</f>
+        <v>9.3364823420976781E-2</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D91" s="1">
+        <v>16</v>
+      </c>
+      <c r="E91" s="9">
+        <v>883</v>
+      </c>
+      <c r="F91" s="3">
+        <f>1000/E91/1.757</f>
+        <v>0.64456621016339111</v>
+      </c>
+      <c r="G91" s="2">
+        <f>F91/D91</f>
+        <v>4.0285388135211944E-2</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="5">
+        <v>8051</v>
+      </c>
+      <c r="D92" s="1">
+        <v>16</v>
+      </c>
+      <c r="E92" s="9">
+        <v>884</v>
+      </c>
+      <c r="F92" s="3">
+        <f>1000/E92/1.757</f>
+        <v>0.64383706286682618</v>
+      </c>
+      <c r="G92" s="2">
+        <f>F92/D92</f>
+        <v>4.0239816429176636E-2</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:H42" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
       <sortCondition descending="1" ref="F1:F42"/>
     </sortState>
   </autoFilter>
